--- a/BZ172Lab/BZ172Lab Notes.xlsx
+++ b/BZ172Lab/BZ172Lab Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BZ\Projects\PLC61131Repos\BZ172Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E485F0-FB36-4DD3-8C94-23464026ECB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429236A4-2469-4FED-ABBE-8E18830E7CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -43,16 +43,16 @@
     <definedName name="CP_ID">Requirements!$B$159</definedName>
     <definedName name="CW_ID">Requirements!$B$87</definedName>
     <definedName name="EC_ID">Requirements!$B$95</definedName>
-    <definedName name="frs.all">Requirements!$B$3:$E$207</definedName>
-    <definedName name="frs.id">Requirements!$B$2:$B$207</definedName>
+    <definedName name="frs.all">Requirements!$B$3:$E$208</definedName>
+    <definedName name="frs.id">Requirements!$B$2:$B$208</definedName>
     <definedName name="FRS.Level" localSheetId="5">[1]Requirements!$D$4:$D$176</definedName>
-    <definedName name="FRS.Level">Requirements!$C$3:$C$207</definedName>
-    <definedName name="frs.requirement">Requirements!$E$2:$E$207</definedName>
+    <definedName name="FRS.Level">Requirements!$C$3:$C$208</definedName>
+    <definedName name="frs.requirement">Requirements!$E$2:$E$208</definedName>
     <definedName name="FRS.Status" localSheetId="5">[1]Requirements!$E$4:$E$176</definedName>
-    <definedName name="FRS.Status">Requirements!$D$3:$D$207</definedName>
-    <definedName name="FRSList">Requirements!$B$2:$F$203</definedName>
+    <definedName name="FRS.Status">Requirements!$D$3:$D$208</definedName>
+    <definedName name="FRSList">Requirements!$B$2:$F$204</definedName>
     <definedName name="GF_ID">Requirements!$B$3</definedName>
-    <definedName name="GP_ID">Requirements!$B$194</definedName>
+    <definedName name="GP_ID">Requirements!$B$195</definedName>
     <definedName name="notifications" localSheetId="5">OFFSET([2]Settings!$C$1,1,0,MATCH(REPT("z",255),[2]Settings!$C:$C),1)</definedName>
     <definedName name="notifications">OFFSET([3]Settings!$C$1,1,0,MATCH(REPT("z",255),[3]Settings!$C:$C),1)</definedName>
     <definedName name="priorities" localSheetId="5">[4]Settings!$A$2:$A$6</definedName>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="841">
   <si>
     <t>Author</t>
   </si>
@@ -2411,12 +2411,6 @@
     <t>EEV working time (EEVRunHours) should be traced with a percision of an hour.</t>
   </si>
   <si>
-    <t>Warning[51] : EEV Lifecycle
-    Entry  : EEVRunHours &gt;  EEVRunHours_cfg.
-    Exit      : EEVRunHours &lt; EEVRunHours_cfg.
-EEVRunHours is from [8736, 65535] with default 20208</t>
-  </si>
-  <si>
     <t>A binary hardware input (RSS) can override 'ON' status of the unit by putting it into 'OFF'.</t>
   </si>
   <si>
@@ -2488,12 +2482,6 @@
     <t>Fan status should be polled periodically?</t>
   </si>
   <si>
-    <t>Warning[70] : Compressor Lifecycle
-    Entry  : CompRunHours &gt;  CompRunHours_cfg.
-    Exit      : CompRunHours &lt; CompRunHours_cfg.
-CompRunHours is from [8736, 65535] with default 20208</t>
-  </si>
-  <si>
     <t>1.0 version</t>
   </si>
   <si>
@@ -2526,14 +2514,6 @@
   </si>
   <si>
     <t>RS485-1 (CN19) is the customer interface of data exchange by working as a MODBUS slave. By default, the communication parameters are 19200 8-E-1 and the address is 7.</t>
-  </si>
-  <si>
-    <t>BIOS (bzBIOSVersion) and application (bzAppVersion) version can be read from MODBUS.</t>
-  </si>
-  <si>
-    <t>Serial NO. and Model NO. can be preserved permanently.
-Serial NO (bzSerialNO) is string type with max length of 16 bytes
-Model NO (bzModelNO) is string type with max length of 16 bytes</t>
   </si>
   <si>
     <t>DDF overall design</t>
@@ -3216,6 +3196,37 @@
   </si>
   <si>
     <t>BZ172Lab</t>
+  </si>
+  <si>
+    <t>Warning[101] : Unit Lifecycle
+    Entry  : bzUnitRunhourLog is greater than bzUnitRunhourThresholdCfg.
+    Exit      : bzUnitRunhourLog is less than bzUnitRunhourThresholdCfg.
+bzUnitRunhourThresholdCfg is from [8736, 65535] with default 20208</t>
+  </si>
+  <si>
+    <t>Warning[51] : EEV Lifecycle
+    Entry  : bzEEVRunHourLog &gt;  bzEEVRunHourThresholdCfg.
+    Exit      : bzEEVRunHourLog &lt; bzEEVRunHourThresholdCfg.
+bzEEVRunHourThresholdCfg is from [8736, 65535] with default 20208</t>
+  </si>
+  <si>
+    <t>Warning[70] : Compressor Lifecycle
+    Entry  : bzCompressorRunHourLog &gt;  bzCompressorRunHourThresholdCfg.
+    Exit      : bzCompressorRunHourLog &lt; bzCompressorRunHourThresholdCfg.
+bzCompressorRunHourThresholdCfg is from [8736, 65535] with default 20208</t>
+  </si>
+  <si>
+    <t>Serial NO. and Model NO. can be preserved permanently.
+Serial NO (bzSerialNO) is string type with max length of 15 bytes
+Model NO (bzModelNO) is string type with max length of 15 bytes</t>
+  </si>
+  <si>
+    <t>BIOS (bzBIOSVersion) and application (bzAppVersion) version can be read from MODBUS.
+Max length of version string is 8
+The format of application version is YYMM.xxx where
+YY  is two-digit year, 20 for 2020 for example
+MM is the  acronym of the month that it is released. (JN,FB,MR,AP,MY,JN,JL,AG,SP,OT,NV,DC)
+and xxx is ordinal number for the release times in the specific month</t>
   </si>
 </sst>
 </file>
@@ -4887,16 +4898,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4910,36 +4951,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="15" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4977,151 +4988,6 @@
   </cellStyles>
   <dxfs count="132">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
@@ -5148,243 +5014,6 @@
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5421,152 +5050,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="3"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF7F7F7F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF7F7F7F"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -6048,6 +5531,534 @@
         <b val="0"/>
         <i/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -8486,51 +8497,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA4C32D8-628E-4DC9-877D-4ED51980429C}" name="Table2" displayName="Table2" ref="B2:F200" totalsRowShown="0" headerRowDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="B2:F200" xr:uid="{CDEA0ADE-0555-4D01-8A61-CFA14708222C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA4C32D8-628E-4DC9-877D-4ED51980429C}" name="Table2" displayName="Table2" ref="B2:F201" totalsRowShown="0" headerRowDxfId="129" tableBorderDxfId="128">
+  <autoFilter ref="B2:F201" xr:uid="{CDEA0ADE-0555-4D01-8A61-CFA14708222C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EEC440CC-C59E-404F-9916-B7B335C0A1FA}" name="ID" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{0D454755-1962-49B9-A9AE-DE3621F55672}" name="LEVEL" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{9BA24605-273E-4985-933B-06818CBA9537}" name="STATUS" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{53754EA4-50A6-4DD8-9232-D08866425BE4}" name="REQUIREMENT" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{1B4BE84A-D954-4677-AFFC-A0D5CAB7D3BA}" name="COMMENT" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{EEC440CC-C59E-404F-9916-B7B335C0A1FA}" name="ID" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{0D454755-1962-49B9-A9AE-DE3621F55672}" name="LEVEL" dataDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{9BA24605-273E-4985-933B-06818CBA9537}" name="STATUS" dataDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{53754EA4-50A6-4DD8-9232-D08866425BE4}" name="REQUIREMENT" dataDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{1B4BE84A-D954-4677-AFFC-A0D5CAB7D3BA}" name="COMMENT" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAF4E3A6-1435-4943-A0FB-7E69B9E573B3}" name="Table1" displayName="Table1" ref="B2:K86" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAF4E3A6-1435-4943-A0FB-7E69B9E573B3}" name="Table1" displayName="Table1" ref="B2:K86" totalsRowShown="0" headerRowDxfId="122" headerRowBorderDxfId="121" tableBorderDxfId="120">
   <autoFilter ref="B2:K86" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BA3BC7BB-ECE4-462B-8824-97F388F144C5}" name="ID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{C7FEB3E5-CB44-4B6C-9037-3D4D80F11092}" name="Task" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{DA8AC2B3-0FDD-4A71-9D23-75C65B931AE5}" name="Due" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{79F1150C-F5DC-407D-B8EC-D7D0577E0197}" name="Days" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{BA3BC7BB-ECE4-462B-8824-97F388F144C5}" name="ID" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{C7FEB3E5-CB44-4B6C-9037-3D4D80F11092}" name="Task" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{DA8AC2B3-0FDD-4A71-9D23-75C65B931AE5}" name="Due" dataDxfId="117"/>
+    <tableColumn id="11" xr3:uid="{79F1150C-F5DC-407D-B8EC-D7D0577E0197}" name="Days" dataDxfId="116">
       <calculatedColumnFormula>IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9690982A-833C-4E42-9ED5-2EFA892551CE}" name="PRI" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{94174600-EB70-4A9B-9222-C70BB59D0A17}" name="BL" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{89F020A6-CB77-4228-B7A9-9FA1CA50D659}" name="PROG" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{62190683-A6A8-4A1D-8C2C-F4AA5A1AA84F}" name="Owners" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{212AD8CC-8A46-4EF1-A572-52656BE74CC0}" name="Prerequisites" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{47B4D71F-1414-4149-9932-EF0D1879BE1E}" name="Deliverables" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9690982A-833C-4E42-9ED5-2EFA892551CE}" name="PRI" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{94174600-EB70-4A9B-9222-C70BB59D0A17}" name="BL" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{89F020A6-CB77-4228-B7A9-9FA1CA50D659}" name="PROG" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{62190683-A6A8-4A1D-8C2C-F4AA5A1AA84F}" name="Owners" dataDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{212AD8CC-8A46-4EF1-A572-52656BE74CC0}" name="Prerequisites" dataDxfId="111"/>
+    <tableColumn id="10" xr3:uid="{47B4D71F-1414-4149-9932-EF0D1879BE1E}" name="Deliverables" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="VerificationTable" displayName="VerificationTable" ref="B9:I29" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="VerificationTable" displayName="VerificationTable" ref="B9:I29" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NO." dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Issue_x000a_Description" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Category" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Found_x000a_Version" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Repaired _x000a_Version" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Last_x000a_Date" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comment" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NO." dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Issue_x000a_Description" dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Category" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Found_x000a_Version" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Repaired _x000a_Version" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Last_x000a_Date" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comment" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8860,7 +8871,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D4:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:O13"/>
     </sheetView>
   </sheetViews>
@@ -8871,7 +8882,7 @@
   <sheetData>
     <row r="4" spans="4:15">
       <c r="D4" s="207" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E4" s="207"/>
       <c r="F4" s="207"/>
@@ -9017,7 +9028,7 @@
       </c>
       <c r="E21" s="205"/>
       <c r="F21" s="206" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G21" s="206"/>
       <c r="H21" s="206"/>
@@ -9029,7 +9040,7 @@
       </c>
       <c r="F22" s="204">
         <f ca="1">TODAY()</f>
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c r="G22" s="204"/>
       <c r="H22" s="204"/>
@@ -9428,16 +9439,16 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"As Design"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9713,7 +9724,7 @@
   <dimension ref="E3:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9753,7 +9764,7 @@
         <v>44221</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="5:6">
@@ -9761,7 +9772,7 @@
         <v>44237</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="5:6">
@@ -9825,34 +9836,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:7">
-      <c r="D2" s="226">
+      <c r="D2" s="216">
         <f ca="1">TODAY()</f>
-        <v>44245</v>
-      </c>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
+        <v>44249</v>
+      </c>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
     </row>
     <row r="3" spans="4:7">
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
     </row>
     <row r="4" spans="4:7">
-      <c r="D4" s="225" t="s">
+      <c r="D4" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="225"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="27">
         <f>COUNTIF(FRS.Level, D4)</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="4:7">
-      <c r="D5" s="225" t="s">
+      <c r="D5" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="225"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="27">
         <f>COUNTIF(FRS.Level, D5)</f>
         <v>7</v>
@@ -9860,10 +9871,10 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="4:7">
-      <c r="D6" s="225" t="s">
+      <c r="D6" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="225"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="27">
         <f>COUNTIF(FRS.Level, D6)</f>
         <v>5</v>
@@ -9871,10 +9882,10 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="4:7">
-      <c r="D7" s="225" t="s">
+      <c r="D7" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="225"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="27">
         <f>COUNTIF(FRS.Level, D7)</f>
         <v>0</v>
@@ -9886,139 +9897,139 @@
       <c r="E8" s="25"/>
       <c r="F8" s="27">
         <f>SUM(F4:F7)</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G8" s="26"/>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="225" t="s">
+      <c r="D10" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="225"/>
+      <c r="E10" s="215"/>
       <c r="F10" s="27">
         <f t="shared" ref="F10:F16" si="0">COUNTIF(FRS.Status,D10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="4:7">
-      <c r="D11" s="225" t="s">
+      <c r="D11" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="225"/>
+      <c r="E11" s="215"/>
       <c r="F11" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="4:7">
-      <c r="D12" s="225" t="s">
+      <c r="D12" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="225"/>
+      <c r="E12" s="215"/>
       <c r="F12" s="27">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="225" t="s">
+      <c r="D13" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="225"/>
+      <c r="E13" s="215"/>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="225" t="s">
+      <c r="D14" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="225"/>
+      <c r="E14" s="215"/>
       <c r="F14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="225" t="s">
+      <c r="D15" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="225"/>
+      <c r="E15" s="215"/>
       <c r="F15" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:7">
-      <c r="D16" s="225" t="s">
+      <c r="D16" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="225"/>
+      <c r="E16" s="215"/>
       <c r="F16" s="27">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="4:19" ht="20.25" thickBot="1">
-      <c r="D18" s="217" t="s">
+      <c r="D18" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="216" t="s">
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="226" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="216"/>
-      <c r="J18" s="216"/>
-      <c r="K18" s="216"/>
-      <c r="L18" s="216"/>
-      <c r="M18" s="216"/>
-      <c r="N18" s="216"/>
-      <c r="O18" s="216"/>
-      <c r="P18" s="216"/>
-      <c r="Q18" s="216"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="226"/>
+      <c r="O18" s="226"/>
+      <c r="P18" s="226"/>
+      <c r="Q18" s="226"/>
     </row>
     <row r="19" spans="4:19" ht="15.75" thickTop="1">
-      <c r="D19" s="210" t="s">
+      <c r="D19" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210" t="s">
+      <c r="E19" s="223"/>
+      <c r="F19" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210" t="s">
+      <c r="G19" s="223"/>
+      <c r="H19" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210" t="s">
+      <c r="I19" s="223"/>
+      <c r="J19" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="210"/>
-      <c r="L19" s="210" t="s">
+      <c r="K19" s="223"/>
+      <c r="L19" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="210"/>
-      <c r="N19" s="210" t="s">
+      <c r="M19" s="223"/>
+      <c r="N19" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="210"/>
-      <c r="P19" s="210" t="s">
+      <c r="O19" s="223"/>
+      <c r="P19" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="210"/>
+      <c r="Q19" s="223"/>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="211">
+      <c r="D20" s="210">
         <v>44221</v>
       </c>
-      <c r="E20" s="212"/>
-      <c r="F20" s="220" t="s">
+      <c r="E20" s="211"/>
+      <c r="F20" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="220"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="213">
         <v>8</v>
       </c>
@@ -10035,21 +10046,21 @@
         <v>0</v>
       </c>
       <c r="O20" s="213"/>
-      <c r="P20" s="214">
+      <c r="P20" s="224">
         <v>0</v>
       </c>
-      <c r="Q20" s="215"/>
+      <c r="Q20" s="225"/>
       <c r="S20" s="28"/>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="211">
+      <c r="D21" s="210">
         <v>44237</v>
       </c>
-      <c r="E21" s="212"/>
-      <c r="F21" s="220" t="s">
-        <v>769</v>
-      </c>
-      <c r="G21" s="220"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="212" t="s">
+        <v>765</v>
+      </c>
+      <c r="G21" s="212"/>
       <c r="H21" s="213">
         <v>9</v>
       </c>
@@ -10069,17 +10080,17 @@
       <c r="P21" s="213">
         <v>56</v>
       </c>
-      <c r="Q21" s="223"/>
+      <c r="Q21" s="214"/>
     </row>
     <row r="22" spans="4:19">
-      <c r="D22" s="211">
+      <c r="D22" s="210">
         <v>44256</v>
       </c>
-      <c r="E22" s="212"/>
-      <c r="F22" s="220" t="s">
-        <v>833</v>
-      </c>
-      <c r="G22" s="220"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="212" t="s">
+        <v>829</v>
+      </c>
+      <c r="G22" s="212"/>
       <c r="H22" s="213"/>
       <c r="I22" s="213"/>
       <c r="J22" s="213"/>
@@ -10089,13 +10100,13 @@
       <c r="N22" s="213"/>
       <c r="O22" s="213"/>
       <c r="P22" s="213"/>
-      <c r="Q22" s="223"/>
+      <c r="Q22" s="214"/>
     </row>
     <row r="23" spans="4:19">
-      <c r="D23" s="211"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="220"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
       <c r="H23" s="213"/>
       <c r="I23" s="213"/>
       <c r="J23" s="213"/>
@@ -10105,13 +10116,13 @@
       <c r="N23" s="213"/>
       <c r="O23" s="213"/>
       <c r="P23" s="213"/>
-      <c r="Q23" s="223"/>
+      <c r="Q23" s="214"/>
     </row>
     <row r="24" spans="4:19">
-      <c r="D24" s="211"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="220"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
       <c r="H24" s="213"/>
       <c r="I24" s="213"/>
       <c r="J24" s="213"/>
@@ -10121,13 +10132,13 @@
       <c r="N24" s="213"/>
       <c r="O24" s="213"/>
       <c r="P24" s="213"/>
-      <c r="Q24" s="223"/>
+      <c r="Q24" s="214"/>
     </row>
     <row r="25" spans="4:19">
-      <c r="D25" s="211"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="220"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
       <c r="H25" s="213"/>
       <c r="I25" s="213"/>
       <c r="J25" s="213"/>
@@ -10137,13 +10148,13 @@
       <c r="N25" s="213"/>
       <c r="O25" s="213"/>
       <c r="P25" s="213"/>
-      <c r="Q25" s="223"/>
+      <c r="Q25" s="214"/>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="211"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="220"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
       <c r="H26" s="213"/>
       <c r="I26" s="213"/>
       <c r="J26" s="213"/>
@@ -10153,13 +10164,13 @@
       <c r="N26" s="213"/>
       <c r="O26" s="213"/>
       <c r="P26" s="213"/>
-      <c r="Q26" s="223"/>
+      <c r="Q26" s="214"/>
     </row>
     <row r="27" spans="4:19">
-      <c r="D27" s="211"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="220"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
       <c r="H27" s="213"/>
       <c r="I27" s="213"/>
       <c r="J27" s="213"/>
@@ -10169,13 +10180,13 @@
       <c r="N27" s="213"/>
       <c r="O27" s="213"/>
       <c r="P27" s="213"/>
-      <c r="Q27" s="223"/>
+      <c r="Q27" s="214"/>
     </row>
     <row r="28" spans="4:19">
-      <c r="D28" s="211"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="220"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="212"/>
       <c r="H28" s="213"/>
       <c r="I28" s="213"/>
       <c r="J28" s="213"/>
@@ -10185,13 +10196,13 @@
       <c r="N28" s="213"/>
       <c r="O28" s="213"/>
       <c r="P28" s="213"/>
-      <c r="Q28" s="223"/>
+      <c r="Q28" s="214"/>
     </row>
     <row r="29" spans="4:19">
-      <c r="D29" s="211"/>
-      <c r="E29" s="212"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="220"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="212"/>
       <c r="H29" s="213"/>
       <c r="I29" s="213"/>
       <c r="J29" s="213"/>
@@ -10201,13 +10212,13 @@
       <c r="N29" s="213"/>
       <c r="O29" s="213"/>
       <c r="P29" s="213"/>
-      <c r="Q29" s="223"/>
+      <c r="Q29" s="214"/>
     </row>
     <row r="30" spans="4:19">
-      <c r="D30" s="211"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
       <c r="H30" s="213"/>
       <c r="I30" s="213"/>
       <c r="J30" s="213"/>
@@ -10217,13 +10228,13 @@
       <c r="N30" s="213"/>
       <c r="O30" s="213"/>
       <c r="P30" s="213"/>
-      <c r="Q30" s="223"/>
+      <c r="Q30" s="214"/>
     </row>
     <row r="31" spans="4:19">
-      <c r="D31" s="211"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="220"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
       <c r="H31" s="213"/>
       <c r="I31" s="213"/>
       <c r="J31" s="213"/>
@@ -10233,13 +10244,13 @@
       <c r="N31" s="213"/>
       <c r="O31" s="213"/>
       <c r="P31" s="213"/>
-      <c r="Q31" s="223"/>
+      <c r="Q31" s="214"/>
     </row>
     <row r="32" spans="4:19">
-      <c r="D32" s="211"/>
-      <c r="E32" s="212"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
+      <c r="D32" s="210"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="212"/>
       <c r="H32" s="213"/>
       <c r="I32" s="213"/>
       <c r="J32" s="213"/>
@@ -10249,13 +10260,13 @@
       <c r="N32" s="213"/>
       <c r="O32" s="213"/>
       <c r="P32" s="213"/>
-      <c r="Q32" s="223"/>
+      <c r="Q32" s="214"/>
     </row>
     <row r="33" spans="4:17">
-      <c r="D33" s="211"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
       <c r="H33" s="213"/>
       <c r="I33" s="213"/>
       <c r="J33" s="213"/>
@@ -10265,13 +10276,13 @@
       <c r="N33" s="213"/>
       <c r="O33" s="213"/>
       <c r="P33" s="213"/>
-      <c r="Q33" s="223"/>
+      <c r="Q33" s="214"/>
     </row>
     <row r="34" spans="4:17">
-      <c r="D34" s="211"/>
-      <c r="E34" s="212"/>
-      <c r="F34" s="220"/>
-      <c r="G34" s="220"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
       <c r="H34" s="213"/>
       <c r="I34" s="213"/>
       <c r="J34" s="213"/>
@@ -10281,13 +10292,13 @@
       <c r="N34" s="213"/>
       <c r="O34" s="213"/>
       <c r="P34" s="213"/>
-      <c r="Q34" s="223"/>
+      <c r="Q34" s="214"/>
     </row>
     <row r="35" spans="4:17">
-      <c r="D35" s="211"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="220"/>
-      <c r="G35" s="220"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
       <c r="H35" s="213"/>
       <c r="I35" s="213"/>
       <c r="J35" s="213"/>
@@ -10297,13 +10308,13 @@
       <c r="N35" s="213"/>
       <c r="O35" s="213"/>
       <c r="P35" s="213"/>
-      <c r="Q35" s="223"/>
+      <c r="Q35" s="214"/>
     </row>
     <row r="36" spans="4:17">
-      <c r="D36" s="211"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="220"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
       <c r="H36" s="213"/>
       <c r="I36" s="213"/>
       <c r="J36" s="213"/>
@@ -10313,13 +10324,13 @@
       <c r="N36" s="213"/>
       <c r="O36" s="213"/>
       <c r="P36" s="213"/>
-      <c r="Q36" s="223"/>
+      <c r="Q36" s="214"/>
     </row>
     <row r="37" spans="4:17">
-      <c r="D37" s="211"/>
-      <c r="E37" s="212"/>
-      <c r="F37" s="220"/>
-      <c r="G37" s="220"/>
+      <c r="D37" s="210"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
       <c r="H37" s="213"/>
       <c r="I37" s="213"/>
       <c r="J37" s="213"/>
@@ -10329,13 +10340,13 @@
       <c r="N37" s="213"/>
       <c r="O37" s="213"/>
       <c r="P37" s="213"/>
-      <c r="Q37" s="223"/>
+      <c r="Q37" s="214"/>
     </row>
     <row r="38" spans="4:17">
-      <c r="D38" s="211"/>
-      <c r="E38" s="212"/>
-      <c r="F38" s="220"/>
-      <c r="G38" s="220"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
       <c r="H38" s="213"/>
       <c r="I38" s="213"/>
       <c r="J38" s="213"/>
@@ -10345,13 +10356,13 @@
       <c r="N38" s="213"/>
       <c r="O38" s="213"/>
       <c r="P38" s="213"/>
-      <c r="Q38" s="223"/>
+      <c r="Q38" s="214"/>
     </row>
     <row r="39" spans="4:17">
-      <c r="D39" s="211"/>
-      <c r="E39" s="212"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="220"/>
+      <c r="D39" s="210"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="212"/>
+      <c r="G39" s="212"/>
       <c r="H39" s="213"/>
       <c r="I39" s="213"/>
       <c r="J39" s="213"/>
@@ -10361,23 +10372,23 @@
       <c r="N39" s="213"/>
       <c r="O39" s="213"/>
       <c r="P39" s="213"/>
-      <c r="Q39" s="223"/>
+      <c r="Q39" s="214"/>
     </row>
     <row r="40" spans="4:17">
-      <c r="D40" s="218"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="221"/>
-      <c r="G40" s="221"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="222"/>
-      <c r="J40" s="222"/>
-      <c r="K40" s="222"/>
-      <c r="L40" s="222"/>
-      <c r="M40" s="222"/>
-      <c r="N40" s="222"/>
-      <c r="O40" s="222"/>
-      <c r="P40" s="222"/>
-      <c r="Q40" s="224"/>
+      <c r="D40" s="221"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="218"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="218"/>
+      <c r="N40" s="218"/>
+      <c r="O40" s="218"/>
+      <c r="P40" s="218"/>
+      <c r="Q40" s="219"/>
     </row>
     <row r="41" spans="4:17">
       <c r="D41" s="24"/>
@@ -10385,71 +10396,85 @@
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="L21:M21"/>
@@ -10474,85 +10499,71 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -10574,13 +10585,13 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F208"/>
+  <dimension ref="B1:F209"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -10648,7 +10659,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F5" s="33"/>
     </row>
@@ -10744,11 +10755,11 @@
         <v>18</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>716</v>
+        <v>839</v>
       </c>
       <c r="F11" s="33"/>
     </row>
-    <row r="12" spans="2:6" ht="30" outlineLevel="1">
+    <row r="12" spans="2:6" ht="135" outlineLevel="1">
       <c r="B12" s="30" t="str">
         <f t="shared" si="0"/>
         <v>GF.009</v>
@@ -10757,10 +10768,10 @@
         <v>35</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>715</v>
+        <v>840</v>
       </c>
       <c r="F12" s="33"/>
     </row>
@@ -10792,7 +10803,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F14" s="33">
         <v>9960</v>
@@ -10826,7 +10837,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F16" s="33">
         <v>10160</v>
@@ -10860,7 +10871,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F18" s="33"/>
     </row>
@@ -10876,7 +10887,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F19" s="33"/>
     </row>
@@ -10892,7 +10903,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F20" s="92"/>
     </row>
@@ -10908,7 +10919,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F21" s="92"/>
     </row>
@@ -10924,7 +10935,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F22" s="92"/>
     </row>
@@ -10940,7 +10951,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F23" s="92"/>
     </row>
@@ -10956,7 +10967,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F24" s="92"/>
     </row>
@@ -11220,7 +11231,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F41" s="32">
         <f t="shared" ref="F41:F46" si="2">WARNING_BASE + MID(E41, SEARCH("[",E41) + 1, SEARCH("]",E41) - SEARCH("[",E41) - 1)</f>
@@ -11239,7 +11250,7 @@
         <v>29</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
@@ -11277,7 +11288,7 @@
         <v>29</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
@@ -11469,7 +11480,7 @@
         <v>29</v>
       </c>
       <c r="E58" s="102" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F58" s="32"/>
     </row>
@@ -11485,7 +11496,7 @@
         <v>29</v>
       </c>
       <c r="E59" s="193" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F59" s="92"/>
     </row>
@@ -11501,7 +11512,7 @@
         <v>29</v>
       </c>
       <c r="E60" s="193" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F60" s="92"/>
     </row>
@@ -11517,7 +11528,7 @@
         <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F61" s="32"/>
     </row>
@@ -11533,7 +11544,7 @@
         <v>29</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F62" s="92"/>
     </row>
@@ -11565,7 +11576,7 @@
         <v>29</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F64" s="32"/>
     </row>
@@ -11581,7 +11592,7 @@
         <v>29</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F65" s="32"/>
     </row>
@@ -11597,7 +11608,7 @@
         <v>29</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F66" s="92"/>
     </row>
@@ -12089,7 +12100,7 @@
         <v>21</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F100" s="32"/>
     </row>
@@ -12105,7 +12116,7 @@
         <v>29</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F101" s="92"/>
     </row>
@@ -12121,7 +12132,7 @@
         <v>29</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F102" s="92"/>
     </row>
@@ -12137,7 +12148,7 @@
         <v>29</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F103" s="92"/>
     </row>
@@ -12153,7 +12164,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F104" s="92"/>
     </row>
@@ -12166,7 +12177,7 @@
         <v>35</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>687</v>
@@ -12182,7 +12193,7 @@
         <v>35</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>653</v>
@@ -12233,10 +12244,10 @@
         <v>35</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E109" s="193" t="s">
-        <v>688</v>
+        <v>837</v>
       </c>
       <c r="F109" s="32">
         <f t="shared" si="7"/>
@@ -12433,7 +12444,7 @@
         <v>21</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F122" s="32"/>
     </row>
@@ -12449,7 +12460,7 @@
         <v>29</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F123" s="32"/>
     </row>
@@ -12481,7 +12492,7 @@
         <v>29</v>
       </c>
       <c r="E125" s="193" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F125" s="32">
         <f t="shared" ref="F125" si="8">WARNING_BASE + MID(E125, SEARCH("[",E125) + 1, SEARCH("]",E125) - SEARCH("[",E125) - 1)</f>
@@ -12525,7 +12536,7 @@
         <v>15</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F129" s="92"/>
     </row>
@@ -12541,7 +12552,7 @@
         <v>15</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F130" s="92"/>
     </row>
@@ -12573,7 +12584,7 @@
         <v>21</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F132" s="92"/>
     </row>
@@ -12589,7 +12600,7 @@
         <v>29</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F133" s="92"/>
     </row>
@@ -12605,7 +12616,7 @@
         <v>29</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F134" s="92"/>
     </row>
@@ -12621,7 +12632,7 @@
         <v>29</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F135" s="92"/>
     </row>
@@ -12637,7 +12648,7 @@
         <v>29</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F136" s="92"/>
     </row>
@@ -12653,7 +12664,7 @@
         <v>29</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F137" s="92"/>
     </row>
@@ -12669,7 +12680,7 @@
         <v>29</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F138" s="92"/>
     </row>
@@ -12685,7 +12696,7 @@
         <v>18</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F139" s="92"/>
     </row>
@@ -12701,7 +12712,7 @@
         <v>18</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F140" s="92"/>
     </row>
@@ -12717,7 +12728,7 @@
         <v>18</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F141" s="92"/>
     </row>
@@ -12733,7 +12744,7 @@
         <v>15</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F142" s="92"/>
     </row>
@@ -12749,7 +12760,7 @@
         <v>18</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F143" s="92"/>
     </row>
@@ -12765,7 +12776,7 @@
         <v>18</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F144" s="92"/>
     </row>
@@ -12781,7 +12792,7 @@
         <v>18</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F145" s="92"/>
     </row>
@@ -12797,7 +12808,7 @@
         <v>18</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F146" s="32">
         <f>ALARM_BASE + MID(E146, SEARCH("[",E146) + 1, SEARCH("]",E146) - SEARCH("[",E146) - 1)</f>
@@ -12829,10 +12840,10 @@
         <v>35</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F148" s="92"/>
     </row>
@@ -12845,10 +12856,10 @@
         <v>35</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E149" s="193" t="s">
-        <v>706</v>
+        <v>838</v>
       </c>
       <c r="F149" s="32">
         <f t="shared" ref="F149" si="10">WARNING_BASE + MID(E149, SEARCH("[",E149) + 1, SEARCH("]",E149) - SEARCH("[",E149) - 1)</f>
@@ -12899,7 +12910,7 @@
         <v>15</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F154" s="92"/>
     </row>
@@ -12915,7 +12926,7 @@
         <v>15</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F155" s="92"/>
     </row>
@@ -12979,7 +12990,7 @@
         <v>29</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F161" s="92"/>
     </row>
@@ -12995,7 +13006,7 @@
         <v>29</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F162" s="92"/>
     </row>
@@ -13027,7 +13038,7 @@
         <v>29</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F164" s="32">
         <f>ALARM_BASE + MID(E164, SEARCH("[",E164) + 1, SEARCH("]",E164) - SEARCH("[",E164) - 1)</f>
@@ -13062,7 +13073,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="193" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F166" s="32">
         <f t="shared" ref="F166" si="12">WARNING_BASE + MID(E166, SEARCH("[",E166) + 1, SEARCH("]",E166) - SEARCH("[",E166) - 1)</f>
@@ -13122,7 +13133,7 @@
         <v>29</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F171" s="92"/>
     </row>
@@ -13154,7 +13165,7 @@
         <v>29</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F173" s="92"/>
     </row>
@@ -13185,7 +13196,7 @@
     </row>
     <row r="177" spans="2:6" ht="210" outlineLevel="1">
       <c r="B177" s="91" t="str">
-        <f t="shared" ref="B177:B191" si="13">_xlfn.CONCAT(UO_ID,".",TEXT(ROW()-ROW(UO_ID), "000"))</f>
+        <f t="shared" ref="B177:B192" si="13">_xlfn.CONCAT(UO_ID,".",TEXT(ROW()-ROW(UO_ID), "000"))</f>
         <v>UO.001</v>
       </c>
       <c r="C177" s="20" t="s">
@@ -13195,7 +13206,7 @@
         <v>29</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F177" s="92"/>
     </row>
@@ -13211,7 +13222,7 @@
         <v>29</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F178" s="92"/>
     </row>
@@ -13227,7 +13238,7 @@
         <v>29</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F179" s="92"/>
     </row>
@@ -13243,7 +13254,7 @@
         <v>29</v>
       </c>
       <c r="E180" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F180" s="92"/>
     </row>
@@ -13259,7 +13270,7 @@
         <v>29</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F181" s="92"/>
     </row>
@@ -13275,7 +13286,7 @@
         <v>29</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F182" s="92"/>
     </row>
@@ -13291,7 +13302,7 @@
         <v>29</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F183" s="92"/>
     </row>
@@ -13307,7 +13318,7 @@
         <v>29</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F184" s="92"/>
     </row>
@@ -13323,7 +13334,7 @@
         <v>29</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F185" s="92"/>
     </row>
@@ -13339,14 +13350,14 @@
         <v>29</v>
       </c>
       <c r="E186" s="193" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F186" s="32">
-        <f t="shared" ref="F186" si="14">WARNING_BASE + MID(E186, SEARCH("[",E186) + 1, SEARCH("]",E186) - SEARCH("[",E186) - 1)</f>
+        <f t="shared" ref="F186:F187" si="14">WARNING_BASE + MID(E186, SEARCH("[",E186) + 1, SEARCH("]",E186) - SEARCH("[",E186) - 1)</f>
         <v>10060</v>
       </c>
     </row>
-    <row r="187" spans="2:6" outlineLevel="1">
+    <row r="187" spans="2:6" ht="75" outlineLevel="1">
       <c r="B187" s="91" t="str">
         <f t="shared" si="13"/>
         <v>UO.011</v>
@@ -13357,12 +13368,15 @@
       <c r="D187" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E187" s="21" t="s">
-        <v>690</v>
-      </c>
-      <c r="F187" s="92"/>
-    </row>
-    <row r="188" spans="2:6" ht="45" outlineLevel="1">
+      <c r="E187" s="193" t="s">
+        <v>836</v>
+      </c>
+      <c r="F187" s="32">
+        <f t="shared" si="14"/>
+        <v>10061</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" outlineLevel="1">
       <c r="B188" s="91" t="str">
         <f t="shared" si="13"/>
         <v>UO.012</v>
@@ -13374,12 +13388,9 @@
         <v>29</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>788</v>
-      </c>
-      <c r="F188" s="32">
-        <f>ALARM_BASE + MID(E188, SEARCH("[",E188) + 1, SEARCH("]",E188) - SEARCH("[",E188) - 1)</f>
-        <v>10260</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="F188" s="92"/>
     </row>
     <row r="189" spans="2:6" ht="45" outlineLevel="1">
       <c r="B189" s="91" t="str">
@@ -13393,11 +13404,11 @@
         <v>29</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>691</v>
+        <v>784</v>
       </c>
       <c r="F189" s="32">
         <f>ALARM_BASE + MID(E189, SEARCH("[",E189) + 1, SEARCH("]",E189) - SEARCH("[",E189) - 1)</f>
-        <v>10261</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="190" spans="2:6" ht="45" outlineLevel="1">
@@ -13412,14 +13423,14 @@
         <v>29</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>814</v>
+        <v>690</v>
       </c>
       <c r="F190" s="32">
         <f>ALARM_BASE + MID(E190, SEARCH("[",E190) + 1, SEARCH("]",E190) - SEARCH("[",E190) - 1)</f>
-        <v>10262</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" ht="90" outlineLevel="1">
+        <v>10261</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="45" outlineLevel="1">
       <c r="B191" s="91" t="str">
         <f t="shared" si="13"/>
         <v>UO.015</v>
@@ -13431,19 +13442,31 @@
         <v>29</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F191" s="32">
         <f>ALARM_BASE + MID(E191, SEARCH("[",E191) + 1, SEARCH("]",E191) - SEARCH("[",E191) - 1)</f>
+        <v>10262</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" ht="90" outlineLevel="1">
+      <c r="B192" s="91" t="str">
+        <f t="shared" si="13"/>
+        <v>UO.016</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D192" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="F192" s="32">
+        <f>ALARM_BASE + MID(E192, SEARCH("[",E192) + 1, SEARCH("]",E192) - SEARCH("[",E192) - 1)</f>
         <v>10263</v>
       </c>
-    </row>
-    <row r="192" spans="2:6" outlineLevel="1">
-      <c r="B192" s="91"/>
-      <c r="C192" s="20"/>
-      <c r="D192" s="20"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="92"/>
     </row>
     <row r="193" spans="2:6" outlineLevel="1">
       <c r="B193" s="91"/>
@@ -13452,29 +13475,29 @@
       <c r="E193" s="21"/>
       <c r="F193" s="92"/>
     </row>
-    <row r="194" spans="2:6">
-      <c r="B194" s="18" t="s">
+    <row r="194" spans="2:6" outlineLevel="1">
+      <c r="B194" s="91"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="92"/>
+    </row>
+    <row r="195" spans="2:6">
+      <c r="B195" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="96" t="s">
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="F194" s="97"/>
-    </row>
-    <row r="195" spans="2:6" outlineLevel="1">
-      <c r="B195" s="91" t="str">
+      <c r="F195" s="97"/>
+    </row>
+    <row r="196" spans="2:6" outlineLevel="1">
+      <c r="B196" s="91" t="str">
         <f>_xlfn.CONCAT(GP_ID,".",TEXT(ROW()-ROW(GP_ID), "000"))</f>
         <v>GP.001</v>
       </c>
-      <c r="C195" s="20"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="21"/>
-      <c r="F195" s="92"/>
-    </row>
-    <row r="196" spans="2:6" outlineLevel="1">
-      <c r="B196" s="91"/>
       <c r="C196" s="20"/>
       <c r="D196" s="20"/>
       <c r="E196" s="21"/>
@@ -13501,19 +13524,19 @@
       <c r="E199" s="21"/>
       <c r="F199" s="92"/>
     </row>
-    <row r="200" spans="2:6">
-      <c r="B200" s="189"/>
-      <c r="C200" s="190"/>
-      <c r="D200" s="190"/>
-      <c r="E200" s="191"/>
-      <c r="F200" s="192"/>
-    </row>
-    <row r="201" spans="2:6" outlineLevel="1">
-      <c r="B201" s="91"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="92"/>
+    <row r="200" spans="2:6" outlineLevel="1">
+      <c r="B200" s="91"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="92"/>
+    </row>
+    <row r="201" spans="2:6">
+      <c r="B201" s="189"/>
+      <c r="C201" s="190"/>
+      <c r="D201" s="190"/>
+      <c r="E201" s="191"/>
+      <c r="F201" s="192"/>
     </row>
     <row r="202" spans="2:6" outlineLevel="1">
       <c r="B202" s="91"/>
@@ -13550,357 +13573,364 @@
       <c r="E206" s="21"/>
       <c r="F206" s="92"/>
     </row>
-    <row r="207" spans="2:6">
-      <c r="B207" s="228" t="s">
+    <row r="207" spans="2:6" outlineLevel="1">
+      <c r="B207" s="91"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="92"/>
+    </row>
+    <row r="208" spans="2:6">
+      <c r="B208" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="C207" s="228"/>
-      <c r="D207" s="228"/>
-      <c r="E207" s="228"/>
-      <c r="F207" s="228"/>
-    </row>
-    <row r="208" spans="2:6">
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
-      <c r="E208" s="22"/>
-      <c r="F208" s="22"/>
+      <c r="C208" s="228"/>
+      <c r="D208" s="228"/>
+      <c r="E208" s="228"/>
+      <c r="F208" s="228"/>
+    </row>
+    <row r="209" spans="2:6">
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="E195:E199 E170:E175 E201:E206 E2:E16 E92:E119 E122:E127 E160:E168 E154:E158 E177:E193 E18:E86 E129:E152">
-    <cfRule type="expression" dxfId="129" priority="93">
+  <conditionalFormatting sqref="E196:E200 E170:E175 E202:E207 E2:E16 E92:E119 E122:E127 E160:E168 E154:E158 E177:E194 E18:E86 E129:E152">
+    <cfRule type="expression" dxfId="97" priority="93">
       <formula>$C2="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="98">
+    <cfRule type="expression" dxfId="96" priority="98">
       <formula>$C2="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D195:D199 D170:D175 D201:D206 D122:D127 D3:D16 D92:D119 D160:D168 D154:D158 D177:D193 D18:D86 D129:D152">
-    <cfRule type="cellIs" dxfId="127" priority="92" operator="equal">
+  <conditionalFormatting sqref="D196:D200 D170:D175 D202:D207 D122:D127 D3:D16 D92:D119 D160:D168 D154:D158 D177:D194 D18:D86 D129:D152">
+    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="122" priority="86">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>$C128="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="91">
+    <cfRule type="expression" dxfId="89" priority="91">
       <formula>$C128="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128">
-    <cfRule type="cellIs" dxfId="120" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="89" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="90" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E153">
-    <cfRule type="expression" dxfId="115" priority="79">
+    <cfRule type="expression" dxfId="83" priority="79">
       <formula>$C153="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="84">
+    <cfRule type="expression" dxfId="82" priority="84">
       <formula>$C153="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153">
-    <cfRule type="cellIs" dxfId="113" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="78" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="expression" dxfId="108" priority="72">
+    <cfRule type="expression" dxfId="76" priority="72">
       <formula>$C159="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="77">
+    <cfRule type="expression" dxfId="75" priority="77">
       <formula>$C159="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D159">
-    <cfRule type="cellIs" dxfId="106" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="75" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="76" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="expression" dxfId="101" priority="65">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>$C176="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="70">
+    <cfRule type="expression" dxfId="68" priority="70">
       <formula>$C176="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="99" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="64" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
-    <cfRule type="expression" dxfId="94" priority="58">
-      <formula>$C194="Nice to have"</formula>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="expression" dxfId="62" priority="58">
+      <formula>$C195="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="63">
-      <formula>$C194="Deprecated"</formula>
+    <cfRule type="expression" dxfId="61" priority="63">
+      <formula>$C195="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D194">
-    <cfRule type="cellIs" dxfId="92" priority="57" operator="equal">
+  <conditionalFormatting sqref="D195">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E200">
-    <cfRule type="expression" dxfId="87" priority="51">
-      <formula>$C200="Nice to have"</formula>
+  <conditionalFormatting sqref="E201">
+    <cfRule type="expression" dxfId="55" priority="51">
+      <formula>$C201="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="56">
-      <formula>$C200="Deprecated"</formula>
+    <cfRule type="expression" dxfId="54" priority="56">
+      <formula>$C201="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D200">
-    <cfRule type="cellIs" dxfId="85" priority="50" operator="equal">
+  <conditionalFormatting sqref="D201">
+    <cfRule type="cellIs" dxfId="53" priority="50" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169">
-    <cfRule type="expression" dxfId="80" priority="37">
+    <cfRule type="expression" dxfId="48" priority="37">
       <formula>$C169="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="42">
+    <cfRule type="expression" dxfId="47" priority="42">
       <formula>$C169="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="78" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="expression" dxfId="73" priority="30">
+    <cfRule type="expression" dxfId="41" priority="30">
       <formula>$C120="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="35">
+    <cfRule type="expression" dxfId="40" priority="35">
       <formula>$C120="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="cellIs" dxfId="71" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="66" priority="23">
+    <cfRule type="expression" dxfId="34" priority="23">
       <formula>$C121="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="28">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>$C121="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D121">
-    <cfRule type="cellIs" dxfId="64" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:E91">
-    <cfRule type="expression" dxfId="59" priority="16">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>$C88="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="21">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>$C88="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:D91">
-    <cfRule type="cellIs" dxfId="57" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>$C87="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>$C87="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$C17="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>$C17="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C206" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C207" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>settings.level</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D206" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D207" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>settings.status</formula1>
     </dataValidation>
   </dataValidations>
@@ -13985,7 +14015,7 @@
       </c>
       <c r="E3" s="136">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" s="138"/>
       <c r="G3" s="141"/>
@@ -14036,7 +14066,7 @@
       </c>
       <c r="E5" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="168" t="s">
         <v>220</v>
@@ -14058,14 +14088,14 @@
         <v>218</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D6" s="170">
         <v>44256</v>
       </c>
       <c r="E6" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="168" t="s">
         <v>221</v>
@@ -14090,7 +14120,7 @@
       </c>
       <c r="E7" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="168" t="s">
         <v>262</v>
@@ -14117,7 +14147,7 @@
       </c>
       <c r="E8" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8" s="168" t="s">
         <v>262</v>
@@ -14142,7 +14172,7 @@
       </c>
       <c r="E9" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="175" t="s">
         <v>221</v>
@@ -14186,17 +14216,17 @@
     </row>
     <row r="11" spans="2:11" ht="30" outlineLevel="1">
       <c r="B11" s="168" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C11" s="169" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D11" s="174">
         <v>44256</v>
       </c>
       <c r="E11" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="175" t="s">
         <v>220</v>
@@ -14207,7 +14237,7 @@
       </c>
       <c r="I11" s="168"/>
       <c r="J11" s="169" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K11" s="173"/>
     </row>
@@ -14268,7 +14298,7 @@
       </c>
       <c r="E15" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="145"/>
       <c r="G15" s="148"/>
@@ -14292,7 +14322,7 @@
       </c>
       <c r="E16" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" s="162" t="s">
         <v>220</v>
@@ -14307,7 +14337,7 @@
         <v>307</v>
       </c>
       <c r="K16" s="167" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="2:11" outlineLevel="1">
@@ -14322,7 +14352,7 @@
       </c>
       <c r="E17" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="162" t="s">
         <v>220</v>
@@ -14334,7 +14364,7 @@
       <c r="I17" s="162"/>
       <c r="J17" s="163"/>
       <c r="K17" s="167" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="2:11" outlineLevel="1">
@@ -14342,14 +14372,14 @@
         <v>227</v>
       </c>
       <c r="C18" s="163" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D18" s="202">
         <v>44287</v>
       </c>
       <c r="E18" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" s="203"/>
       <c r="G18" s="165"/>
@@ -14359,12 +14389,12 @@
       <c r="I18" s="162"/>
       <c r="J18" s="163"/>
       <c r="K18" s="167" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19" spans="2:11" outlineLevel="1">
       <c r="B19" s="162" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C19" s="163" t="s">
         <v>228</v>
@@ -14374,7 +14404,7 @@
       </c>
       <c r="E19" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="162" t="s">
         <v>262</v>
@@ -14388,7 +14418,7 @@
       <c r="I19" s="162"/>
       <c r="J19" s="163"/>
       <c r="K19" s="167" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="20" spans="2:11" outlineLevel="1">
@@ -14433,7 +14463,7 @@
       </c>
       <c r="E22" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F22" s="145"/>
       <c r="G22" s="148"/>
@@ -14467,7 +14497,7 @@
       <c r="I23" s="155"/>
       <c r="J23" s="158"/>
       <c r="K23" s="161" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="150" outlineLevel="1">
@@ -14482,7 +14512,7 @@
       </c>
       <c r="E24" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" s="155"/>
       <c r="G24" s="159"/>
@@ -14492,7 +14522,7 @@
       <c r="I24" s="155"/>
       <c r="J24" s="158"/>
       <c r="K24" s="161" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="30" outlineLevel="1">
@@ -14500,14 +14530,14 @@
         <v>255</v>
       </c>
       <c r="C25" s="156" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D25" s="157">
         <v>44256</v>
       </c>
       <c r="E25" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" s="155" t="s">
         <v>221</v>
@@ -14519,7 +14549,7 @@
       <c r="I25" s="155"/>
       <c r="J25" s="158"/>
       <c r="K25" s="161" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="60" outlineLevel="1">
@@ -14527,14 +14557,14 @@
         <v>257</v>
       </c>
       <c r="C26" s="156" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D26" s="176">
         <v>44256</v>
       </c>
       <c r="E26" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" s="177" t="s">
         <v>220</v>
@@ -14546,7 +14576,7 @@
       <c r="I26" s="155"/>
       <c r="J26" s="158"/>
       <c r="K26" s="161" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="30" outlineLevel="1">
@@ -14554,14 +14584,14 @@
         <v>258</v>
       </c>
       <c r="C27" s="156" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D27" s="176">
         <v>44262</v>
       </c>
       <c r="E27" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" s="177" t="s">
         <v>220</v>
@@ -14573,7 +14603,7 @@
       <c r="I27" s="155"/>
       <c r="J27" s="158"/>
       <c r="K27" s="161" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="30" outlineLevel="1">
@@ -14581,14 +14611,14 @@
         <v>326</v>
       </c>
       <c r="C28" s="156" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D28" s="176">
         <v>44270</v>
       </c>
       <c r="E28" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" s="177" t="s">
         <v>220</v>
@@ -14600,7 +14630,7 @@
       <c r="I28" s="155"/>
       <c r="J28" s="158"/>
       <c r="K28" s="161" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="60" outlineLevel="1">
@@ -14608,7 +14638,7 @@
         <v>327</v>
       </c>
       <c r="C29" s="156" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D29" s="176">
         <v>44237</v>
@@ -14625,7 +14655,7 @@
       <c r="I29" s="155"/>
       <c r="J29" s="158"/>
       <c r="K29" s="161" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="135" outlineLevel="1">
@@ -14640,7 +14670,7 @@
       </c>
       <c r="E30" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F30" s="155"/>
       <c r="G30" s="159"/>
@@ -14650,7 +14680,7 @@
       <c r="I30" s="155"/>
       <c r="J30" s="158"/>
       <c r="K30" s="161" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="75" outlineLevel="1">
@@ -14658,14 +14688,14 @@
         <v>332</v>
       </c>
       <c r="C31" s="156" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D31" s="157">
         <v>44280</v>
       </c>
       <c r="E31" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F31" s="155"/>
       <c r="G31" s="159"/>
@@ -14675,7 +14705,7 @@
       <c r="I31" s="155"/>
       <c r="J31" s="158"/>
       <c r="K31" s="161" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="30" outlineLevel="1">
@@ -14690,7 +14720,7 @@
       </c>
       <c r="E32" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="177"/>
       <c r="G32" s="159"/>
@@ -14700,7 +14730,7 @@
       <c r="I32" s="155"/>
       <c r="J32" s="158"/>
       <c r="K32" s="161" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="2:11" outlineLevel="1">
@@ -14708,14 +14738,14 @@
         <v>334</v>
       </c>
       <c r="C33" s="156" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D33" s="176">
         <v>44256</v>
       </c>
       <c r="E33" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" s="177"/>
       <c r="G33" s="159"/>
@@ -14725,7 +14755,7 @@
       <c r="I33" s="155"/>
       <c r="J33" s="158"/>
       <c r="K33" s="161" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="34" spans="2:11" outlineLevel="1">
@@ -14733,14 +14763,14 @@
         <v>336</v>
       </c>
       <c r="C34" s="156" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D34" s="176">
         <v>44256</v>
       </c>
       <c r="E34" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F34" s="177"/>
       <c r="G34" s="159"/>
@@ -14750,7 +14780,7 @@
       <c r="I34" s="155"/>
       <c r="J34" s="158"/>
       <c r="K34" s="161" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="2:11" outlineLevel="1">
@@ -14765,7 +14795,7 @@
       </c>
       <c r="E35" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F35" s="155"/>
       <c r="G35" s="159"/>
@@ -14775,12 +14805,12 @@
       <c r="I35" s="155"/>
       <c r="J35" s="158"/>
       <c r="K35" s="161" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="36" spans="2:11" outlineLevel="1">
       <c r="B36" s="155" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C36" s="156" t="s">
         <v>329</v>
@@ -14790,7 +14820,7 @@
       </c>
       <c r="E36" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F36" s="155"/>
       <c r="G36" s="159"/>
@@ -14800,12 +14830,12 @@
       <c r="I36" s="155"/>
       <c r="J36" s="158"/>
       <c r="K36" s="161" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="30" outlineLevel="1">
       <c r="B37" s="155" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C37" s="156" t="s">
         <v>330</v>
@@ -14815,7 +14845,7 @@
       </c>
       <c r="E37" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F37" s="155"/>
       <c r="G37" s="159"/>
@@ -14825,22 +14855,22 @@
       <c r="I37" s="155"/>
       <c r="J37" s="158"/>
       <c r="K37" s="161" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="38" spans="2:11" outlineLevel="1">
       <c r="B38" s="155" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C38" s="156" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D38" s="157">
         <v>44329</v>
       </c>
       <c r="E38" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F38" s="155"/>
       <c r="G38" s="159"/>
@@ -14850,12 +14880,12 @@
       <c r="I38" s="155"/>
       <c r="J38" s="158"/>
       <c r="K38" s="161" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39" spans="2:11" outlineLevel="1">
       <c r="B39" s="155" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C39" s="156" t="s">
         <v>229</v>
@@ -14865,7 +14895,7 @@
       </c>
       <c r="E39" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F39" s="155"/>
       <c r="G39" s="159">
@@ -14903,7 +14933,7 @@
       </c>
       <c r="E41" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F41" s="155"/>
       <c r="G41" s="159">
@@ -14948,17 +14978,17 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="145" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C44" s="146" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D44" s="147">
         <v>44378</v>
       </c>
       <c r="E44" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F44" s="145"/>
       <c r="G44" s="148"/>
@@ -14972,17 +15002,17 @@
     </row>
     <row r="45" spans="2:11" ht="45" outlineLevel="1">
       <c r="B45" s="194" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C45" s="195" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D45" s="196">
         <v>44287</v>
       </c>
       <c r="E45" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F45" s="194"/>
       <c r="G45" s="197"/>
@@ -14992,22 +15022,22 @@
       <c r="I45" s="194"/>
       <c r="J45" s="195"/>
       <c r="K45" s="199" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="45" outlineLevel="1">
       <c r="B46" s="194" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C46" s="195" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D46" s="196">
         <v>44287</v>
       </c>
       <c r="E46" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F46" s="194"/>
       <c r="G46" s="197"/>
@@ -15017,22 +15047,22 @@
       <c r="I46" s="194"/>
       <c r="J46" s="195"/>
       <c r="K46" s="199" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="45" outlineLevel="1">
       <c r="B47" s="194" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D47" s="196">
         <v>44287</v>
       </c>
       <c r="E47" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F47" s="201"/>
       <c r="G47" s="197"/>
@@ -15042,22 +15072,22 @@
       <c r="I47" s="194"/>
       <c r="J47" s="195"/>
       <c r="K47" s="199" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="45" outlineLevel="1">
       <c r="B48" s="194" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C48" s="195" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D48" s="196">
         <v>44287</v>
       </c>
       <c r="E48" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F48" s="201" t="s">
         <v>220</v>
@@ -15069,22 +15099,22 @@
       <c r="I48" s="194"/>
       <c r="J48" s="195"/>
       <c r="K48" s="199" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="60" outlineLevel="1">
       <c r="B49" s="194" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C49" s="195" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D49" s="196">
         <v>44287</v>
       </c>
       <c r="E49" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F49" s="201"/>
       <c r="G49" s="197"/>
@@ -15094,22 +15124,22 @@
       <c r="I49" s="194"/>
       <c r="J49" s="195"/>
       <c r="K49" s="199" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="60" outlineLevel="1">
       <c r="B50" s="194" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C50" s="195" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D50" s="196">
         <v>44287</v>
       </c>
       <c r="E50" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F50" s="201"/>
       <c r="G50" s="197"/>
@@ -15119,22 +15149,22 @@
       <c r="I50" s="194"/>
       <c r="J50" s="195"/>
       <c r="K50" s="199" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="60" outlineLevel="1">
       <c r="B51" s="194" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C51" s="195" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D51" s="196">
         <v>44287</v>
       </c>
       <c r="E51" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F51" s="201" t="s">
         <v>220</v>
@@ -15146,22 +15176,22 @@
       <c r="I51" s="194"/>
       <c r="J51" s="195"/>
       <c r="K51" s="199" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="45" outlineLevel="1">
       <c r="B52" s="194" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C52" s="195" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D52" s="196">
         <v>44287</v>
       </c>
       <c r="E52" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F52" s="194"/>
       <c r="G52" s="197"/>
@@ -15171,22 +15201,22 @@
       <c r="I52" s="194"/>
       <c r="J52" s="195"/>
       <c r="K52" s="199" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="30" outlineLevel="1">
       <c r="B53" s="194" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C53" s="195" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D53" s="196">
         <v>44287</v>
       </c>
       <c r="E53" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F53" s="201"/>
       <c r="G53" s="197"/>
@@ -15196,22 +15226,22 @@
       <c r="I53" s="194"/>
       <c r="J53" s="195"/>
       <c r="K53" s="199" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="2:11" outlineLevel="1">
       <c r="B54" s="194" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C54" s="195" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D54" s="196">
         <v>44287</v>
       </c>
       <c r="E54" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F54" s="201"/>
       <c r="G54" s="197"/>
@@ -15221,22 +15251,22 @@
       <c r="I54" s="194"/>
       <c r="J54" s="195"/>
       <c r="K54" s="199" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="55" spans="2:11" outlineLevel="1">
       <c r="B55" s="194" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C55" s="195" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D55" s="196">
         <v>44287</v>
       </c>
       <c r="E55" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F55" s="201" t="s">
         <v>220</v>
@@ -15248,22 +15278,22 @@
       <c r="I55" s="194"/>
       <c r="J55" s="195"/>
       <c r="K55" s="199" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="56" spans="2:11" outlineLevel="1">
       <c r="B56" s="194" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C56" s="195" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D56" s="196">
         <v>44287</v>
       </c>
       <c r="E56" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F56" s="201" t="s">
         <v>220</v>
@@ -15275,7 +15305,7 @@
       <c r="I56" s="194"/>
       <c r="J56" s="195"/>
       <c r="K56" s="199" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="2:11" outlineLevel="1">
@@ -15756,17 +15786,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C86">
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND($E3&lt;5,$H3&lt;&gt;1,NOT(ISBLANK($H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E85">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>AND(NOT(ISBLANK($H3)),$E3&lt;10,$H3&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:K86">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$H3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16333,7 +16363,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D40" s="46" t="s">
         <v>193</v>
@@ -16344,7 +16374,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>194</v>
@@ -16355,7 +16385,7 @@
         <v>162</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D42" s="44" t="s">
         <v>195</v>
@@ -16366,7 +16396,7 @@
         <v>163</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>196</v>
@@ -16377,7 +16407,7 @@
         <v>129</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D44" s="44" t="s">
         <v>197</v>
@@ -16388,7 +16418,7 @@
         <v>164</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>191</v>
@@ -16399,7 +16429,7 @@
         <v>165</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D46" s="44" t="s">
         <v>148</v>
@@ -16410,7 +16440,7 @@
         <v>133</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>148</v>
@@ -16421,7 +16451,7 @@
         <v>166</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D48" s="44" t="s">
         <v>198</v>
@@ -16432,7 +16462,7 @@
         <v>167</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>199</v>
@@ -16443,7 +16473,7 @@
         <v>168</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D50" s="44" t="s">
         <v>148</v>
@@ -16454,7 +16484,7 @@
         <v>169</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>148</v>

--- a/BZ172Lab/BZ172Lab Notes.xlsx
+++ b/BZ172Lab/BZ172Lab Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BZ\Projects\PLC61131Repos\BZ172Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092216A-4073-4FEB-ABFB-5D686968940C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78747B41-CC2C-4229-9A26-74BDDE35BD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -36,22 +36,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Verification Tracking'!$C$2:$G$7</definedName>
     <definedName name="ALARM_BASE">Requirements!$F$16</definedName>
     <definedName name="AM_ID">Requirements!$B$27</definedName>
-    <definedName name="BO_ID">Requirements!$B$172</definedName>
-    <definedName name="CC_ID">Requirements!$B$131</definedName>
-    <definedName name="CF_ID">Requirements!$B$156</definedName>
-    <definedName name="CP_ID">Requirements!$B$162</definedName>
+    <definedName name="BO_ID">Requirements!$B$173</definedName>
+    <definedName name="CC_ID">Requirements!$B$132</definedName>
+    <definedName name="CF_ID">Requirements!$B$157</definedName>
+    <definedName name="CP_ID">Requirements!$B$163</definedName>
     <definedName name="CW_ID">Requirements!$B$90</definedName>
     <definedName name="EC_ID">Requirements!$B$98</definedName>
-    <definedName name="frs.all">Requirements!$B$3:$E$212</definedName>
-    <definedName name="frs.id">Requirements!$B$2:$B$212</definedName>
+    <definedName name="frs.all">Requirements!$B$3:$E$213</definedName>
+    <definedName name="frs.id">Requirements!$B$2:$B$213</definedName>
     <definedName name="FRS.Level" localSheetId="5">[1]Requirements!$D$4:$D$176</definedName>
-    <definedName name="FRS.Level">Requirements!$C$3:$C$212</definedName>
-    <definedName name="frs.requirement">Requirements!$E$2:$E$212</definedName>
+    <definedName name="FRS.Level">Requirements!$C$3:$C$213</definedName>
+    <definedName name="frs.requirement">Requirements!$E$2:$E$213</definedName>
     <definedName name="FRS.Status" localSheetId="5">[1]Requirements!$E$4:$E$176</definedName>
-    <definedName name="FRS.Status">Requirements!$D$3:$D$212</definedName>
-    <definedName name="FRSList">Requirements!$B$2:$F$208</definedName>
+    <definedName name="FRS.Status">Requirements!$D$3:$D$213</definedName>
+    <definedName name="FRSList">Requirements!$B$2:$F$209</definedName>
     <definedName name="GF_ID">Requirements!$B$3</definedName>
-    <definedName name="GP_ID">Requirements!$B$199</definedName>
+    <definedName name="GP_ID">Requirements!$B$200</definedName>
     <definedName name="notifications" localSheetId="5">OFFSET([2]Settings!$C$1,1,0,MATCH(REPT("z",255),[2]Settings!$C:$C),1)</definedName>
     <definedName name="notifications">OFFSET([3]Settings!$C$1,1,0,MATCH(REPT("z",255),[3]Settings!$C:$C),1)</definedName>
     <definedName name="priorities" localSheetId="5">[4]Settings!$A$2:$A$6</definedName>
@@ -64,9 +64,9 @@
     <definedName name="settings.status">Settings!$B$2:$B$9</definedName>
     <definedName name="status" localSheetId="5">[4]Settings!$B$2:$B$9</definedName>
     <definedName name="status">[5]Settings!$B$2:$B$9</definedName>
-    <definedName name="SV_ID">Requirements!$B$123</definedName>
+    <definedName name="SV_ID">Requirements!$B$124</definedName>
     <definedName name="TaskList">Tasks!$B$2:$K$80</definedName>
-    <definedName name="UO_ID">Requirements!$B$179</definedName>
+    <definedName name="UO_ID">Requirements!$B$180</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="VF_ID">Requirements!$B$51</definedName>
     <definedName name="WARNING_BASE">Requirements!$F$14</definedName>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="579">
   <si>
     <t>Author</t>
   </si>
@@ -2437,6 +2437,14 @@
 Conditions:
     Entry  : Registers cannot be polled from Carel DI module from M172.
     Exit     : Polling success.</t>
+  </si>
+  <si>
+    <t>Varieties of types of refrigerant are supported for superheat calculation and it's configurable. 
+0 R22/1 R134a/2 R404A/3 R407C/4 R410A/5 R407A/6 R407F/7 R290/8 R507A/9 R717/10 R723/11 R1234ze/12 R744/13 R448A/14 R427A/15 R450 (N13)/16 R513A/17 R449A/18 R1234yf/19 R454B/20 R454C/21 R455A/22 R434A/23 R442A/24 R32/25 R452B/26 R452A/
+bzRefrigerantTypeCfg is from 0 to 26 as showed above and 4 is default</t>
+  </si>
+  <si>
+    <t>1.2 version</t>
   </si>
 </sst>
 </file>
@@ -4080,21 +4088,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="15" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="15" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4103,36 +4141,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="15" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="15" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5333,6 +5341,9 @@
                 <c:pt idx="2">
                   <c:v>44256</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5347,6 +5358,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5387,6 +5401,9 @@
                 <c:pt idx="2">
                   <c:v>44256</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5401,6 +5418,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5441,6 +5461,9 @@
                 <c:pt idx="2">
                   <c:v>44256</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5454,6 +5477,9 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5495,6 +5521,9 @@
                 <c:pt idx="2">
                   <c:v>44256</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5509,6 +5538,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5549,6 +5581,9 @@
                 <c:pt idx="2">
                   <c:v>44256</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>44287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5563,6 +5598,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7613,8 +7651,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA4C32D8-628E-4DC9-877D-4ED51980429C}" name="Table2" displayName="Table2" ref="B2:F205" totalsRowShown="0" headerRowDxfId="129" tableBorderDxfId="128">
-  <autoFilter ref="B2:F205" xr:uid="{CDEA0ADE-0555-4D01-8A61-CFA14708222C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA4C32D8-628E-4DC9-877D-4ED51980429C}" name="Table2" displayName="Table2" ref="B2:F206" totalsRowShown="0" headerRowDxfId="129" tableBorderDxfId="128">
+  <autoFilter ref="B2:F206" xr:uid="{CDEA0ADE-0555-4D01-8A61-CFA14708222C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EEC440CC-C59E-404F-9916-B7B335C0A1FA}" name="ID" dataDxfId="127"/>
     <tableColumn id="2" xr3:uid="{0D454755-1962-49B9-A9AE-DE3621F55672}" name="LEVEL" dataDxfId="126"/>
@@ -8144,7 +8182,7 @@
       </c>
       <c r="E21" s="197"/>
       <c r="F21" s="198" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="G21" s="198"/>
       <c r="H21" s="198"/>
@@ -8156,7 +8194,7 @@
       </c>
       <c r="F22" s="196">
         <f ca="1">TODAY()</f>
-        <v>44252</v>
+        <v>44257</v>
       </c>
       <c r="G22" s="196"/>
       <c r="H22" s="196"/>
@@ -8445,7 +8483,7 @@
   <dimension ref="E3:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8497,11 +8535,17 @@
       </c>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="10">
+        <v>44256</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>44287</v>
+      </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="5:6">
@@ -8548,7 +8592,7 @@
   <dimension ref="D2:S41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I22"/>
+      <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8557,23 +8601,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:7">
-      <c r="D2" s="208">
+      <c r="D2" s="218">
         <f ca="1">TODAY()</f>
-        <v>44252</v>
-      </c>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
+        <v>44257</v>
+      </c>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
     </row>
     <row r="3" spans="4:7">
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
     </row>
     <row r="4" spans="4:7">
-      <c r="D4" s="207" t="s">
+      <c r="D4" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="207"/>
+      <c r="E4" s="217"/>
       <c r="F4" s="27">
         <f>COUNTIF(FRS.Level, D4)</f>
         <v>139</v>
@@ -8581,10 +8625,10 @@
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="4:7">
-      <c r="D5" s="207" t="s">
+      <c r="D5" s="217" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="207"/>
+      <c r="E5" s="217"/>
       <c r="F5" s="27">
         <f>COUNTIF(FRS.Level, D5)</f>
         <v>7</v>
@@ -8592,21 +8636,21 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="4:7">
-      <c r="D6" s="207" t="s">
+      <c r="D6" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="207"/>
+      <c r="E6" s="217"/>
       <c r="F6" s="27">
         <f>COUNTIF(FRS.Level, D6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="4:7">
-      <c r="D7" s="207" t="s">
+      <c r="D7" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="207"/>
+      <c r="E7" s="217"/>
       <c r="F7" s="27">
         <f>COUNTIF(FRS.Level, D7)</f>
         <v>0</v>
@@ -8618,139 +8662,139 @@
       <c r="E8" s="25"/>
       <c r="F8" s="27">
         <f>SUM(F4:F7)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G8" s="26"/>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="207" t="s">
+      <c r="D10" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="207"/>
+      <c r="E10" s="217"/>
       <c r="F10" s="27">
         <f t="shared" ref="F10:F16" si="0">COUNTIF(FRS.Status,D10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="4:7">
-      <c r="D11" s="207" t="s">
+      <c r="D11" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="207"/>
+      <c r="E11" s="217"/>
       <c r="F11" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="4:7">
-      <c r="D12" s="207" t="s">
+      <c r="D12" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="207"/>
+      <c r="E12" s="217"/>
       <c r="F12" s="27">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="207" t="s">
+      <c r="D13" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="207"/>
+      <c r="E13" s="217"/>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="207" t="s">
+      <c r="D14" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="207"/>
+      <c r="E14" s="217"/>
       <c r="F14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="207" t="s">
+      <c r="D15" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="207"/>
+      <c r="E15" s="217"/>
       <c r="F15" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:7">
-      <c r="D16" s="207" t="s">
+      <c r="D16" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="207"/>
+      <c r="E16" s="217"/>
       <c r="F16" s="27">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="4:19" ht="20.25" thickBot="1">
-      <c r="D18" s="219" t="s">
+      <c r="D18" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="218" t="s">
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="208" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
-      <c r="Q18" s="218"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="208"/>
+      <c r="N18" s="208"/>
+      <c r="O18" s="208"/>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="208"/>
     </row>
     <row r="19" spans="4:19" ht="15.75" thickTop="1">
-      <c r="D19" s="215" t="s">
+      <c r="D19" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215" t="s">
+      <c r="E19" s="202"/>
+      <c r="F19" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="215"/>
-      <c r="H19" s="215" t="s">
+      <c r="G19" s="202"/>
+      <c r="H19" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215" t="s">
+      <c r="I19" s="202"/>
+      <c r="J19" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="215"/>
-      <c r="L19" s="215" t="s">
+      <c r="K19" s="202"/>
+      <c r="L19" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="215"/>
-      <c r="N19" s="215" t="s">
+      <c r="M19" s="202"/>
+      <c r="N19" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="215"/>
-      <c r="P19" s="215" t="s">
+      <c r="O19" s="202"/>
+      <c r="P19" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="215"/>
+      <c r="Q19" s="202"/>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="202">
+      <c r="D20" s="203">
         <v>44221</v>
       </c>
-      <c r="E20" s="203"/>
-      <c r="F20" s="204" t="s">
+      <c r="E20" s="204"/>
+      <c r="F20" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="204"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="205">
         <v>8</v>
       </c>
@@ -8767,21 +8811,21 @@
         <v>0</v>
       </c>
       <c r="O20" s="205"/>
-      <c r="P20" s="216">
+      <c r="P20" s="206">
         <v>0</v>
       </c>
-      <c r="Q20" s="217"/>
+      <c r="Q20" s="207"/>
       <c r="S20" s="28"/>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="202">
+      <c r="D21" s="203">
         <v>44237</v>
       </c>
-      <c r="E21" s="203"/>
-      <c r="F21" s="204" t="s">
+      <c r="E21" s="204"/>
+      <c r="F21" s="212" t="s">
         <v>489</v>
       </c>
-      <c r="G21" s="204"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="205">
         <v>9</v>
       </c>
@@ -8801,33 +8845,45 @@
       <c r="P21" s="205">
         <v>56</v>
       </c>
-      <c r="Q21" s="206"/>
+      <c r="Q21" s="215"/>
     </row>
     <row r="22" spans="4:19">
-      <c r="D22" s="202">
+      <c r="D22" s="203">
         <v>44256</v>
       </c>
-      <c r="E22" s="203"/>
-      <c r="F22" s="204" t="s">
+      <c r="E22" s="204"/>
+      <c r="F22" s="212" t="s">
         <v>553</v>
       </c>
-      <c r="G22" s="204"/>
-      <c r="H22" s="205"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="205">
+        <v>4</v>
+      </c>
       <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
+      <c r="J22" s="205">
+        <v>32</v>
+      </c>
       <c r="K22" s="205"/>
-      <c r="L22" s="205"/>
+      <c r="L22" s="205">
+        <v>10</v>
+      </c>
       <c r="M22" s="205"/>
-      <c r="N22" s="205"/>
+      <c r="N22" s="205">
+        <v>15</v>
+      </c>
       <c r="O22" s="205"/>
-      <c r="P22" s="205"/>
-      <c r="Q22" s="206"/>
+      <c r="P22" s="205">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="215"/>
     </row>
     <row r="23" spans="4:19">
-      <c r="D23" s="202"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
+      <c r="D23" s="203">
+        <v>44287</v>
+      </c>
+      <c r="E23" s="204"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
       <c r="H23" s="205"/>
       <c r="I23" s="205"/>
       <c r="J23" s="205"/>
@@ -8837,13 +8893,13 @@
       <c r="N23" s="205"/>
       <c r="O23" s="205"/>
       <c r="P23" s="205"/>
-      <c r="Q23" s="206"/>
+      <c r="Q23" s="215"/>
     </row>
     <row r="24" spans="4:19">
-      <c r="D24" s="202"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
       <c r="H24" s="205"/>
       <c r="I24" s="205"/>
       <c r="J24" s="205"/>
@@ -8853,13 +8909,13 @@
       <c r="N24" s="205"/>
       <c r="O24" s="205"/>
       <c r="P24" s="205"/>
-      <c r="Q24" s="206"/>
+      <c r="Q24" s="215"/>
     </row>
     <row r="25" spans="4:19">
-      <c r="D25" s="202"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
       <c r="H25" s="205"/>
       <c r="I25" s="205"/>
       <c r="J25" s="205"/>
@@ -8869,13 +8925,13 @@
       <c r="N25" s="205"/>
       <c r="O25" s="205"/>
       <c r="P25" s="205"/>
-      <c r="Q25" s="206"/>
+      <c r="Q25" s="215"/>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="202"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
       <c r="H26" s="205"/>
       <c r="I26" s="205"/>
       <c r="J26" s="205"/>
@@ -8885,13 +8941,13 @@
       <c r="N26" s="205"/>
       <c r="O26" s="205"/>
       <c r="P26" s="205"/>
-      <c r="Q26" s="206"/>
+      <c r="Q26" s="215"/>
     </row>
     <row r="27" spans="4:19">
-      <c r="D27" s="202"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
       <c r="H27" s="205"/>
       <c r="I27" s="205"/>
       <c r="J27" s="205"/>
@@ -8901,13 +8957,13 @@
       <c r="N27" s="205"/>
       <c r="O27" s="205"/>
       <c r="P27" s="205"/>
-      <c r="Q27" s="206"/>
+      <c r="Q27" s="215"/>
     </row>
     <row r="28" spans="4:19">
-      <c r="D28" s="202"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="212"/>
       <c r="H28" s="205"/>
       <c r="I28" s="205"/>
       <c r="J28" s="205"/>
@@ -8917,13 +8973,13 @@
       <c r="N28" s="205"/>
       <c r="O28" s="205"/>
       <c r="P28" s="205"/>
-      <c r="Q28" s="206"/>
+      <c r="Q28" s="215"/>
     </row>
     <row r="29" spans="4:19">
-      <c r="D29" s="202"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="212"/>
       <c r="H29" s="205"/>
       <c r="I29" s="205"/>
       <c r="J29" s="205"/>
@@ -8933,13 +8989,13 @@
       <c r="N29" s="205"/>
       <c r="O29" s="205"/>
       <c r="P29" s="205"/>
-      <c r="Q29" s="206"/>
+      <c r="Q29" s="215"/>
     </row>
     <row r="30" spans="4:19">
-      <c r="D30" s="202"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
       <c r="H30" s="205"/>
       <c r="I30" s="205"/>
       <c r="J30" s="205"/>
@@ -8949,13 +9005,13 @@
       <c r="N30" s="205"/>
       <c r="O30" s="205"/>
       <c r="P30" s="205"/>
-      <c r="Q30" s="206"/>
+      <c r="Q30" s="215"/>
     </row>
     <row r="31" spans="4:19">
-      <c r="D31" s="202"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="204"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
       <c r="H31" s="205"/>
       <c r="I31" s="205"/>
       <c r="J31" s="205"/>
@@ -8965,13 +9021,13 @@
       <c r="N31" s="205"/>
       <c r="O31" s="205"/>
       <c r="P31" s="205"/>
-      <c r="Q31" s="206"/>
+      <c r="Q31" s="215"/>
     </row>
     <row r="32" spans="4:19">
-      <c r="D32" s="202"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="212"/>
       <c r="H32" s="205"/>
       <c r="I32" s="205"/>
       <c r="J32" s="205"/>
@@ -8981,13 +9037,13 @@
       <c r="N32" s="205"/>
       <c r="O32" s="205"/>
       <c r="P32" s="205"/>
-      <c r="Q32" s="206"/>
+      <c r="Q32" s="215"/>
     </row>
     <row r="33" spans="4:17">
-      <c r="D33" s="202"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
       <c r="H33" s="205"/>
       <c r="I33" s="205"/>
       <c r="J33" s="205"/>
@@ -8997,13 +9053,13 @@
       <c r="N33" s="205"/>
       <c r="O33" s="205"/>
       <c r="P33" s="205"/>
-      <c r="Q33" s="206"/>
+      <c r="Q33" s="215"/>
     </row>
     <row r="34" spans="4:17">
-      <c r="D34" s="202"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="204"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
       <c r="H34" s="205"/>
       <c r="I34" s="205"/>
       <c r="J34" s="205"/>
@@ -9013,13 +9069,13 @@
       <c r="N34" s="205"/>
       <c r="O34" s="205"/>
       <c r="P34" s="205"/>
-      <c r="Q34" s="206"/>
+      <c r="Q34" s="215"/>
     </row>
     <row r="35" spans="4:17">
-      <c r="D35" s="202"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
       <c r="H35" s="205"/>
       <c r="I35" s="205"/>
       <c r="J35" s="205"/>
@@ -9029,13 +9085,13 @@
       <c r="N35" s="205"/>
       <c r="O35" s="205"/>
       <c r="P35" s="205"/>
-      <c r="Q35" s="206"/>
+      <c r="Q35" s="215"/>
     </row>
     <row r="36" spans="4:17">
-      <c r="D36" s="202"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
       <c r="H36" s="205"/>
       <c r="I36" s="205"/>
       <c r="J36" s="205"/>
@@ -9045,13 +9101,13 @@
       <c r="N36" s="205"/>
       <c r="O36" s="205"/>
       <c r="P36" s="205"/>
-      <c r="Q36" s="206"/>
+      <c r="Q36" s="215"/>
     </row>
     <row r="37" spans="4:17">
-      <c r="D37" s="202"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
       <c r="H37" s="205"/>
       <c r="I37" s="205"/>
       <c r="J37" s="205"/>
@@ -9061,13 +9117,13 @@
       <c r="N37" s="205"/>
       <c r="O37" s="205"/>
       <c r="P37" s="205"/>
-      <c r="Q37" s="206"/>
+      <c r="Q37" s="215"/>
     </row>
     <row r="38" spans="4:17">
-      <c r="D38" s="202"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
       <c r="H38" s="205"/>
       <c r="I38" s="205"/>
       <c r="J38" s="205"/>
@@ -9077,13 +9133,13 @@
       <c r="N38" s="205"/>
       <c r="O38" s="205"/>
       <c r="P38" s="205"/>
-      <c r="Q38" s="206"/>
+      <c r="Q38" s="215"/>
     </row>
     <row r="39" spans="4:17">
-      <c r="D39" s="202"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="212"/>
+      <c r="G39" s="212"/>
       <c r="H39" s="205"/>
       <c r="I39" s="205"/>
       <c r="J39" s="205"/>
@@ -9093,23 +9149,23 @@
       <c r="N39" s="205"/>
       <c r="O39" s="205"/>
       <c r="P39" s="205"/>
-      <c r="Q39" s="206"/>
+      <c r="Q39" s="215"/>
     </row>
     <row r="40" spans="4:17">
-      <c r="D40" s="213"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="212"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="210"/>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="210"/>
-      <c r="M40" s="210"/>
-      <c r="N40" s="210"/>
-      <c r="O40" s="210"/>
-      <c r="P40" s="210"/>
-      <c r="Q40" s="211"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="214"/>
+      <c r="L40" s="214"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="214"/>
+      <c r="P40" s="214"/>
+      <c r="Q40" s="216"/>
     </row>
     <row r="41" spans="4:17">
       <c r="D41" s="24"/>
@@ -9117,21 +9173,135 @@
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H36:I36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
@@ -9156,135 +9326,21 @@
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -9306,13 +9362,13 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F213"/>
+  <dimension ref="B1:F214"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -10237,7 +10293,7 @@
       </c>
       <c r="F60" s="92"/>
     </row>
-    <row r="61" spans="2:6" ht="285" outlineLevel="1">
+    <row r="61" spans="2:6" ht="300" outlineLevel="1">
       <c r="B61" s="30" t="str">
         <f t="shared" si="3"/>
         <v>VF.010</v>
@@ -10789,7 +10845,7 @@
     </row>
     <row r="99" spans="2:6" ht="30" outlineLevel="1">
       <c r="B99" s="31" t="str">
-        <f t="shared" ref="B99:B119" si="6">_xlfn.CONCAT(EC_ID,".",TEXT(ROW()-ROW(EC_ID), "000"))</f>
+        <f t="shared" ref="B99:B120" si="6">_xlfn.CONCAT(EC_ID,".",TEXT(ROW()-ROW(EC_ID), "000"))</f>
         <v>EC.001</v>
       </c>
       <c r="C99" s="14" t="s">
@@ -10931,58 +10987,55 @@
       </c>
       <c r="F107" s="92"/>
     </row>
-    <row r="108" spans="2:6" outlineLevel="1">
+    <row r="108" spans="2:6" ht="120" outlineLevel="1">
       <c r="B108" s="31" t="str">
         <f t="shared" si="6"/>
         <v>EC.010</v>
       </c>
-      <c r="C108" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>29</v>
+      <c r="C108" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="F108" s="32"/>
+        <v>577</v>
+      </c>
+      <c r="F108" s="92"/>
     </row>
     <row r="109" spans="2:6" outlineLevel="1">
       <c r="B109" s="31" t="str">
         <f t="shared" si="6"/>
         <v>EC.011</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="F109" s="92"/>
-    </row>
-    <row r="110" spans="2:6" ht="105" outlineLevel="1">
+        <v>413</v>
+      </c>
+      <c r="F109" s="32"/>
+    </row>
+    <row r="110" spans="2:6" outlineLevel="1">
       <c r="B110" s="31" t="str">
         <f t="shared" si="6"/>
         <v>EC.012</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="F110" s="32">
-        <f t="shared" ref="F110:F113" si="7">WARNING_BASE + MID(E110, SEARCH("[",E110) + 1, SEARCH("]",E110) - SEARCH("[",E110) - 1)</f>
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" ht="75" outlineLevel="1">
+      <c r="D110" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F110" s="92"/>
+    </row>
+    <row r="111" spans="2:6" ht="105" outlineLevel="1">
       <c r="B111" s="31" t="str">
         <f t="shared" si="6"/>
         <v>EC.013</v>
@@ -10993,31 +11046,31 @@
       <c r="D111" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E111" s="102" t="s">
-        <v>404</v>
-      </c>
-      <c r="F111" s="32"/>
+      <c r="E111" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="F111" s="32">
+        <f t="shared" ref="F111:F114" si="7">WARNING_BASE + MID(E111, SEARCH("[",E111) + 1, SEARCH("]",E111) - SEARCH("[",E111) - 1)</f>
+        <v>10010</v>
+      </c>
     </row>
     <row r="112" spans="2:6" ht="75" outlineLevel="1">
       <c r="B112" s="31" t="str">
         <f t="shared" si="6"/>
         <v>EC.014</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D112" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E112" s="185" t="s">
-        <v>561</v>
-      </c>
-      <c r="F112" s="32">
-        <f t="shared" si="7"/>
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" ht="45" outlineLevel="1">
+      <c r="D112" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="102" t="s">
+        <v>404</v>
+      </c>
+      <c r="F112" s="32"/>
+    </row>
+    <row r="113" spans="2:6" ht="75" outlineLevel="1">
       <c r="B113" s="31" t="str">
         <f t="shared" si="6"/>
         <v>EC.015</v>
@@ -11026,17 +11079,17 @@
         <v>35</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E113" s="185" t="s">
-        <v>407</v>
+        <v>561</v>
       </c>
       <c r="F113" s="32">
         <f t="shared" si="7"/>
-        <v>10012</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" outlineLevel="1">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="45" outlineLevel="1">
       <c r="B114" s="31" t="str">
         <f t="shared" si="6"/>
         <v>EC.016</v>
@@ -11045,14 +11098,17 @@
         <v>35</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="F114" s="92"/>
-    </row>
-    <row r="115" spans="2:6" ht="60" outlineLevel="1">
+        <v>15</v>
+      </c>
+      <c r="E114" s="185" t="s">
+        <v>407</v>
+      </c>
+      <c r="F114" s="32">
+        <f t="shared" si="7"/>
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" outlineLevel="1">
       <c r="B115" s="31" t="str">
         <f t="shared" si="6"/>
         <v>EC.017</v>
@@ -11061,15 +11117,12 @@
         <v>35</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="F115" s="32">
-        <f>ALARM_BASE + MID(E115, SEARCH("[",E115) + 1, SEARCH("]",E115) - SEARCH("[",E115) - 1)</f>
-        <v>10210</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="F115" s="92"/>
     </row>
     <row r="116" spans="2:6" ht="60" outlineLevel="1">
       <c r="B116" s="31" t="str">
@@ -11080,14 +11133,14 @@
         <v>35</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F116" s="32">
         <f>ALARM_BASE + MID(E116, SEARCH("[",E116) + 1, SEARCH("]",E116) - SEARCH("[",E116) - 1)</f>
-        <v>10211</v>
+        <v>10210</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="60" outlineLevel="1">
@@ -11095,21 +11148,21 @@
         <f t="shared" si="6"/>
         <v>EC.019</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E117" s="16" t="s">
-        <v>396</v>
+      <c r="E117" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="F117" s="32">
         <f>ALARM_BASE + MID(E117, SEARCH("[",E117) + 1, SEARCH("]",E117) - SEARCH("[",E117) - 1)</f>
-        <v>10212</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" ht="90" outlineLevel="1">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="60" outlineLevel="1">
       <c r="B118" s="31" t="str">
         <f t="shared" si="6"/>
         <v>EC.020</v>
@@ -11121,14 +11174,14 @@
         <v>18</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F118" s="32">
         <f>ALARM_BASE + MID(E118, SEARCH("[",E118) + 1, SEARCH("]",E118) - SEARCH("[",E118) - 1)</f>
-        <v>10213</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" ht="45" outlineLevel="1">
+        <v>10212</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="90" outlineLevel="1">
       <c r="B119" s="31" t="str">
         <f t="shared" si="6"/>
         <v>EC.021</v>
@@ -11137,29 +11190,41 @@
         <v>35</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F119" s="32">
         <f>ALARM_BASE + MID(E119, SEARCH("[",E119) + 1, SEARCH("]",E119) - SEARCH("[",E119) - 1)</f>
+        <v>10213</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="45" outlineLevel="1">
+      <c r="B120" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>EC.022</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F120" s="32">
+        <f>ALARM_BASE + MID(E120, SEARCH("[",E120) + 1, SEARCH("]",E120) - SEARCH("[",E120) - 1)</f>
         <v>10214</v>
       </c>
     </row>
-    <row r="120" spans="2:6" outlineLevel="1">
-      <c r="B120" s="91"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="92"/>
-    </row>
     <row r="121" spans="2:6" outlineLevel="1">
-      <c r="B121" s="31"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="32"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="92"/>
     </row>
     <row r="122" spans="2:6" outlineLevel="1">
       <c r="B122" s="31"/>
@@ -11168,106 +11233,106 @@
       <c r="E122" s="16"/>
       <c r="F122" s="32"/>
     </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="18" t="s">
+    <row r="123" spans="2:6" outlineLevel="1">
+      <c r="B123" s="31"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="32"/>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="96" t="s">
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="F123" s="97"/>
-    </row>
-    <row r="124" spans="2:6" outlineLevel="1">
-      <c r="B124" s="31" t="str">
+      <c r="F124" s="97"/>
+    </row>
+    <row r="125" spans="2:6" outlineLevel="1">
+      <c r="B125" s="31" t="str">
         <f>_xlfn.CONCAT(SV_ID,".",TEXT(ROW()-ROW(SV_ID), "000"))</f>
         <v>SV.001</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C125" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D125" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E125" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F124" s="32"/>
-    </row>
-    <row r="125" spans="2:6" ht="210" outlineLevel="1">
-      <c r="B125" s="31" t="str">
+      <c r="F125" s="32"/>
+    </row>
+    <row r="126" spans="2:6" ht="210" outlineLevel="1">
+      <c r="B126" s="31" t="str">
         <f>_xlfn.CONCAT(SV_ID,".",TEXT(ROW()-ROW(SV_ID), "000"))</f>
         <v>SV.002</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C126" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D126" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="E126" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="F125" s="32"/>
-    </row>
-    <row r="126" spans="2:6" ht="30" outlineLevel="1">
-      <c r="B126" s="31" t="str">
+      <c r="F126" s="32"/>
+    </row>
+    <row r="127" spans="2:6" ht="30" outlineLevel="1">
+      <c r="B127" s="31" t="str">
         <f>_xlfn.CONCAT(SV_ID,".",TEXT(ROW()-ROW(SV_ID), "000"))</f>
         <v>SV.003</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C127" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D127" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="E127" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="F126" s="32"/>
-    </row>
-    <row r="127" spans="2:6" outlineLevel="1">
-      <c r="B127" s="31" t="str">
+      <c r="F127" s="32"/>
+    </row>
+    <row r="128" spans="2:6" outlineLevel="1">
+      <c r="B128" s="31" t="str">
         <f>_xlfn.CONCAT(SV_ID,".",TEXT(ROW()-ROW(SV_ID), "000"))</f>
         <v>SV.004</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C128" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D128" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="E128" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="F127" s="92"/>
-    </row>
-    <row r="128" spans="2:6" ht="105" outlineLevel="1">
-      <c r="B128" s="31" t="str">
+      <c r="F128" s="92"/>
+    </row>
+    <row r="129" spans="2:6" ht="105" outlineLevel="1">
+      <c r="B129" s="31" t="str">
         <f>_xlfn.CONCAT(SV_ID,".",TEXT(ROW()-ROW(SV_ID), "000"))</f>
         <v>SV.005</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C129" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D128" s="20" t="s">
+      <c r="D129" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E128" s="185" t="s">
+      <c r="E129" s="185" t="s">
         <v>526</v>
       </c>
-      <c r="F128" s="32">
-        <f t="shared" ref="F128" si="8">WARNING_BASE + MID(E128, SEARCH("[",E128) + 1, SEARCH("]",E128) - SEARCH("[",E128) - 1)</f>
+      <c r="F129" s="32">
+        <f t="shared" ref="F129" si="8">WARNING_BASE + MID(E129, SEARCH("[",E129) + 1, SEARCH("]",E129) - SEARCH("[",E129) - 1)</f>
         <v>10020</v>
       </c>
-    </row>
-    <row r="129" spans="2:6" outlineLevel="1">
-      <c r="B129" s="31"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="32"/>
     </row>
     <row r="130" spans="2:6" outlineLevel="1">
       <c r="B130" s="31"/>
@@ -11276,101 +11341,92 @@
       <c r="E130" s="16"/>
       <c r="F130" s="32"/>
     </row>
-    <row r="131" spans="2:6">
-      <c r="B131" s="18" t="s">
+    <row r="131" spans="2:6" outlineLevel="1">
+      <c r="B131" s="31"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="32"/>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="96" t="s">
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="F131" s="97"/>
-    </row>
-    <row r="132" spans="2:6" ht="45" outlineLevel="1">
-      <c r="B132" s="91" t="str">
-        <f t="shared" ref="B132:B152" si="9">_xlfn.CONCAT(CC_ID,".",TEXT(ROW()-ROW(CC_ID), "000"))</f>
+      <c r="F132" s="97"/>
+    </row>
+    <row r="133" spans="2:6" ht="45" outlineLevel="1">
+      <c r="B133" s="91" t="str">
+        <f t="shared" ref="B133:B153" si="9">_xlfn.CONCAT(CC_ID,".",TEXT(ROW()-ROW(CC_ID), "000"))</f>
         <v>CC.001</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C133" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D132" s="20" t="s">
+      <c r="D133" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E133" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="F132" s="92"/>
-    </row>
-    <row r="133" spans="2:6" ht="135" outlineLevel="1">
-      <c r="B133" s="91" t="str">
+      <c r="F133" s="92"/>
+    </row>
+    <row r="134" spans="2:6" ht="135" outlineLevel="1">
+      <c r="B134" s="91" t="str">
         <f t="shared" si="9"/>
         <v>CC.002</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C134" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D133" s="20" t="s">
+      <c r="D134" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="E134" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="F133" s="92"/>
-    </row>
-    <row r="134" spans="2:6" outlineLevel="1">
-      <c r="B134" s="91" t="str">
+      <c r="F134" s="92"/>
+    </row>
+    <row r="135" spans="2:6" outlineLevel="1">
+      <c r="B135" s="91" t="str">
         <f t="shared" si="9"/>
         <v>CC.003</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C135" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D134" s="20" t="s">
+      <c r="D135" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="E135" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="F134" s="92"/>
-    </row>
-    <row r="135" spans="2:6" ht="180" outlineLevel="1">
-      <c r="B135" s="91" t="str">
+      <c r="F135" s="92"/>
+    </row>
+    <row r="136" spans="2:6" ht="180" outlineLevel="1">
+      <c r="B136" s="91" t="str">
         <f t="shared" si="9"/>
         <v>CC.004</v>
       </c>
-      <c r="C135" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="F135" s="92"/>
-    </row>
-    <row r="136" spans="2:6" ht="45" outlineLevel="1">
-      <c r="B136" s="91" t="str">
-        <f t="shared" si="9"/>
-        <v>CC.005</v>
-      </c>
       <c r="C136" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>548</v>
+        <v>419</v>
       </c>
       <c r="F136" s="92"/>
     </row>
     <row r="137" spans="2:6" ht="45" outlineLevel="1">
       <c r="B137" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.006</v>
+        <v>CC.005</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>35</v>
@@ -11379,14 +11435,14 @@
         <v>29</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F137" s="92"/>
     </row>
-    <row r="138" spans="2:6" ht="90" outlineLevel="1">
+    <row r="138" spans="2:6" ht="45" outlineLevel="1">
       <c r="B138" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.007</v>
+        <v>CC.006</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>35</v>
@@ -11395,14 +11451,14 @@
         <v>29</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F138" s="92"/>
     </row>
-    <row r="139" spans="2:6" ht="60" outlineLevel="1">
+    <row r="139" spans="2:6" ht="90" outlineLevel="1">
       <c r="B139" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.008</v>
+        <v>CC.007</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>35</v>
@@ -11411,14 +11467,14 @@
         <v>29</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F139" s="92"/>
     </row>
     <row r="140" spans="2:6" ht="60" outlineLevel="1">
       <c r="B140" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.009</v>
+        <v>CC.008</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>35</v>
@@ -11427,14 +11483,14 @@
         <v>29</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F140" s="92"/>
     </row>
     <row r="141" spans="2:6" ht="60" outlineLevel="1">
       <c r="B141" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.010</v>
+        <v>CC.009</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>35</v>
@@ -11443,30 +11499,30 @@
         <v>29</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F141" s="92"/>
     </row>
-    <row r="142" spans="2:6" ht="45" outlineLevel="1">
+    <row r="142" spans="2:6" ht="60" outlineLevel="1">
       <c r="B142" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.011</v>
+        <v>CC.010</v>
       </c>
       <c r="C142" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>420</v>
+        <v>524</v>
       </c>
       <c r="F142" s="92"/>
     </row>
-    <row r="143" spans="2:6" ht="30" outlineLevel="1">
+    <row r="143" spans="2:6" ht="45" outlineLevel="1">
       <c r="B143" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.012</v>
+        <v>CC.011</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>35</v>
@@ -11475,14 +11531,14 @@
         <v>18</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F143" s="92"/>
     </row>
     <row r="144" spans="2:6" ht="30" outlineLevel="1">
       <c r="B144" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.013</v>
+        <v>CC.012</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>35</v>
@@ -11491,46 +11547,46 @@
         <v>18</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F144" s="92"/>
     </row>
     <row r="145" spans="2:6" ht="30" outlineLevel="1">
       <c r="B145" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.014</v>
+        <v>CC.013</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F145" s="92"/>
     </row>
     <row r="146" spans="2:6" ht="30" outlineLevel="1">
       <c r="B146" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.015</v>
+        <v>CC.014</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F146" s="92"/>
     </row>
     <row r="147" spans="2:6" ht="30" outlineLevel="1">
       <c r="B147" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.016</v>
+        <v>CC.015</v>
       </c>
       <c r="C147" s="20" t="s">
         <v>35</v>
@@ -11539,14 +11595,14 @@
         <v>18</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F147" s="92"/>
     </row>
-    <row r="148" spans="2:6" outlineLevel="1">
+    <row r="148" spans="2:6" ht="30" outlineLevel="1">
       <c r="B148" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.017</v>
+        <v>CC.016</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>35</v>
@@ -11555,14 +11611,14 @@
         <v>18</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="F148" s="92"/>
     </row>
-    <row r="149" spans="2:6" ht="45" outlineLevel="1">
+    <row r="149" spans="2:6" outlineLevel="1">
       <c r="B149" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.018</v>
+        <v>CC.017</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>35</v>
@@ -11570,50 +11626,50 @@
       <c r="D149" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E149" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="F149" s="32">
-        <f>ALARM_BASE + MID(E149, SEARCH("[",E149) + 1, SEARCH("]",E149) - SEARCH("[",E149) - 1)</f>
-        <v>10230</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" ht="30" outlineLevel="1">
+      <c r="E149" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="F149" s="92"/>
+    </row>
+    <row r="150" spans="2:6" ht="45" outlineLevel="1">
       <c r="B150" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.019</v>
+        <v>CC.018</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="F150" s="92"/>
-    </row>
-    <row r="151" spans="2:6" outlineLevel="1">
+        <v>18</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="F150" s="32">
+        <f>ALARM_BASE + MID(E150, SEARCH("[",E150) + 1, SEARCH("]",E150) - SEARCH("[",E150) - 1)</f>
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="30" outlineLevel="1">
       <c r="B151" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.020</v>
+        <v>CC.019</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>418</v>
+        <v>324</v>
       </c>
       <c r="F151" s="92"/>
     </row>
-    <row r="152" spans="2:6" ht="75" outlineLevel="1">
+    <row r="152" spans="2:6" outlineLevel="1">
       <c r="B152" s="91" t="str">
         <f t="shared" si="9"/>
-        <v>CC.021</v>
+        <v>CC.020</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>35</v>
@@ -11621,20 +11677,29 @@
       <c r="D152" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E152" s="185" t="s">
+      <c r="E152" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="F152" s="92"/>
+    </row>
+    <row r="153" spans="2:6" ht="75" outlineLevel="1">
+      <c r="B153" s="91" t="str">
+        <f t="shared" si="9"/>
+        <v>CC.021</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" s="185" t="s">
         <v>562</v>
       </c>
-      <c r="F152" s="32">
-        <f t="shared" ref="F152" si="10">WARNING_BASE + MID(E152, SEARCH("[",E152) + 1, SEARCH("]",E152) - SEARCH("[",E152) - 1)</f>
+      <c r="F153" s="32">
+        <f t="shared" ref="F153" si="10">WARNING_BASE + MID(E153, SEARCH("[",E153) + 1, SEARCH("]",E153) - SEARCH("[",E153) - 1)</f>
         <v>10030</v>
       </c>
-    </row>
-    <row r="153" spans="2:6" outlineLevel="1">
-      <c r="B153" s="91"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="92"/>
     </row>
     <row r="154" spans="2:6" outlineLevel="1">
       <c r="B154" s="91"/>
@@ -11650,54 +11715,54 @@
       <c r="E155" s="21"/>
       <c r="F155" s="92"/>
     </row>
-    <row r="156" spans="2:6">
-      <c r="B156" s="18" t="s">
+    <row r="156" spans="2:6" outlineLevel="1">
+      <c r="B156" s="91"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="92"/>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="96" t="s">
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="F156" s="97"/>
-    </row>
-    <row r="157" spans="2:6" ht="30" outlineLevel="1">
-      <c r="B157" s="91" t="str">
+      <c r="F157" s="97"/>
+    </row>
+    <row r="158" spans="2:6" ht="30" outlineLevel="1">
+      <c r="B158" s="91" t="str">
         <f>_xlfn.CONCAT(CF_ID,".",TEXT(ROW()-ROW(CF_ID), "000"))</f>
         <v>CF.001</v>
       </c>
-      <c r="C157" s="20" t="s">
+      <c r="C158" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D157" s="20" t="s">
+      <c r="D158" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E158" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="F157" s="92"/>
-    </row>
-    <row r="158" spans="2:6" outlineLevel="1">
-      <c r="B158" s="91" t="str">
+      <c r="F158" s="92"/>
+    </row>
+    <row r="159" spans="2:6" outlineLevel="1">
+      <c r="B159" s="91" t="str">
         <f>_xlfn.CONCAT(CF_ID,".",TEXT(ROW()-ROW(CF_ID), "000"))</f>
         <v>CF.002</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C159" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D158" s="20" t="s">
+      <c r="D159" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E159" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="F158" s="92"/>
-    </row>
-    <row r="159" spans="2:6" outlineLevel="1">
-      <c r="B159" s="91"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="21"/>
       <c r="F159" s="92"/>
     </row>
     <row r="160" spans="2:6" outlineLevel="1">
@@ -11714,141 +11779,141 @@
       <c r="E161" s="21"/>
       <c r="F161" s="92"/>
     </row>
-    <row r="162" spans="2:6">
-      <c r="B162" s="18" t="s">
+    <row r="162" spans="2:6" outlineLevel="1">
+      <c r="B162" s="91"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="92"/>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="96" t="s">
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="F162" s="97"/>
-    </row>
-    <row r="163" spans="2:6" ht="30" outlineLevel="1">
-      <c r="B163" s="91" t="str">
-        <f t="shared" ref="B163:B169" si="11">_xlfn.CONCAT(CP_ID,".",TEXT(ROW()-ROW(CP_ID), "000"))</f>
+      <c r="F163" s="97"/>
+    </row>
+    <row r="164" spans="2:6" ht="30" outlineLevel="1">
+      <c r="B164" s="91" t="str">
+        <f t="shared" ref="B164:B170" si="11">_xlfn.CONCAT(CP_ID,".",TEXT(ROW()-ROW(CP_ID), "000"))</f>
         <v>CP.001</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C164" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D163" s="20" t="s">
+      <c r="D164" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E163" s="21" t="s">
+      <c r="E164" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="F163" s="92"/>
-    </row>
-    <row r="164" spans="2:6" ht="195" outlineLevel="1">
-      <c r="B164" s="91" t="str">
+      <c r="F164" s="92"/>
+    </row>
+    <row r="165" spans="2:6" ht="195" outlineLevel="1">
+      <c r="B165" s="91" t="str">
         <f t="shared" si="11"/>
         <v>CP.002</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="C165" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D164" s="20" t="s">
+      <c r="D165" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E164" s="21" t="s">
+      <c r="E165" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="F164" s="92"/>
-    </row>
-    <row r="165" spans="2:6" ht="45" outlineLevel="1">
-      <c r="B165" s="91" t="str">
+      <c r="F165" s="92"/>
+    </row>
+    <row r="166" spans="2:6" ht="45" outlineLevel="1">
+      <c r="B166" s="91" t="str">
         <f t="shared" si="11"/>
         <v>CP.003</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C166" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D165" s="20" t="s">
+      <c r="D166" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E165" s="21" t="s">
+      <c r="E166" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="F165" s="92"/>
-    </row>
-    <row r="166" spans="2:6" outlineLevel="1">
-      <c r="B166" s="91" t="str">
+      <c r="F166" s="92"/>
+    </row>
+    <row r="167" spans="2:6" outlineLevel="1">
+      <c r="B167" s="91" t="str">
         <f t="shared" si="11"/>
         <v>CP.004</v>
       </c>
-      <c r="C166" s="20" t="s">
+      <c r="C167" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D166" s="20" t="s">
+      <c r="D167" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E166" s="21" t="s">
+      <c r="E167" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="F166" s="92"/>
-    </row>
-    <row r="167" spans="2:6" ht="45" outlineLevel="1">
-      <c r="B167" s="91" t="str">
+      <c r="F167" s="92"/>
+    </row>
+    <row r="168" spans="2:6" ht="45" outlineLevel="1">
+      <c r="B168" s="91" t="str">
         <f t="shared" si="11"/>
         <v>CP.005</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="C168" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="20" t="s">
+      <c r="D168" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E167" s="21" t="s">
+      <c r="E168" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="F167" s="32">
-        <f>ALARM_BASE + MID(E167, SEARCH("[",E167) + 1, SEARCH("]",E167) - SEARCH("[",E167) - 1)</f>
+      <c r="F168" s="32">
+        <f>ALARM_BASE + MID(E168, SEARCH("[",E168) + 1, SEARCH("]",E168) - SEARCH("[",E168) - 1)</f>
         <v>10250</v>
       </c>
     </row>
-    <row r="168" spans="2:6" outlineLevel="1">
-      <c r="B168" s="91" t="str">
+    <row r="169" spans="2:6" outlineLevel="1">
+      <c r="B169" s="91" t="str">
         <f t="shared" si="11"/>
         <v>CP.006</v>
       </c>
-      <c r="C168" s="20" t="s">
+      <c r="C169" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D168" s="20" t="s">
+      <c r="D169" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E168" s="21" t="s">
+      <c r="E169" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="F168" s="92"/>
-    </row>
-    <row r="169" spans="2:6" ht="120" outlineLevel="1">
-      <c r="B169" s="91" t="str">
+      <c r="F169" s="92"/>
+    </row>
+    <row r="170" spans="2:6" ht="120" outlineLevel="1">
+      <c r="B170" s="91" t="str">
         <f t="shared" si="11"/>
         <v>CP.007</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C170" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D169" s="20" t="s">
+      <c r="D170" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E169" s="185" t="s">
+      <c r="E170" s="185" t="s">
         <v>515</v>
       </c>
-      <c r="F169" s="32">
-        <f t="shared" ref="F169" si="12">WARNING_BASE + MID(E169, SEARCH("[",E169) + 1, SEARCH("]",E169) - SEARCH("[",E169) - 1)</f>
+      <c r="F170" s="32">
+        <f t="shared" ref="F170" si="12">WARNING_BASE + MID(E170, SEARCH("[",E170) + 1, SEARCH("]",E170) - SEARCH("[",E170) - 1)</f>
         <v>10050</v>
       </c>
-    </row>
-    <row r="170" spans="2:6" outlineLevel="1">
-      <c r="B170" s="91"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="92"/>
     </row>
     <row r="171" spans="2:6" outlineLevel="1">
       <c r="B171" s="91"/>
@@ -11857,86 +11922,86 @@
       <c r="E171" s="21"/>
       <c r="F171" s="92"/>
     </row>
-    <row r="172" spans="2:6">
-      <c r="B172" s="18" t="s">
+    <row r="172" spans="2:6" outlineLevel="1">
+      <c r="B172" s="91"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="92"/>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="96" t="s">
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="F172" s="97"/>
-    </row>
-    <row r="173" spans="2:6" ht="45" outlineLevel="1">
-      <c r="B173" s="91" t="str">
+      <c r="F173" s="97"/>
+    </row>
+    <row r="174" spans="2:6" ht="45" outlineLevel="1">
+      <c r="B174" s="91" t="str">
         <f>_xlfn.CONCAT(BO_ID,".",TEXT(ROW()-ROW(BO_ID), "000"))</f>
         <v>BO.001</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="C174" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D173" s="20" t="s">
+      <c r="D174" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E174" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="F173" s="92"/>
-    </row>
-    <row r="174" spans="2:6" ht="30" outlineLevel="1">
-      <c r="B174" s="91" t="str">
+      <c r="F174" s="92"/>
+    </row>
+    <row r="175" spans="2:6" ht="30" outlineLevel="1">
+      <c r="B175" s="91" t="str">
         <f>_xlfn.CONCAT(BO_ID,".",TEXT(ROW()-ROW(BO_ID), "000"))</f>
         <v>BO.002</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="C175" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D174" s="20" t="s">
+      <c r="D175" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="E175" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="F174" s="92"/>
-    </row>
-    <row r="175" spans="2:6" ht="45" outlineLevel="1">
-      <c r="B175" s="91" t="str">
+      <c r="F175" s="92"/>
+    </row>
+    <row r="176" spans="2:6" ht="45" outlineLevel="1">
+      <c r="B176" s="91" t="str">
         <f>_xlfn.CONCAT(BO_ID,".",TEXT(ROW()-ROW(BO_ID), "000"))</f>
         <v>BO.003</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="C176" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D175" s="20" t="s">
+      <c r="D176" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E175" s="21" t="s">
+      <c r="E176" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F175" s="92"/>
-    </row>
-    <row r="176" spans="2:6" ht="30" outlineLevel="1">
-      <c r="B176" s="91" t="str">
+      <c r="F176" s="92"/>
+    </row>
+    <row r="177" spans="2:6" ht="30" outlineLevel="1">
+      <c r="B177" s="91" t="str">
         <f>_xlfn.CONCAT(BO_ID,".",TEXT(ROW()-ROW(BO_ID), "000"))</f>
         <v>BO.004</v>
       </c>
-      <c r="C176" s="20" t="s">
+      <c r="C177" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D176" s="20" t="s">
+      <c r="D177" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="E177" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="F176" s="92"/>
-    </row>
-    <row r="177" spans="2:6" outlineLevel="1">
-      <c r="B177" s="91"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="21"/>
       <c r="F177" s="92"/>
     </row>
     <row r="178" spans="2:6" outlineLevel="1">
@@ -11946,70 +12011,61 @@
       <c r="E178" s="21"/>
       <c r="F178" s="92"/>
     </row>
-    <row r="179" spans="2:6">
-      <c r="B179" s="18" t="s">
+    <row r="179" spans="2:6" outlineLevel="1">
+      <c r="B179" s="91"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="92"/>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="96" t="s">
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="F179" s="97"/>
-    </row>
-    <row r="180" spans="2:6" ht="210" outlineLevel="1">
-      <c r="B180" s="91" t="str">
-        <f t="shared" ref="B180:B196" si="13">_xlfn.CONCAT(UO_ID,".",TEXT(ROW()-ROW(UO_ID), "000"))</f>
+      <c r="F180" s="97"/>
+    </row>
+    <row r="181" spans="2:6" ht="210" outlineLevel="1">
+      <c r="B181" s="91" t="str">
+        <f t="shared" ref="B181:B197" si="13">_xlfn.CONCAT(UO_ID,".",TEXT(ROW()-ROW(UO_ID), "000"))</f>
         <v>UO.001</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C181" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D180" s="20" t="s">
+      <c r="D181" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E180" s="21" t="s">
+      <c r="E181" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="F180" s="92"/>
-    </row>
-    <row r="181" spans="2:6" ht="45" outlineLevel="1">
-      <c r="B181" s="91" t="str">
+      <c r="F181" s="92"/>
+    </row>
+    <row r="182" spans="2:6" ht="45" outlineLevel="1">
+      <c r="B182" s="91" t="str">
         <f t="shared" si="13"/>
         <v>UO.002</v>
       </c>
-      <c r="C181" s="20" t="s">
+      <c r="C182" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D181" s="20" t="s">
+      <c r="D182" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E181" s="21" t="s">
+      <c r="E182" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="F181" s="92"/>
-    </row>
-    <row r="182" spans="2:6" outlineLevel="1">
-      <c r="B182" s="91" t="str">
+      <c r="F182" s="92"/>
+    </row>
+    <row r="183" spans="2:6" outlineLevel="1">
+      <c r="B183" s="91" t="str">
         <f t="shared" si="13"/>
         <v>UO.003</v>
       </c>
-      <c r="C182" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D182" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E182" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="F182" s="92"/>
-    </row>
-    <row r="183" spans="2:6" ht="30" outlineLevel="1">
-      <c r="B183" s="91" t="str">
-        <f t="shared" si="13"/>
-        <v>UO.004</v>
-      </c>
       <c r="C183" s="20" t="s">
         <v>35</v>
       </c>
@@ -12017,14 +12073,14 @@
         <v>29</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>566</v>
+        <v>514</v>
       </c>
       <c r="F183" s="92"/>
     </row>
     <row r="184" spans="2:6" ht="30" outlineLevel="1">
       <c r="B184" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.005</v>
+        <v>UO.004</v>
       </c>
       <c r="C184" s="20" t="s">
         <v>35</v>
@@ -12033,14 +12089,14 @@
         <v>29</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>414</v>
+        <v>566</v>
       </c>
       <c r="F184" s="92"/>
     </row>
-    <row r="185" spans="2:6" ht="45" outlineLevel="1">
+    <row r="185" spans="2:6" ht="30" outlineLevel="1">
       <c r="B185" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.006</v>
+        <v>UO.005</v>
       </c>
       <c r="C185" s="20" t="s">
         <v>35</v>
@@ -12049,14 +12105,14 @@
         <v>29</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>486</v>
+        <v>414</v>
       </c>
       <c r="F185" s="92"/>
     </row>
     <row r="186" spans="2:6" ht="45" outlineLevel="1">
       <c r="B186" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.007</v>
+        <v>UO.006</v>
       </c>
       <c r="C186" s="20" t="s">
         <v>35</v>
@@ -12065,14 +12121,14 @@
         <v>29</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="F186" s="92"/>
     </row>
-    <row r="187" spans="2:6" ht="30" outlineLevel="1">
+    <row r="187" spans="2:6" ht="45" outlineLevel="1">
       <c r="B187" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.008</v>
+        <v>UO.007</v>
       </c>
       <c r="C187" s="20" t="s">
         <v>35</v>
@@ -12081,14 +12137,14 @@
         <v>29</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="F187" s="92"/>
     </row>
     <row r="188" spans="2:6" ht="30" outlineLevel="1">
       <c r="B188" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.009</v>
+        <v>UO.008</v>
       </c>
       <c r="C188" s="20" t="s">
         <v>35</v>
@@ -12097,14 +12153,14 @@
         <v>29</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F188" s="92"/>
     </row>
-    <row r="189" spans="2:6" outlineLevel="1">
+    <row r="189" spans="2:6" ht="30" outlineLevel="1">
       <c r="B189" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.010</v>
+        <v>UO.009</v>
       </c>
       <c r="C189" s="20" t="s">
         <v>35</v>
@@ -12113,14 +12169,14 @@
         <v>29</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F189" s="92"/>
     </row>
-    <row r="190" spans="2:6" ht="45" outlineLevel="1">
+    <row r="190" spans="2:6" outlineLevel="1">
       <c r="B190" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.011</v>
+        <v>UO.010</v>
       </c>
       <c r="C190" s="20" t="s">
         <v>35</v>
@@ -12128,18 +12184,15 @@
       <c r="D190" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E190" s="185" t="s">
-        <v>499</v>
-      </c>
-      <c r="F190" s="32">
-        <f t="shared" ref="F190:F191" si="14">WARNING_BASE + MID(E190, SEARCH("[",E190) + 1, SEARCH("]",E190) - SEARCH("[",E190) - 1)</f>
-        <v>10060</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" ht="75" outlineLevel="1">
+      <c r="E190" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="F190" s="92"/>
+    </row>
+    <row r="191" spans="2:6" ht="45" outlineLevel="1">
       <c r="B191" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.012</v>
+        <v>UO.011</v>
       </c>
       <c r="C191" s="20" t="s">
         <v>35</v>
@@ -12148,34 +12201,37 @@
         <v>29</v>
       </c>
       <c r="E191" s="185" t="s">
+        <v>499</v>
+      </c>
+      <c r="F191" s="32">
+        <f t="shared" ref="F191:F192" si="14">WARNING_BASE + MID(E191, SEARCH("[",E191) + 1, SEARCH("]",E191) - SEARCH("[",E191) - 1)</f>
+        <v>10060</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" ht="75" outlineLevel="1">
+      <c r="B192" s="91" t="str">
+        <f t="shared" si="13"/>
+        <v>UO.012</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D192" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E192" s="185" t="s">
         <v>560</v>
       </c>
-      <c r="F191" s="32">
+      <c r="F192" s="32">
         <f t="shared" si="14"/>
         <v>10061</v>
       </c>
     </row>
-    <row r="192" spans="2:6" outlineLevel="1">
-      <c r="B192" s="91" t="str">
+    <row r="193" spans="2:6" outlineLevel="1">
+      <c r="B193" s="91" t="str">
         <f t="shared" si="13"/>
         <v>UO.013</v>
       </c>
-      <c r="C192" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D192" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E192" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="F192" s="92"/>
-    </row>
-    <row r="193" spans="2:6" ht="45" outlineLevel="1">
-      <c r="B193" s="91" t="str">
-        <f t="shared" si="13"/>
-        <v>UO.014</v>
-      </c>
       <c r="C193" s="20" t="s">
         <v>35</v>
       </c>
@@ -12183,17 +12239,14 @@
         <v>29</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="F193" s="32">
-        <f>ALARM_BASE + MID(E193, SEARCH("[",E193) + 1, SEARCH("]",E193) - SEARCH("[",E193) - 1)</f>
-        <v>10260</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="F193" s="92"/>
     </row>
     <row r="194" spans="2:6" ht="45" outlineLevel="1">
       <c r="B194" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.015</v>
+        <v>UO.014</v>
       </c>
       <c r="C194" s="20" t="s">
         <v>35</v>
@@ -12202,17 +12255,17 @@
         <v>29</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>416</v>
+        <v>508</v>
       </c>
       <c r="F194" s="32">
         <f>ALARM_BASE + MID(E194, SEARCH("[",E194) + 1, SEARCH("]",E194) - SEARCH("[",E194) - 1)</f>
-        <v>10261</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="195" spans="2:6" ht="45" outlineLevel="1">
       <c r="B195" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.016</v>
+        <v>UO.015</v>
       </c>
       <c r="C195" s="20" t="s">
         <v>35</v>
@@ -12221,17 +12274,17 @@
         <v>29</v>
       </c>
       <c r="E195" s="21" t="s">
-        <v>534</v>
+        <v>416</v>
       </c>
       <c r="F195" s="32">
         <f>ALARM_BASE + MID(E195, SEARCH("[",E195) + 1, SEARCH("]",E195) - SEARCH("[",E195) - 1)</f>
-        <v>10262</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" ht="90" outlineLevel="1">
+        <v>10261</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" ht="45" outlineLevel="1">
       <c r="B196" s="91" t="str">
         <f t="shared" si="13"/>
-        <v>UO.017</v>
+        <v>UO.016</v>
       </c>
       <c r="C196" s="20" t="s">
         <v>35</v>
@@ -12240,19 +12293,31 @@
         <v>29</v>
       </c>
       <c r="E196" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F196" s="32">
         <f>ALARM_BASE + MID(E196, SEARCH("[",E196) + 1, SEARCH("]",E196) - SEARCH("[",E196) - 1)</f>
+        <v>10262</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" ht="90" outlineLevel="1">
+      <c r="B197" s="91" t="str">
+        <f t="shared" si="13"/>
+        <v>UO.017</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D197" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E197" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="F197" s="32">
+        <f>ALARM_BASE + MID(E197, SEARCH("[",E197) + 1, SEARCH("]",E197) - SEARCH("[",E197) - 1)</f>
         <v>10263</v>
       </c>
-    </row>
-    <row r="197" spans="2:6" outlineLevel="1">
-      <c r="B197" s="91"/>
-      <c r="C197" s="20"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="92"/>
     </row>
     <row r="198" spans="2:6" outlineLevel="1">
       <c r="B198" s="91"/>
@@ -12261,29 +12326,29 @@
       <c r="E198" s="21"/>
       <c r="F198" s="92"/>
     </row>
-    <row r="199" spans="2:6">
-      <c r="B199" s="18" t="s">
+    <row r="199" spans="2:6" outlineLevel="1">
+      <c r="B199" s="91"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="92"/>
+    </row>
+    <row r="200" spans="2:6">
+      <c r="B200" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="96" t="s">
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="F199" s="97"/>
-    </row>
-    <row r="200" spans="2:6" outlineLevel="1">
-      <c r="B200" s="91" t="str">
+      <c r="F200" s="97"/>
+    </row>
+    <row r="201" spans="2:6" outlineLevel="1">
+      <c r="B201" s="91" t="str">
         <f>_xlfn.CONCAT(GP_ID,".",TEXT(ROW()-ROW(GP_ID), "000"))</f>
         <v>GP.001</v>
       </c>
-      <c r="C200" s="20"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="21"/>
-      <c r="F200" s="92"/>
-    </row>
-    <row r="201" spans="2:6" outlineLevel="1">
-      <c r="B201" s="91"/>
       <c r="C201" s="20"/>
       <c r="D201" s="20"/>
       <c r="E201" s="21"/>
@@ -12310,19 +12375,19 @@
       <c r="E204" s="21"/>
       <c r="F204" s="92"/>
     </row>
-    <row r="205" spans="2:6">
-      <c r="B205" s="181"/>
-      <c r="C205" s="182"/>
-      <c r="D205" s="182"/>
-      <c r="E205" s="183"/>
-      <c r="F205" s="184"/>
-    </row>
-    <row r="206" spans="2:6" outlineLevel="1">
-      <c r="B206" s="91"/>
-      <c r="C206" s="20"/>
-      <c r="D206" s="20"/>
-      <c r="E206" s="21"/>
-      <c r="F206" s="92"/>
+    <row r="205" spans="2:6" outlineLevel="1">
+      <c r="B205" s="91"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="92"/>
+    </row>
+    <row r="206" spans="2:6">
+      <c r="B206" s="181"/>
+      <c r="C206" s="182"/>
+      <c r="D206" s="182"/>
+      <c r="E206" s="183"/>
+      <c r="F206" s="184"/>
     </row>
     <row r="207" spans="2:6" outlineLevel="1">
       <c r="B207" s="91"/>
@@ -12359,28 +12424,35 @@
       <c r="E211" s="21"/>
       <c r="F211" s="92"/>
     </row>
-    <row r="212" spans="2:6">
-      <c r="B212" s="220" t="s">
+    <row r="212" spans="2:6" outlineLevel="1">
+      <c r="B212" s="91"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="92"/>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="B213" s="220" t="s">
         <v>106</v>
       </c>
-      <c r="C212" s="220"/>
-      <c r="D212" s="220"/>
-      <c r="E212" s="220"/>
-      <c r="F212" s="220"/>
-    </row>
-    <row r="213" spans="2:6">
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
-      <c r="E213" s="22"/>
-      <c r="F213" s="22"/>
+      <c r="C213" s="220"/>
+      <c r="D213" s="220"/>
+      <c r="E213" s="220"/>
+      <c r="F213" s="220"/>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="B214" s="22"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="E200:E204 E173:E178 E206:E211 E2:E16 E95:E122 E125:E130 E163:E171 E157:E161 E180:E198 E132:E155 E18:E89">
+  <conditionalFormatting sqref="E201:E205 E174:E179 E207:E212 E2:E16 E95:E123 E126:E131 E164:E172 E158:E162 E181:E199 E133:E156 E18:E89">
     <cfRule type="expression" dxfId="97" priority="93">
       <formula>$C2="Nice to have"</formula>
     </cfRule>
@@ -12388,7 +12460,7 @@
       <formula>$C2="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D200:D204 D173:D178 D206:D211 D125:D130 D3:D16 D95:D122 D163:D171 D157:D161 D180:D198 D18:D89 D132:D155">
+  <conditionalFormatting sqref="D201:D205 D174:D179 D207:D212 D126:D131 D3:D16 D95:D123 D164:D172 D158:D162 D181:D199 D18:D89 D133:D156">
     <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -12405,15 +12477,15 @@
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
+  <conditionalFormatting sqref="E132">
     <cfRule type="expression" dxfId="90" priority="86">
-      <formula>$C131="Nice to have"</formula>
+      <formula>$C132="Nice to have"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="89" priority="91">
-      <formula>$C131="Deprecated"</formula>
+      <formula>$C132="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D131">
+  <conditionalFormatting sqref="D132">
     <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -12430,15 +12502,15 @@
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
+  <conditionalFormatting sqref="E157">
     <cfRule type="expression" dxfId="83" priority="79">
-      <formula>$C156="Nice to have"</formula>
+      <formula>$C157="Nice to have"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="82" priority="84">
-      <formula>$C156="Deprecated"</formula>
+      <formula>$C157="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D156">
+  <conditionalFormatting sqref="D157">
     <cfRule type="cellIs" dxfId="81" priority="78" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -12455,15 +12527,15 @@
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
+  <conditionalFormatting sqref="E163">
     <cfRule type="expression" dxfId="76" priority="72">
-      <formula>$C162="Nice to have"</formula>
+      <formula>$C163="Nice to have"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="75" priority="77">
-      <formula>$C162="Deprecated"</formula>
+      <formula>$C163="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D162">
+  <conditionalFormatting sqref="D163">
     <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -12480,15 +12552,15 @@
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E179">
+  <conditionalFormatting sqref="E180">
     <cfRule type="expression" dxfId="69" priority="65">
-      <formula>$C179="Nice to have"</formula>
+      <formula>$C180="Nice to have"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="68" priority="70">
-      <formula>$C179="Deprecated"</formula>
+      <formula>$C180="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D179">
+  <conditionalFormatting sqref="D180">
     <cfRule type="cellIs" dxfId="67" priority="64" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -12505,15 +12577,15 @@
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E199">
+  <conditionalFormatting sqref="E200">
     <cfRule type="expression" dxfId="62" priority="58">
-      <formula>$C199="Nice to have"</formula>
+      <formula>$C200="Nice to have"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="61" priority="63">
-      <formula>$C199="Deprecated"</formula>
+      <formula>$C200="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D199">
+  <conditionalFormatting sqref="D200">
     <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -12530,15 +12602,15 @@
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E205">
+  <conditionalFormatting sqref="E206">
     <cfRule type="expression" dxfId="55" priority="51">
-      <formula>$C205="Nice to have"</formula>
+      <formula>$C206="Nice to have"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="56">
-      <formula>$C205="Deprecated"</formula>
+      <formula>$C206="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D205">
+  <conditionalFormatting sqref="D206">
     <cfRule type="cellIs" dxfId="53" priority="50" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -12555,15 +12627,15 @@
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
+  <conditionalFormatting sqref="E173">
     <cfRule type="expression" dxfId="48" priority="37">
-      <formula>$C172="Nice to have"</formula>
+      <formula>$C173="Nice to have"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="47" priority="42">
-      <formula>$C172="Deprecated"</formula>
+      <formula>$C173="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D172">
+  <conditionalFormatting sqref="D173">
     <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -12580,15 +12652,15 @@
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
+  <conditionalFormatting sqref="E124">
     <cfRule type="expression" dxfId="41" priority="30">
-      <formula>$C123="Nice to have"</formula>
+      <formula>$C124="Nice to have"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="35">
-      <formula>$C123="Deprecated"</formula>
+      <formula>$C124="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D123">
+  <conditionalFormatting sqref="D124">
     <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -12605,15 +12677,15 @@
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
+  <conditionalFormatting sqref="E125">
     <cfRule type="expression" dxfId="34" priority="23">
-      <formula>$C124="Nice to have"</formula>
+      <formula>$C125="Nice to have"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="28">
-      <formula>$C124="Deprecated"</formula>
+      <formula>$C125="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D124">
+  <conditionalFormatting sqref="D125">
     <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -12706,10 +12778,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C211" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C212" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>settings.level</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D211" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D212" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>settings.status</formula1>
     </dataValidation>
   </dataValidations>
@@ -12725,7 +12797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1D18A-550F-418B-B18E-9DAD1CC7BE2C}">
   <dimension ref="B1:K86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -12794,7 +12866,7 @@
       </c>
       <c r="E3" s="136">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3" s="138"/>
       <c r="G3" s="141"/>
@@ -12845,7 +12917,7 @@
       </c>
       <c r="E5" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="168" t="s">
         <v>220</v>
@@ -12874,7 +12946,7 @@
       </c>
       <c r="E6" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="168" t="s">
         <v>221</v>
@@ -12899,7 +12971,7 @@
       </c>
       <c r="E7" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="168" t="s">
         <v>262</v>
@@ -12926,7 +12998,7 @@
       </c>
       <c r="E8" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" s="168" t="s">
         <v>262</v>
@@ -12951,7 +13023,7 @@
       </c>
       <c r="E9" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" s="175" t="s">
         <v>221</v>
@@ -13005,7 +13077,7 @@
       </c>
       <c r="E11" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" s="175" t="s">
         <v>220</v>
@@ -13077,7 +13149,7 @@
       </c>
       <c r="E15" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" s="145"/>
       <c r="G15" s="148"/>
@@ -13101,7 +13173,7 @@
       </c>
       <c r="E16" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" s="162" t="s">
         <v>220</v>
@@ -13131,7 +13203,7 @@
       </c>
       <c r="E17" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F17" s="162" t="s">
         <v>220</v>
@@ -13158,7 +13230,7 @@
       </c>
       <c r="E18" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" s="195"/>
       <c r="G18" s="165"/>
@@ -13183,7 +13255,7 @@
       </c>
       <c r="E19" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19" s="162" t="s">
         <v>262</v>
@@ -13242,7 +13314,7 @@
       </c>
       <c r="E22" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F22" s="145"/>
       <c r="G22" s="148"/>
@@ -13291,7 +13363,7 @@
       </c>
       <c r="E24" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="155"/>
       <c r="G24" s="159"/>
@@ -13316,7 +13388,7 @@
       </c>
       <c r="E25" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="155" t="s">
         <v>221</v>
@@ -13343,7 +13415,7 @@
       </c>
       <c r="E26" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F26" s="177" t="s">
         <v>220</v>
@@ -13370,7 +13442,7 @@
       </c>
       <c r="E27" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" s="177" t="s">
         <v>220</v>
@@ -13397,7 +13469,7 @@
       </c>
       <c r="E28" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F28" s="177" t="s">
         <v>220</v>
@@ -13449,7 +13521,7 @@
       </c>
       <c r="E30" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F30" s="155"/>
       <c r="G30" s="159"/>
@@ -13474,7 +13546,7 @@
       </c>
       <c r="E31" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F31" s="155"/>
       <c r="G31" s="159"/>
@@ -13499,7 +13571,7 @@
       </c>
       <c r="E32" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32" s="177"/>
       <c r="G32" s="159"/>
@@ -13524,7 +13596,7 @@
       </c>
       <c r="E33" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" s="177"/>
       <c r="G33" s="159"/>
@@ -13549,7 +13621,7 @@
       </c>
       <c r="E34" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="177"/>
       <c r="G34" s="159"/>
@@ -13574,7 +13646,7 @@
       </c>
       <c r="E35" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F35" s="155"/>
       <c r="G35" s="159"/>
@@ -13599,7 +13671,7 @@
       </c>
       <c r="E36" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F36" s="155"/>
       <c r="G36" s="159"/>
@@ -13624,7 +13696,7 @@
       </c>
       <c r="E37" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F37" s="155"/>
       <c r="G37" s="159"/>
@@ -13649,7 +13721,7 @@
       </c>
       <c r="E38" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F38" s="155"/>
       <c r="G38" s="159"/>
@@ -13674,7 +13746,7 @@
       </c>
       <c r="E39" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F39" s="155"/>
       <c r="G39" s="159">
@@ -13712,7 +13784,7 @@
       </c>
       <c r="E41" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F41" s="155"/>
       <c r="G41" s="159">
@@ -13767,7 +13839,7 @@
       </c>
       <c r="E44" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F44" s="145"/>
       <c r="G44" s="148"/>
@@ -13791,7 +13863,7 @@
       </c>
       <c r="E45" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F45" s="186"/>
       <c r="G45" s="189"/>
@@ -13816,7 +13888,7 @@
       </c>
       <c r="E46" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F46" s="186"/>
       <c r="G46" s="189"/>
@@ -13841,7 +13913,7 @@
       </c>
       <c r="E47" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F47" s="193"/>
       <c r="G47" s="189"/>
@@ -13866,7 +13938,7 @@
       </c>
       <c r="E48" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F48" s="193" t="s">
         <v>220</v>
@@ -13893,7 +13965,7 @@
       </c>
       <c r="E49" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F49" s="193"/>
       <c r="G49" s="189"/>
@@ -13918,7 +13990,7 @@
       </c>
       <c r="E50" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F50" s="193"/>
       <c r="G50" s="189"/>
@@ -13943,7 +14015,7 @@
       </c>
       <c r="E51" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F51" s="193" t="s">
         <v>220</v>
@@ -13970,7 +14042,7 @@
       </c>
       <c r="E52" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F52" s="186"/>
       <c r="G52" s="189"/>
@@ -13995,7 +14067,7 @@
       </c>
       <c r="E53" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F53" s="193"/>
       <c r="G53" s="189"/>
@@ -14020,7 +14092,7 @@
       </c>
       <c r="E54" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F54" s="193"/>
       <c r="G54" s="189"/>
@@ -14045,7 +14117,7 @@
       </c>
       <c r="E55" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F55" s="193" t="s">
         <v>220</v>
@@ -14072,7 +14144,7 @@
       </c>
       <c r="E56" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F56" s="193" t="s">
         <v>220</v>

--- a/BZ172Lab/BZ172Lab Notes.xlsx
+++ b/BZ172Lab/BZ172Lab Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BZ\Projects\PLC61131Repos\BZ172Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78747B41-CC2C-4229-9A26-74BDDE35BD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C839F8-21B3-4CDB-B0C9-935C04F022CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -560,58 +560,6 @@
     <t>The configuration items saved in EEPROM can be reset to defaults by a modbus register. (Refer to MB-map)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The application should have two working modes, real and simulation. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>√ Real mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-All the functions are implemented by the real hardwares, for example, the readings are from sensors and the outputs are set to the actuators. This is the default mode when the controller is powered up. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>√ Simulation mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The control related functions are exactly identical to the real mode except the inputs and outputs from the sensors and actuators are redirected to the data items. (Refer to MB-map)
- </t>
-    </r>
-  </si>
-  <si>
     <t>DO5</t>
   </si>
   <si>
@@ -1645,10 +1593,6 @@
   </si>
   <si>
     <t>The 'holding register type' is one and only for data exchange by MODBUS on M172.</t>
-  </si>
-  <si>
-    <t>The transition between real and simulation mode is triggered by selecting the mode from the small local screen on the controller.
-When the controller is powered up, the default mode 'REAL' is showed up on the local screen. Long-pressing of the 'Enter' button is to toggle the controller mode.</t>
   </si>
   <si>
     <t>RS485-2 (CN1) is working as a MODBUS master to manage the I/O boards. 19200 8-E-1 is the parameters for communication.
@@ -2445,6 +2389,63 @@
   </si>
   <si>
     <t>1.2 version</t>
+  </si>
+  <si>
+    <t>The transition between real and virtual mode is triggered by selecting the mode from the small local screen on the controller.
+Long-pressing of the 'Enter' button is to toggle the controller mode.
+A power cycle to the controller is a must when the two mode is switched.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The application should have two working modes, real and virtual. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>√ REAL mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+All the functions are implemented by the real hardwares, for example, the readings are from sensors and the outputs are set to the actuators.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>√ VIRTUAL mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The control related functions are exactly identical to the real mode except the inputs and outputs from the sensors and actuators are redirected to the data items. (Refer to MB-map)
+ </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4088,18 +4089,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4111,36 +4142,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="15" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4177,6 +4178,151 @@
     <cellStyle name="Title" xfId="11" builtinId="15"/>
   </cellStyles>
   <dxfs count="132">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4204,6 +4350,243 @@
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4240,6 +4623,152 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4721,534 +5250,6 @@
         <b val="0"/>
         <i/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="3"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF7F7F7F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF7F7F7F"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -7651,51 +7652,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA4C32D8-628E-4DC9-877D-4ED51980429C}" name="Table2" displayName="Table2" ref="B2:F206" totalsRowShown="0" headerRowDxfId="129" tableBorderDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA4C32D8-628E-4DC9-877D-4ED51980429C}" name="Table2" displayName="Table2" ref="B2:F206" totalsRowShown="0" headerRowDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="B2:F206" xr:uid="{CDEA0ADE-0555-4D01-8A61-CFA14708222C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EEC440CC-C59E-404F-9916-B7B335C0A1FA}" name="ID" dataDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{0D454755-1962-49B9-A9AE-DE3621F55672}" name="LEVEL" dataDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{9BA24605-273E-4985-933B-06818CBA9537}" name="STATUS" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{53754EA4-50A6-4DD8-9232-D08866425BE4}" name="REQUIREMENT" dataDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{1B4BE84A-D954-4677-AFFC-A0D5CAB7D3BA}" name="COMMENT" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{EEC440CC-C59E-404F-9916-B7B335C0A1FA}" name="ID" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{0D454755-1962-49B9-A9AE-DE3621F55672}" name="LEVEL" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{9BA24605-273E-4985-933B-06818CBA9537}" name="STATUS" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{53754EA4-50A6-4DD8-9232-D08866425BE4}" name="REQUIREMENT" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{1B4BE84A-D954-4677-AFFC-A0D5CAB7D3BA}" name="COMMENT" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAF4E3A6-1435-4943-A0FB-7E69B9E573B3}" name="Table1" displayName="Table1" ref="B2:K86" totalsRowShown="0" headerRowDxfId="122" headerRowBorderDxfId="121" tableBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAF4E3A6-1435-4943-A0FB-7E69B9E573B3}" name="Table1" displayName="Table1" ref="B2:K86" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="B2:K86" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BA3BC7BB-ECE4-462B-8824-97F388F144C5}" name="ID" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{C7FEB3E5-CB44-4B6C-9037-3D4D80F11092}" name="Task" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{DA8AC2B3-0FDD-4A71-9D23-75C65B931AE5}" name="Due" dataDxfId="117"/>
-    <tableColumn id="11" xr3:uid="{79F1150C-F5DC-407D-B8EC-D7D0577E0197}" name="Days" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{BA3BC7BB-ECE4-462B-8824-97F388F144C5}" name="ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{C7FEB3E5-CB44-4B6C-9037-3D4D80F11092}" name="Task" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{DA8AC2B3-0FDD-4A71-9D23-75C65B931AE5}" name="Due" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{79F1150C-F5DC-407D-B8EC-D7D0577E0197}" name="Days" dataDxfId="22">
       <calculatedColumnFormula>IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9690982A-833C-4E42-9ED5-2EFA892551CE}" name="PRI" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{94174600-EB70-4A9B-9222-C70BB59D0A17}" name="BL" dataDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{89F020A6-CB77-4228-B7A9-9FA1CA50D659}" name="PROG" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{62190683-A6A8-4A1D-8C2C-F4AA5A1AA84F}" name="Owners" dataDxfId="112"/>
-    <tableColumn id="9" xr3:uid="{212AD8CC-8A46-4EF1-A572-52656BE74CC0}" name="Prerequisites" dataDxfId="111"/>
-    <tableColumn id="10" xr3:uid="{47B4D71F-1414-4149-9932-EF0D1879BE1E}" name="Deliverables" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{9690982A-833C-4E42-9ED5-2EFA892551CE}" name="PRI" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{94174600-EB70-4A9B-9222-C70BB59D0A17}" name="BL" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{89F020A6-CB77-4228-B7A9-9FA1CA50D659}" name="PROG" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{62190683-A6A8-4A1D-8C2C-F4AA5A1AA84F}" name="Owners" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{212AD8CC-8A46-4EF1-A572-52656BE74CC0}" name="Prerequisites" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{47B4D71F-1414-4149-9932-EF0D1879BE1E}" name="Deliverables" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="VerificationTable" displayName="VerificationTable" ref="B9:I29" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="VerificationTable" displayName="VerificationTable" ref="B9:I29" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NO." dataDxfId="105"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Issue_x000a_Description" dataDxfId="104"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Category" dataDxfId="103"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Found_x000a_Version" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Repaired _x000a_Version" dataDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Last_x000a_Date" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comment" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NO." dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Issue_x000a_Description" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Category" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Found_x000a_Version" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Repaired _x000a_Version" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Last_x000a_Date" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8036,7 +8037,7 @@
   <sheetData>
     <row r="4" spans="4:15">
       <c r="D4" s="199" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E4" s="199"/>
       <c r="F4" s="199"/>
@@ -8182,7 +8183,7 @@
       </c>
       <c r="E21" s="197"/>
       <c r="F21" s="198" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G21" s="198"/>
       <c r="H21" s="198"/>
@@ -8194,7 +8195,7 @@
       </c>
       <c r="F22" s="196">
         <f ca="1">TODAY()</f>
-        <v>44257</v>
+        <v>44259</v>
       </c>
       <c r="G22" s="196"/>
       <c r="H22" s="196"/>
@@ -8515,7 +8516,7 @@
         <v>44208</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="5:6">
@@ -8523,7 +8524,7 @@
         <v>44221</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="5:6">
@@ -8531,7 +8532,7 @@
         <v>44237</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="5:6">
@@ -8539,7 +8540,7 @@
         <v>44256</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="5:6">
@@ -8601,23 +8602,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:7">
-      <c r="D2" s="218">
+      <c r="D2" s="208">
         <f ca="1">TODAY()</f>
-        <v>44257</v>
-      </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
+        <v>44259</v>
+      </c>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
     </row>
     <row r="3" spans="4:7">
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
     </row>
     <row r="4" spans="4:7">
-      <c r="D4" s="217" t="s">
+      <c r="D4" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="217"/>
+      <c r="E4" s="207"/>
       <c r="F4" s="27">
         <f>COUNTIF(FRS.Level, D4)</f>
         <v>139</v>
@@ -8625,10 +8626,10 @@
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="4:7">
-      <c r="D5" s="217" t="s">
+      <c r="D5" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="217"/>
+      <c r="E5" s="207"/>
       <c r="F5" s="27">
         <f>COUNTIF(FRS.Level, D5)</f>
         <v>7</v>
@@ -8636,10 +8637,10 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="4:7">
-      <c r="D6" s="217" t="s">
+      <c r="D6" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="217"/>
+      <c r="E6" s="207"/>
       <c r="F6" s="27">
         <f>COUNTIF(FRS.Level, D6)</f>
         <v>6</v>
@@ -8647,10 +8648,10 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="4:7">
-      <c r="D7" s="217" t="s">
+      <c r="D7" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="217"/>
+      <c r="E7" s="207"/>
       <c r="F7" s="27">
         <f>COUNTIF(FRS.Level, D7)</f>
         <v>0</v>
@@ -8667,134 +8668,134 @@
       <c r="G8" s="26"/>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="217" t="s">
+      <c r="D10" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="217"/>
+      <c r="E10" s="207"/>
       <c r="F10" s="27">
         <f t="shared" ref="F10:F16" si="0">COUNTIF(FRS.Status,D10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="4:7">
-      <c r="D11" s="217" t="s">
+      <c r="D11" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="217"/>
+      <c r="E11" s="207"/>
       <c r="F11" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="4:7">
-      <c r="D12" s="217" t="s">
+      <c r="D12" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="217"/>
+      <c r="E12" s="207"/>
       <c r="F12" s="27">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="217" t="s">
+      <c r="D13" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="217"/>
+      <c r="E13" s="207"/>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="217" t="s">
+      <c r="D14" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="217"/>
+      <c r="E14" s="207"/>
       <c r="F14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="217" t="s">
+      <c r="D15" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="217"/>
+      <c r="E15" s="207"/>
       <c r="F15" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:7">
-      <c r="D16" s="217" t="s">
+      <c r="D16" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="217"/>
+      <c r="E16" s="207"/>
       <c r="F16" s="27">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="4:19" ht="20.25" thickBot="1">
-      <c r="D18" s="209" t="s">
+      <c r="D18" s="219" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="208" t="s">
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="218" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="208"/>
-      <c r="O18" s="208"/>
-      <c r="P18" s="208"/>
-      <c r="Q18" s="208"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="218"/>
+      <c r="Q18" s="218"/>
     </row>
     <row r="19" spans="4:19" ht="15.75" thickTop="1">
-      <c r="D19" s="202" t="s">
+      <c r="D19" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202" t="s">
+      <c r="E19" s="215"/>
+      <c r="F19" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202" t="s">
+      <c r="G19" s="215"/>
+      <c r="H19" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202" t="s">
+      <c r="I19" s="215"/>
+      <c r="J19" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202" t="s">
+      <c r="K19" s="215"/>
+      <c r="L19" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202" t="s">
+      <c r="M19" s="215"/>
+      <c r="N19" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="202"/>
-      <c r="P19" s="202" t="s">
+      <c r="O19" s="215"/>
+      <c r="P19" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="202"/>
+      <c r="Q19" s="215"/>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="203">
+      <c r="D20" s="202">
         <v>44221</v>
       </c>
-      <c r="E20" s="204"/>
-      <c r="F20" s="212" t="s">
+      <c r="E20" s="203"/>
+      <c r="F20" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="212"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="205">
         <v>8</v>
       </c>
@@ -8811,21 +8812,21 @@
         <v>0</v>
       </c>
       <c r="O20" s="205"/>
-      <c r="P20" s="206">
+      <c r="P20" s="216">
         <v>0</v>
       </c>
-      <c r="Q20" s="207"/>
+      <c r="Q20" s="217"/>
       <c r="S20" s="28"/>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="203">
+      <c r="D21" s="202">
         <v>44237</v>
       </c>
-      <c r="E21" s="204"/>
-      <c r="F21" s="212" t="s">
-        <v>489</v>
-      </c>
-      <c r="G21" s="212"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="204" t="s">
+        <v>487</v>
+      </c>
+      <c r="G21" s="204"/>
       <c r="H21" s="205">
         <v>9</v>
       </c>
@@ -8845,17 +8846,17 @@
       <c r="P21" s="205">
         <v>56</v>
       </c>
-      <c r="Q21" s="215"/>
+      <c r="Q21" s="206"/>
     </row>
     <row r="22" spans="4:19">
-      <c r="D22" s="203">
+      <c r="D22" s="202">
         <v>44256</v>
       </c>
-      <c r="E22" s="204"/>
-      <c r="F22" s="212" t="s">
-        <v>553</v>
-      </c>
-      <c r="G22" s="212"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="204" t="s">
+        <v>551</v>
+      </c>
+      <c r="G22" s="204"/>
       <c r="H22" s="205">
         <v>4</v>
       </c>
@@ -8875,15 +8876,15 @@
       <c r="P22" s="205">
         <v>90</v>
       </c>
-      <c r="Q22" s="215"/>
+      <c r="Q22" s="206"/>
     </row>
     <row r="23" spans="4:19">
-      <c r="D23" s="203">
+      <c r="D23" s="202">
         <v>44287</v>
       </c>
-      <c r="E23" s="204"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="212"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
       <c r="H23" s="205"/>
       <c r="I23" s="205"/>
       <c r="J23" s="205"/>
@@ -8893,13 +8894,13 @@
       <c r="N23" s="205"/>
       <c r="O23" s="205"/>
       <c r="P23" s="205"/>
-      <c r="Q23" s="215"/>
+      <c r="Q23" s="206"/>
     </row>
     <row r="24" spans="4:19">
-      <c r="D24" s="203"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="212"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="204"/>
       <c r="H24" s="205"/>
       <c r="I24" s="205"/>
       <c r="J24" s="205"/>
@@ -8909,13 +8910,13 @@
       <c r="N24" s="205"/>
       <c r="O24" s="205"/>
       <c r="P24" s="205"/>
-      <c r="Q24" s="215"/>
+      <c r="Q24" s="206"/>
     </row>
     <row r="25" spans="4:19">
-      <c r="D25" s="203"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="212"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
       <c r="H25" s="205"/>
       <c r="I25" s="205"/>
       <c r="J25" s="205"/>
@@ -8925,13 +8926,13 @@
       <c r="N25" s="205"/>
       <c r="O25" s="205"/>
       <c r="P25" s="205"/>
-      <c r="Q25" s="215"/>
+      <c r="Q25" s="206"/>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="203"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
       <c r="H26" s="205"/>
       <c r="I26" s="205"/>
       <c r="J26" s="205"/>
@@ -8941,13 +8942,13 @@
       <c r="N26" s="205"/>
       <c r="O26" s="205"/>
       <c r="P26" s="205"/>
-      <c r="Q26" s="215"/>
+      <c r="Q26" s="206"/>
     </row>
     <row r="27" spans="4:19">
-      <c r="D27" s="203"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="212"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
       <c r="H27" s="205"/>
       <c r="I27" s="205"/>
       <c r="J27" s="205"/>
@@ -8957,13 +8958,13 @@
       <c r="N27" s="205"/>
       <c r="O27" s="205"/>
       <c r="P27" s="205"/>
-      <c r="Q27" s="215"/>
+      <c r="Q27" s="206"/>
     </row>
     <row r="28" spans="4:19">
-      <c r="D28" s="203"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="212"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
       <c r="H28" s="205"/>
       <c r="I28" s="205"/>
       <c r="J28" s="205"/>
@@ -8973,13 +8974,13 @@
       <c r="N28" s="205"/>
       <c r="O28" s="205"/>
       <c r="P28" s="205"/>
-      <c r="Q28" s="215"/>
+      <c r="Q28" s="206"/>
     </row>
     <row r="29" spans="4:19">
-      <c r="D29" s="203"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="212"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
       <c r="H29" s="205"/>
       <c r="I29" s="205"/>
       <c r="J29" s="205"/>
@@ -8989,13 +8990,13 @@
       <c r="N29" s="205"/>
       <c r="O29" s="205"/>
       <c r="P29" s="205"/>
-      <c r="Q29" s="215"/>
+      <c r="Q29" s="206"/>
     </row>
     <row r="30" spans="4:19">
-      <c r="D30" s="203"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="212"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
       <c r="H30" s="205"/>
       <c r="I30" s="205"/>
       <c r="J30" s="205"/>
@@ -9005,13 +9006,13 @@
       <c r="N30" s="205"/>
       <c r="O30" s="205"/>
       <c r="P30" s="205"/>
-      <c r="Q30" s="215"/>
+      <c r="Q30" s="206"/>
     </row>
     <row r="31" spans="4:19">
-      <c r="D31" s="203"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="212"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
       <c r="H31" s="205"/>
       <c r="I31" s="205"/>
       <c r="J31" s="205"/>
@@ -9021,13 +9022,13 @@
       <c r="N31" s="205"/>
       <c r="O31" s="205"/>
       <c r="P31" s="205"/>
-      <c r="Q31" s="215"/>
+      <c r="Q31" s="206"/>
     </row>
     <row r="32" spans="4:19">
-      <c r="D32" s="203"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="212"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
       <c r="H32" s="205"/>
       <c r="I32" s="205"/>
       <c r="J32" s="205"/>
@@ -9037,13 +9038,13 @@
       <c r="N32" s="205"/>
       <c r="O32" s="205"/>
       <c r="P32" s="205"/>
-      <c r="Q32" s="215"/>
+      <c r="Q32" s="206"/>
     </row>
     <row r="33" spans="4:17">
-      <c r="D33" s="203"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="212"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
       <c r="H33" s="205"/>
       <c r="I33" s="205"/>
       <c r="J33" s="205"/>
@@ -9053,13 +9054,13 @@
       <c r="N33" s="205"/>
       <c r="O33" s="205"/>
       <c r="P33" s="205"/>
-      <c r="Q33" s="215"/>
+      <c r="Q33" s="206"/>
     </row>
     <row r="34" spans="4:17">
-      <c r="D34" s="203"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="212"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="204"/>
       <c r="H34" s="205"/>
       <c r="I34" s="205"/>
       <c r="J34" s="205"/>
@@ -9069,13 +9070,13 @@
       <c r="N34" s="205"/>
       <c r="O34" s="205"/>
       <c r="P34" s="205"/>
-      <c r="Q34" s="215"/>
+      <c r="Q34" s="206"/>
     </row>
     <row r="35" spans="4:17">
-      <c r="D35" s="203"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="212"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
       <c r="H35" s="205"/>
       <c r="I35" s="205"/>
       <c r="J35" s="205"/>
@@ -9085,13 +9086,13 @@
       <c r="N35" s="205"/>
       <c r="O35" s="205"/>
       <c r="P35" s="205"/>
-      <c r="Q35" s="215"/>
+      <c r="Q35" s="206"/>
     </row>
     <row r="36" spans="4:17">
-      <c r="D36" s="203"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="212"/>
-      <c r="G36" s="212"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
       <c r="H36" s="205"/>
       <c r="I36" s="205"/>
       <c r="J36" s="205"/>
@@ -9101,13 +9102,13 @@
       <c r="N36" s="205"/>
       <c r="O36" s="205"/>
       <c r="P36" s="205"/>
-      <c r="Q36" s="215"/>
+      <c r="Q36" s="206"/>
     </row>
     <row r="37" spans="4:17">
-      <c r="D37" s="203"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="212"/>
-      <c r="G37" s="212"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
       <c r="H37" s="205"/>
       <c r="I37" s="205"/>
       <c r="J37" s="205"/>
@@ -9117,13 +9118,13 @@
       <c r="N37" s="205"/>
       <c r="O37" s="205"/>
       <c r="P37" s="205"/>
-      <c r="Q37" s="215"/>
+      <c r="Q37" s="206"/>
     </row>
     <row r="38" spans="4:17">
-      <c r="D38" s="203"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
       <c r="H38" s="205"/>
       <c r="I38" s="205"/>
       <c r="J38" s="205"/>
@@ -9133,13 +9134,13 @@
       <c r="N38" s="205"/>
       <c r="O38" s="205"/>
       <c r="P38" s="205"/>
-      <c r="Q38" s="215"/>
+      <c r="Q38" s="206"/>
     </row>
     <row r="39" spans="4:17">
-      <c r="D39" s="203"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="212"/>
-      <c r="G39" s="212"/>
+      <c r="D39" s="202"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="204"/>
       <c r="H39" s="205"/>
       <c r="I39" s="205"/>
       <c r="J39" s="205"/>
@@ -9149,23 +9150,23 @@
       <c r="N39" s="205"/>
       <c r="O39" s="205"/>
       <c r="P39" s="205"/>
-      <c r="Q39" s="215"/>
+      <c r="Q39" s="206"/>
     </row>
     <row r="40" spans="4:17">
-      <c r="D40" s="210"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="214"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="214"/>
-      <c r="L40" s="214"/>
-      <c r="M40" s="214"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="214"/>
-      <c r="P40" s="214"/>
-      <c r="Q40" s="216"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="210"/>
+      <c r="I40" s="210"/>
+      <c r="J40" s="210"/>
+      <c r="K40" s="210"/>
+      <c r="L40" s="210"/>
+      <c r="M40" s="210"/>
+      <c r="N40" s="210"/>
+      <c r="O40" s="210"/>
+      <c r="P40" s="210"/>
+      <c r="Q40" s="211"/>
     </row>
     <row r="41" spans="4:17">
       <c r="D41" s="24"/>
@@ -9173,71 +9174,85 @@
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="L21:M21"/>
@@ -9262,85 +9277,71 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -9364,11 +9365,11 @@
   </sheetPr>
   <dimension ref="B1:F214"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D108" sqref="D108"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -9408,7 +9409,7 @@
       </c>
       <c r="F3" s="95"/>
     </row>
-    <row r="4" spans="2:6" ht="180" outlineLevel="1">
+    <row r="4" spans="2:6" ht="165" outlineLevel="1">
       <c r="B4" s="30" t="str">
         <f t="shared" ref="B4:B24" si="0">_xlfn.CONCAT(GF_ID,".",TEXT(ROW()-ROW(GF_ID), "000"))</f>
         <v>GF.001</v>
@@ -9417,10 +9418,10 @@
         <v>35</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>128</v>
+        <v>578</v>
       </c>
       <c r="F4" s="34"/>
     </row>
@@ -9436,7 +9437,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>436</v>
+        <v>577</v>
       </c>
       <c r="F5" s="33"/>
     </row>
@@ -9452,7 +9453,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F6" s="33"/>
     </row>
@@ -9484,7 +9485,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F8" s="33"/>
     </row>
@@ -9500,7 +9501,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" s="33"/>
     </row>
@@ -9516,7 +9517,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="33"/>
     </row>
@@ -9532,7 +9533,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F11" s="33"/>
     </row>
@@ -9548,7 +9549,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F12" s="33"/>
     </row>
@@ -9564,7 +9565,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F13" s="33"/>
     </row>
@@ -9580,7 +9581,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F14" s="33">
         <v>9960</v>
@@ -9598,7 +9599,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F15" s="33"/>
     </row>
@@ -9614,7 +9615,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F16" s="33">
         <v>10160</v>
@@ -9632,7 +9633,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F17" s="33"/>
     </row>
@@ -9648,7 +9649,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F18" s="33"/>
     </row>
@@ -9664,7 +9665,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F19" s="33"/>
     </row>
@@ -9680,7 +9681,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F20" s="92"/>
     </row>
@@ -9696,7 +9697,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F21" s="92"/>
     </row>
@@ -9712,7 +9713,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F22" s="92"/>
     </row>
@@ -9728,7 +9729,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F23" s="92"/>
     </row>
@@ -9744,7 +9745,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F24" s="92"/>
     </row>
@@ -9785,7 +9786,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F28" s="32"/>
     </row>
@@ -9801,7 +9802,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F29" s="32"/>
     </row>
@@ -9817,7 +9818,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F30" s="32"/>
     </row>
@@ -9833,7 +9834,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F31" s="32"/>
     </row>
@@ -9849,7 +9850,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F32" s="32"/>
     </row>
@@ -9865,7 +9866,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F33" s="32"/>
     </row>
@@ -9881,7 +9882,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F34" s="32"/>
     </row>
@@ -9897,7 +9898,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F35" s="32">
         <f>ALARM_BASE + MID(E35, SEARCH("[",E35) + 1, SEARCH("]",E35) - SEARCH("[",E35) - 1)</f>
@@ -9916,7 +9917,7 @@
         <v>29</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F36" s="32">
         <f>ALARM_BASE + MID(E36, SEARCH("[",E36) + 1, SEARCH("]",E36) - SEARCH("[",E36) - 1)</f>
@@ -9935,7 +9936,7 @@
         <v>29</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F37" s="32">
         <f>ALARM_BASE + MID(E37, SEARCH("[",E37) + 1, SEARCH("]",E37) - SEARCH("[",E37) - 1)</f>
@@ -9954,7 +9955,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F38" s="32">
         <f>ALARM_BASE + MID(E38, SEARCH("[",E38) + 1, SEARCH("]",E38) - SEARCH("[",E38) - 1)</f>
@@ -9973,7 +9974,7 @@
         <v>18</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F39" s="32">
         <f>ALARM_BASE + MID(E39, SEARCH("[",E39) + 1, SEARCH("]",E39) - SEARCH("[",E39) - 1)</f>
@@ -9992,7 +9993,7 @@
         <v>29</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F40" s="32"/>
     </row>
@@ -10008,7 +10009,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F41" s="32">
         <f t="shared" ref="F41:F46" si="2">WARNING_BASE + MID(E41, SEARCH("[",E41) + 1, SEARCH("]",E41) - SEARCH("[",E41) - 1)</f>
@@ -10027,7 +10028,7 @@
         <v>29</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
@@ -10046,7 +10047,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
@@ -10065,7 +10066,7 @@
         <v>29</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
@@ -10084,7 +10085,7 @@
         <v>18</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
@@ -10103,7 +10104,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
@@ -10140,7 +10141,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -10161,7 +10162,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F52" s="32"/>
     </row>
@@ -10177,7 +10178,7 @@
         <v>21</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F53" s="32"/>
     </row>
@@ -10193,7 +10194,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F54" s="92"/>
     </row>
@@ -10209,7 +10210,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F55" s="32"/>
     </row>
@@ -10225,7 +10226,7 @@
         <v>18</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F56" s="32"/>
     </row>
@@ -10241,7 +10242,7 @@
         <v>18</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F57" s="32"/>
     </row>
@@ -10257,7 +10258,7 @@
         <v>29</v>
       </c>
       <c r="E58" s="102" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F58" s="32"/>
     </row>
@@ -10273,7 +10274,7 @@
         <v>29</v>
       </c>
       <c r="E59" s="185" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F59" s="92"/>
     </row>
@@ -10289,11 +10290,11 @@
         <v>29</v>
       </c>
       <c r="E60" s="185" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F60" s="92"/>
     </row>
-    <row r="61" spans="2:6" ht="300" outlineLevel="1">
+    <row r="61" spans="2:6" ht="285" outlineLevel="1">
       <c r="B61" s="30" t="str">
         <f t="shared" si="3"/>
         <v>VF.010</v>
@@ -10305,7 +10306,7 @@
         <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F61" s="32"/>
     </row>
@@ -10321,7 +10322,7 @@
         <v>29</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F62" s="92"/>
     </row>
@@ -10337,7 +10338,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F63" s="32"/>
     </row>
@@ -10353,7 +10354,7 @@
         <v>29</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F64" s="32"/>
     </row>
@@ -10369,7 +10370,7 @@
         <v>29</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F65" s="32"/>
     </row>
@@ -10385,7 +10386,7 @@
         <v>29</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F66" s="92"/>
     </row>
@@ -10401,7 +10402,7 @@
         <v>18</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F67" s="32"/>
     </row>
@@ -10417,7 +10418,7 @@
         <v>18</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F68" s="92"/>
     </row>
@@ -10433,7 +10434,7 @@
         <v>21</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F69" s="92"/>
     </row>
@@ -10449,7 +10450,7 @@
         <v>21</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F70" s="32">
         <f t="shared" ref="F70:F75" si="4">WARNING_BASE + MID(E70, SEARCH("[",E70) + 1, SEARCH("]",E70) - SEARCH("[",E70) - 1)</f>
@@ -10468,7 +10469,7 @@
         <v>21</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F71" s="32">
         <f t="shared" si="4"/>
@@ -10487,7 +10488,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F72" s="32">
         <f t="shared" si="4"/>
@@ -10506,7 +10507,7 @@
         <v>21</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F73" s="32">
         <f t="shared" si="4"/>
@@ -10525,7 +10526,7 @@
         <v>21</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F74" s="32">
         <f t="shared" si="4"/>
@@ -10544,7 +10545,7 @@
         <v>21</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F75" s="32">
         <f t="shared" si="4"/>
@@ -10563,7 +10564,7 @@
         <v>18</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F76" s="32"/>
     </row>
@@ -10579,7 +10580,7 @@
         <v>29</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F77" s="32">
         <f t="shared" ref="F77:F83" si="5">WARNING_BASE + MID(E77, SEARCH("[",E77) + 1, SEARCH("]",E77) - SEARCH("[",E77) - 1)</f>
@@ -10598,7 +10599,7 @@
         <v>29</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F78" s="32">
         <f t="shared" si="5"/>
@@ -10617,7 +10618,7 @@
         <v>29</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F79" s="32">
         <f t="shared" si="5"/>
@@ -10636,7 +10637,7 @@
         <v>29</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F80" s="32">
         <f t="shared" si="5"/>
@@ -10655,7 +10656,7 @@
         <v>29</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F81" s="32">
         <f t="shared" si="5"/>
@@ -10674,7 +10675,7 @@
         <v>29</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F82" s="32">
         <f t="shared" si="5"/>
@@ -10693,7 +10694,7 @@
         <v>18</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F83" s="32">
         <f t="shared" si="5"/>
@@ -10712,7 +10713,7 @@
         <v>18</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F84" s="32"/>
     </row>
@@ -10728,7 +10729,7 @@
         <v>18</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F85" s="32">
         <f>ALARM_BASE + MID(E85, SEARCH("[",E85) + 1, SEARCH("]",E85) - SEARCH("[",E85) - 1)</f>
@@ -10765,12 +10766,12 @@
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="96" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F90" s="97"/>
     </row>
@@ -10786,7 +10787,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F91" s="92"/>
     </row>
@@ -10855,7 +10856,7 @@
         <v>15</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F99" s="32"/>
     </row>
@@ -10871,7 +10872,7 @@
         <v>29</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F100" s="32"/>
     </row>
@@ -10887,7 +10888,7 @@
         <v>29</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F101" s="92"/>
     </row>
@@ -10903,7 +10904,7 @@
         <v>21</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F102" s="92"/>
     </row>
@@ -10919,7 +10920,7 @@
         <v>21</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F103" s="32"/>
     </row>
@@ -10935,7 +10936,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F104" s="92"/>
     </row>
@@ -10951,7 +10952,7 @@
         <v>29</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F105" s="92"/>
     </row>
@@ -10967,7 +10968,7 @@
         <v>29</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F106" s="92"/>
     </row>
@@ -10983,7 +10984,7 @@
         <v>29</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F107" s="92"/>
     </row>
@@ -10999,7 +11000,7 @@
         <v>18</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F108" s="92"/>
     </row>
@@ -11015,7 +11016,7 @@
         <v>29</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F109" s="32"/>
     </row>
@@ -11031,7 +11032,7 @@
         <v>29</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F110" s="92"/>
     </row>
@@ -11047,7 +11048,7 @@
         <v>18</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F111" s="32">
         <f t="shared" ref="F111:F114" si="7">WARNING_BASE + MID(E111, SEARCH("[",E111) + 1, SEARCH("]",E111) - SEARCH("[",E111) - 1)</f>
@@ -11066,7 +11067,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="102" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F112" s="32"/>
     </row>
@@ -11082,7 +11083,7 @@
         <v>29</v>
       </c>
       <c r="E113" s="185" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F113" s="32">
         <f t="shared" si="7"/>
@@ -11101,7 +11102,7 @@
         <v>15</v>
       </c>
       <c r="E114" s="185" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F114" s="32">
         <f t="shared" si="7"/>
@@ -11120,7 +11121,7 @@
         <v>18</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F115" s="92"/>
     </row>
@@ -11136,7 +11137,7 @@
         <v>29</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F116" s="32">
         <f>ALARM_BASE + MID(E116, SEARCH("[",E116) + 1, SEARCH("]",E116) - SEARCH("[",E116) - 1)</f>
@@ -11155,7 +11156,7 @@
         <v>18</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F117" s="32">
         <f>ALARM_BASE + MID(E117, SEARCH("[",E117) + 1, SEARCH("]",E117) - SEARCH("[",E117) - 1)</f>
@@ -11174,7 +11175,7 @@
         <v>18</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F118" s="32">
         <f>ALARM_BASE + MID(E118, SEARCH("[",E118) + 1, SEARCH("]",E118) - SEARCH("[",E118) - 1)</f>
@@ -11193,7 +11194,7 @@
         <v>18</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F119" s="32">
         <f>ALARM_BASE + MID(E119, SEARCH("[",E119) + 1, SEARCH("]",E119) - SEARCH("[",E119) - 1)</f>
@@ -11212,7 +11213,7 @@
         <v>15</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F120" s="32">
         <f>ALARM_BASE + MID(E120, SEARCH("[",E120) + 1, SEARCH("]",E120) - SEARCH("[",E120) - 1)</f>
@@ -11242,12 +11243,12 @@
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="96" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F124" s="97"/>
     </row>
@@ -11263,7 +11264,7 @@
         <v>29</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F125" s="32"/>
     </row>
@@ -11279,7 +11280,7 @@
         <v>21</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F126" s="32"/>
     </row>
@@ -11295,7 +11296,7 @@
         <v>29</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F127" s="32"/>
     </row>
@@ -11311,7 +11312,7 @@
         <v>29</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F128" s="92"/>
     </row>
@@ -11327,7 +11328,7 @@
         <v>29</v>
       </c>
       <c r="E129" s="185" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F129" s="32">
         <f t="shared" ref="F129" si="8">WARNING_BASE + MID(E129, SEARCH("[",E129) + 1, SEARCH("]",E129) - SEARCH("[",E129) - 1)</f>
@@ -11371,7 +11372,7 @@
         <v>15</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F133" s="92"/>
     </row>
@@ -11387,7 +11388,7 @@
         <v>15</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F134" s="92"/>
     </row>
@@ -11403,7 +11404,7 @@
         <v>18</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F135" s="92"/>
     </row>
@@ -11419,7 +11420,7 @@
         <v>21</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F136" s="92"/>
     </row>
@@ -11435,7 +11436,7 @@
         <v>29</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F137" s="92"/>
     </row>
@@ -11451,7 +11452,7 @@
         <v>29</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F138" s="92"/>
     </row>
@@ -11467,7 +11468,7 @@
         <v>29</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F139" s="92"/>
     </row>
@@ -11483,7 +11484,7 @@
         <v>29</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F140" s="92"/>
     </row>
@@ -11499,7 +11500,7 @@
         <v>29</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F141" s="92"/>
     </row>
@@ -11515,7 +11516,7 @@
         <v>29</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F142" s="92"/>
     </row>
@@ -11531,7 +11532,7 @@
         <v>18</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F143" s="92"/>
     </row>
@@ -11547,7 +11548,7 @@
         <v>18</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F144" s="92"/>
     </row>
@@ -11563,7 +11564,7 @@
         <v>18</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F145" s="92"/>
     </row>
@@ -11579,7 +11580,7 @@
         <v>15</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F146" s="92"/>
     </row>
@@ -11595,7 +11596,7 @@
         <v>18</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F147" s="92"/>
     </row>
@@ -11611,7 +11612,7 @@
         <v>18</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F148" s="92"/>
     </row>
@@ -11627,7 +11628,7 @@
         <v>18</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F149" s="92"/>
     </row>
@@ -11643,7 +11644,7 @@
         <v>18</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F150" s="32">
         <f>ALARM_BASE + MID(E150, SEARCH("[",E150) + 1, SEARCH("]",E150) - SEARCH("[",E150) - 1)</f>
@@ -11662,7 +11663,7 @@
         <v>15</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F151" s="92"/>
     </row>
@@ -11678,7 +11679,7 @@
         <v>29</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F152" s="92"/>
     </row>
@@ -11694,7 +11695,7 @@
         <v>29</v>
       </c>
       <c r="E153" s="185" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F153" s="32">
         <f t="shared" ref="F153" si="10">WARNING_BASE + MID(E153, SEARCH("[",E153) + 1, SEARCH("]",E153) - SEARCH("[",E153) - 1)</f>
@@ -11745,7 +11746,7 @@
         <v>15</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F158" s="92"/>
     </row>
@@ -11761,7 +11762,7 @@
         <v>15</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F159" s="92"/>
     </row>
@@ -11809,7 +11810,7 @@
         <v>29</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F164" s="92"/>
     </row>
@@ -11825,7 +11826,7 @@
         <v>29</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F165" s="92"/>
     </row>
@@ -11841,7 +11842,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F166" s="92"/>
     </row>
@@ -11857,7 +11858,7 @@
         <v>29</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F167" s="92"/>
     </row>
@@ -11873,7 +11874,7 @@
         <v>29</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F168" s="32">
         <f>ALARM_BASE + MID(E168, SEARCH("[",E168) + 1, SEARCH("]",E168) - SEARCH("[",E168) - 1)</f>
@@ -11892,7 +11893,7 @@
         <v>29</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F169" s="92"/>
     </row>
@@ -11908,7 +11909,7 @@
         <v>29</v>
       </c>
       <c r="E170" s="185" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F170" s="32">
         <f t="shared" ref="F170" si="12">WARNING_BASE + MID(E170, SEARCH("[",E170) + 1, SEARCH("]",E170) - SEARCH("[",E170) - 1)</f>
@@ -11931,12 +11932,12 @@
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
       <c r="E173" s="96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F173" s="97"/>
     </row>
@@ -11952,7 +11953,7 @@
         <v>29</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F174" s="92"/>
     </row>
@@ -11968,7 +11969,7 @@
         <v>29</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F175" s="92"/>
     </row>
@@ -11984,7 +11985,7 @@
         <v>21</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F176" s="92"/>
     </row>
@@ -12000,7 +12001,7 @@
         <v>29</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F177" s="92"/>
     </row>
@@ -12041,7 +12042,7 @@
         <v>29</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F181" s="92"/>
     </row>
@@ -12057,7 +12058,7 @@
         <v>29</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F182" s="92"/>
     </row>
@@ -12073,7 +12074,7 @@
         <v>29</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F183" s="92"/>
     </row>
@@ -12089,7 +12090,7 @@
         <v>29</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F184" s="92"/>
     </row>
@@ -12105,7 +12106,7 @@
         <v>29</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F185" s="92"/>
     </row>
@@ -12121,7 +12122,7 @@
         <v>29</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F186" s="92"/>
     </row>
@@ -12137,7 +12138,7 @@
         <v>29</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F187" s="92"/>
     </row>
@@ -12153,7 +12154,7 @@
         <v>29</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F188" s="92"/>
     </row>
@@ -12169,7 +12170,7 @@
         <v>29</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F189" s="92"/>
     </row>
@@ -12185,7 +12186,7 @@
         <v>29</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F190" s="92"/>
     </row>
@@ -12201,7 +12202,7 @@
         <v>29</v>
       </c>
       <c r="E191" s="185" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F191" s="32">
         <f t="shared" ref="F191:F192" si="14">WARNING_BASE + MID(E191, SEARCH("[",E191) + 1, SEARCH("]",E191) - SEARCH("[",E191) - 1)</f>
@@ -12220,7 +12221,7 @@
         <v>29</v>
       </c>
       <c r="E192" s="185" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F192" s="32">
         <f t="shared" si="14"/>
@@ -12239,7 +12240,7 @@
         <v>29</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F193" s="92"/>
     </row>
@@ -12255,7 +12256,7 @@
         <v>29</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F194" s="32">
         <f>ALARM_BASE + MID(E194, SEARCH("[",E194) + 1, SEARCH("]",E194) - SEARCH("[",E194) - 1)</f>
@@ -12274,7 +12275,7 @@
         <v>29</v>
       </c>
       <c r="E195" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F195" s="32">
         <f>ALARM_BASE + MID(E195, SEARCH("[",E195) + 1, SEARCH("]",E195) - SEARCH("[",E195) - 1)</f>
@@ -12293,7 +12294,7 @@
         <v>29</v>
       </c>
       <c r="E196" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F196" s="32">
         <f>ALARM_BASE + MID(E196, SEARCH("[",E196) + 1, SEARCH("]",E196) - SEARCH("[",E196) - 1)</f>
@@ -12312,7 +12313,7 @@
         <v>29</v>
       </c>
       <c r="E197" s="21" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F197" s="32">
         <f>ALARM_BASE + MID(E197, SEARCH("[",E197) + 1, SEARCH("]",E197) - SEARCH("[",E197) - 1)</f>
@@ -12335,12 +12336,12 @@
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C200" s="19"/>
       <c r="D200" s="19"/>
       <c r="E200" s="96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F200" s="97"/>
     </row>
@@ -12453,327 +12454,327 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="E201:E205 E174:E179 E207:E212 E2:E16 E95:E123 E126:E131 E164:E172 E158:E162 E181:E199 E133:E156 E18:E89">
-    <cfRule type="expression" dxfId="97" priority="93">
+    <cfRule type="expression" dxfId="129" priority="93">
       <formula>$C2="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="98">
+    <cfRule type="expression" dxfId="128" priority="98">
       <formula>$C2="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D201:D205 D174:D179 D207:D212 D126:D131 D3:D16 D95:D123 D164:D172 D158:D162 D181:D199 D18:D89 D133:D156">
-    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="92" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="94" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="95" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="96" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="97" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="90" priority="86">
+    <cfRule type="expression" dxfId="122" priority="86">
       <formula>$C132="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="91">
+    <cfRule type="expression" dxfId="121" priority="91">
       <formula>$C132="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132">
-    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="85" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="87" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="88" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="89" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="90" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157">
-    <cfRule type="expression" dxfId="83" priority="79">
+    <cfRule type="expression" dxfId="115" priority="79">
       <formula>$C157="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="84">
+    <cfRule type="expression" dxfId="114" priority="84">
       <formula>$C157="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D157">
-    <cfRule type="cellIs" dxfId="81" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="78" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="80" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="81" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="82" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="83" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="expression" dxfId="76" priority="72">
+    <cfRule type="expression" dxfId="108" priority="72">
       <formula>$C163="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
+    <cfRule type="expression" dxfId="107" priority="77">
       <formula>$C163="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="71" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="73" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="74" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="75" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="76" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E180">
-    <cfRule type="expression" dxfId="69" priority="65">
+    <cfRule type="expression" dxfId="101" priority="65">
       <formula>$C180="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70">
+    <cfRule type="expression" dxfId="100" priority="70">
       <formula>$C180="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D180">
-    <cfRule type="cellIs" dxfId="67" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="64" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="66" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="67" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="68" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="69" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200">
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="94" priority="58">
       <formula>$C200="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="63">
+    <cfRule type="expression" dxfId="93" priority="63">
       <formula>$C200="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D200">
-    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="57" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="59" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="60" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="61" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="62" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E206">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="87" priority="51">
       <formula>$C206="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="86" priority="56">
       <formula>$C206="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D206">
-    <cfRule type="cellIs" dxfId="53" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="50" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="52" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="53" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="54" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="55" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173">
-    <cfRule type="expression" dxfId="48" priority="37">
+    <cfRule type="expression" dxfId="80" priority="37">
       <formula>$C173="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="42">
+    <cfRule type="expression" dxfId="79" priority="42">
       <formula>$C173="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D173">
-    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="36" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="39" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="40" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="41" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="41" priority="30">
+    <cfRule type="expression" dxfId="73" priority="30">
       <formula>$C124="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35">
+    <cfRule type="expression" dxfId="72" priority="35">
       <formula>$C124="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="29" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="31" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="32" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="33" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="expression" dxfId="34" priority="23">
+    <cfRule type="expression" dxfId="66" priority="23">
       <formula>$C125="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="65" priority="28">
       <formula>$C125="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="22" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="24" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="25" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="26" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="27" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:E94">
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" dxfId="59" priority="16">
       <formula>$C91="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="21">
+    <cfRule type="expression" dxfId="58" priority="21">
       <formula>$C91="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D94">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="15" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="17" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="18" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="20" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="52" priority="9">
       <formula>$C90="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="51" priority="14">
       <formula>$C90="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="12" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="13" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>$C17="Nice to have"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>$C17="Deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"Pending Approval"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12797,7 +12798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1D18A-550F-418B-B18E-9DAD1CC7BE2C}">
   <dimension ref="B1:K86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -12856,17 +12857,17 @@
     </row>
     <row r="3" spans="2:11" ht="15.75" thickTop="1">
       <c r="B3" s="138" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="139" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="140">
         <v>44348</v>
       </c>
       <c r="E3" s="136">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="138"/>
       <c r="G3" s="141"/>
@@ -12880,10 +12881,10 @@
     </row>
     <row r="4" spans="2:11" outlineLevel="1">
       <c r="B4" s="168" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="169" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="170">
         <v>44221</v>
@@ -12893,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="168" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G4" s="171">
         <v>1</v>
@@ -12907,20 +12908,20 @@
     </row>
     <row r="5" spans="2:11" ht="30" outlineLevel="1">
       <c r="B5" s="168" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="169" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="170">
         <v>44265</v>
       </c>
       <c r="E5" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="168" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="171">
         <v>1</v>
@@ -12930,26 +12931,26 @@
       </c>
       <c r="I5" s="168"/>
       <c r="J5" s="169" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K5" s="173"/>
     </row>
     <row r="6" spans="2:11" outlineLevel="1">
       <c r="B6" s="168" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D6" s="170">
         <v>44265</v>
       </c>
       <c r="E6" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="168" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G6" s="171"/>
       <c r="H6" s="172">
@@ -12961,20 +12962,20 @@
     </row>
     <row r="7" spans="2:11" ht="45" outlineLevel="1">
       <c r="B7" s="168" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="169" t="s">
         <v>260</v>
-      </c>
-      <c r="C7" s="169" t="s">
-        <v>261</v>
       </c>
       <c r="D7" s="170">
         <v>44287</v>
       </c>
       <c r="E7" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="168" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G7" s="171"/>
       <c r="H7" s="172">
@@ -12982,26 +12983,26 @@
       </c>
       <c r="I7" s="168"/>
       <c r="J7" s="169" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K7" s="173"/>
     </row>
     <row r="8" spans="2:11" outlineLevel="1">
       <c r="B8" s="168" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C8" s="169" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D8" s="170">
         <v>44348</v>
       </c>
       <c r="E8" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="168" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" s="171"/>
       <c r="H8" s="172">
@@ -13013,20 +13014,20 @@
     </row>
     <row r="9" spans="2:11" ht="30" outlineLevel="1">
       <c r="B9" s="168" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C9" s="169" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D9" s="174">
         <v>44265</v>
       </c>
       <c r="E9" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="175" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G9" s="171"/>
       <c r="H9" s="172">
@@ -13034,16 +13035,16 @@
       </c>
       <c r="I9" s="168"/>
       <c r="J9" s="169" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K9" s="173"/>
     </row>
     <row r="10" spans="2:11" ht="30" outlineLevel="1">
       <c r="B10" s="168" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="169" t="s">
         <v>398</v>
-      </c>
-      <c r="C10" s="169" t="s">
-        <v>399</v>
       </c>
       <c r="D10" s="174">
         <v>44238</v>
@@ -13053,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="175" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="171"/>
       <c r="H10" s="172">
@@ -13061,26 +13062,26 @@
       </c>
       <c r="I10" s="168"/>
       <c r="J10" s="169" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K10" s="173"/>
     </row>
     <row r="11" spans="2:11" ht="30" outlineLevel="1">
       <c r="B11" s="168" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C11" s="169" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D11" s="174">
         <v>44265</v>
       </c>
       <c r="E11" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G11" s="171"/>
       <c r="H11" s="172">
@@ -13088,7 +13089,7 @@
       </c>
       <c r="I11" s="168"/>
       <c r="J11" s="169" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K11" s="173"/>
     </row>
@@ -13139,17 +13140,17 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="145" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="146" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15" s="147">
         <v>44287</v>
       </c>
       <c r="E15" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="145"/>
       <c r="G15" s="148"/>
@@ -13163,20 +13164,20 @@
     </row>
     <row r="16" spans="2:11" ht="240" outlineLevel="1">
       <c r="B16" s="162" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="163" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="164">
         <v>44265</v>
       </c>
       <c r="E16" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" s="162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16" s="165"/>
       <c r="H16" s="166">
@@ -13185,28 +13186,28 @@
       </c>
       <c r="I16" s="162"/>
       <c r="J16" s="163" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K16" s="167" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="2:11" outlineLevel="1">
       <c r="B17" s="162" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="163" t="s">
         <v>225</v>
-      </c>
-      <c r="C17" s="163" t="s">
-        <v>226</v>
       </c>
       <c r="D17" s="164">
         <v>44265</v>
       </c>
       <c r="E17" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" s="162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G17" s="165"/>
       <c r="H17" s="166">
@@ -13215,22 +13216,22 @@
       <c r="I17" s="162"/>
       <c r="J17" s="163"/>
       <c r="K17" s="167" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="2:11" outlineLevel="1">
       <c r="B18" s="162" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="163" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D18" s="194">
         <v>44287</v>
       </c>
       <c r="E18" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="195"/>
       <c r="G18" s="165"/>
@@ -13240,25 +13241,25 @@
       <c r="I18" s="162"/>
       <c r="J18" s="163"/>
       <c r="K18" s="167" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="2:11" outlineLevel="1">
       <c r="B19" s="162" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C19" s="163" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" s="164">
         <v>44287</v>
       </c>
       <c r="E19" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="162" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G19" s="165">
         <v>1</v>
@@ -13269,7 +13270,7 @@
       <c r="I19" s="162"/>
       <c r="J19" s="163"/>
       <c r="K19" s="167" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="2:11" outlineLevel="1">
@@ -13304,17 +13305,17 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="145" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="146" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="147">
         <v>44348</v>
       </c>
       <c r="E22" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22" s="145"/>
       <c r="G22" s="148"/>
@@ -13328,10 +13329,10 @@
     </row>
     <row r="23" spans="2:11" ht="30" outlineLevel="1">
       <c r="B23" s="155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="156" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" s="157">
         <v>44228</v>
@@ -13348,15 +13349,15 @@
       <c r="I23" s="155"/>
       <c r="J23" s="158"/>
       <c r="K23" s="161" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="150" outlineLevel="1">
       <c r="B24" s="155" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="156" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="157">
         <v>44256</v>
@@ -13373,15 +13374,15 @@
       <c r="I24" s="155"/>
       <c r="J24" s="158"/>
       <c r="K24" s="161" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="30" outlineLevel="1">
       <c r="B25" s="155" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" s="156" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D25" s="157">
         <v>44256</v>
@@ -13391,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G25" s="159"/>
       <c r="H25" s="160">
@@ -13400,25 +13401,25 @@
       <c r="I25" s="155"/>
       <c r="J25" s="158"/>
       <c r="K25" s="161" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="60" outlineLevel="1">
       <c r="B26" s="155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="156" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D26" s="176">
         <v>44265</v>
       </c>
       <c r="E26" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F26" s="177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G26" s="159"/>
       <c r="H26" s="160">
@@ -13427,25 +13428,25 @@
       <c r="I26" s="155"/>
       <c r="J26" s="158"/>
       <c r="K26" s="161" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="30" outlineLevel="1">
       <c r="B27" s="155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="156" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D27" s="176">
         <v>44265</v>
       </c>
       <c r="E27" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F27" s="177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G27" s="159"/>
       <c r="H27" s="160">
@@ -13454,25 +13455,25 @@
       <c r="I27" s="155"/>
       <c r="J27" s="158"/>
       <c r="K27" s="161" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="30" outlineLevel="1">
       <c r="B28" s="155" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C28" s="156" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D28" s="176">
         <v>44270</v>
       </c>
       <c r="E28" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" s="177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G28" s="159"/>
       <c r="H28" s="160">
@@ -13481,15 +13482,15 @@
       <c r="I28" s="155"/>
       <c r="J28" s="158"/>
       <c r="K28" s="161" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="60" outlineLevel="1">
       <c r="B29" s="155" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C29" s="156" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D29" s="176">
         <v>44237</v>
@@ -13506,22 +13507,22 @@
       <c r="I29" s="155"/>
       <c r="J29" s="158"/>
       <c r="K29" s="161" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="135" outlineLevel="1">
       <c r="B30" s="155" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D30" s="157">
         <v>44275</v>
       </c>
       <c r="E30" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F30" s="155"/>
       <c r="G30" s="159"/>
@@ -13531,22 +13532,22 @@
       <c r="I30" s="155"/>
       <c r="J30" s="158"/>
       <c r="K30" s="161" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="75" outlineLevel="1">
       <c r="B31" s="155" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C31" s="156" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D31" s="157">
         <v>44280</v>
       </c>
       <c r="E31" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F31" s="155"/>
       <c r="G31" s="159"/>
@@ -13556,15 +13557,15 @@
       <c r="I31" s="155"/>
       <c r="J31" s="158"/>
       <c r="K31" s="161" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="30" outlineLevel="1">
       <c r="B32" s="155" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C32" s="156" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D32" s="176">
         <v>44256</v>
@@ -13581,22 +13582,22 @@
       <c r="I32" s="155"/>
       <c r="J32" s="158"/>
       <c r="K32" s="161" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="2:11" outlineLevel="1">
       <c r="B33" s="155" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C33" s="156" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D33" s="176">
         <v>44265</v>
       </c>
       <c r="E33" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" s="177"/>
       <c r="G33" s="159"/>
@@ -13606,15 +13607,15 @@
       <c r="I33" s="155"/>
       <c r="J33" s="158"/>
       <c r="K33" s="161" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="2:11" outlineLevel="1">
       <c r="B34" s="155" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C34" s="156" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D34" s="176">
         <v>44256</v>
@@ -13631,22 +13632,22 @@
       <c r="I34" s="155"/>
       <c r="J34" s="158"/>
       <c r="K34" s="161" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="2:11" outlineLevel="1">
       <c r="B35" s="155" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C35" s="156" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D35" s="157">
         <v>44301</v>
       </c>
       <c r="E35" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F35" s="155"/>
       <c r="G35" s="159"/>
@@ -13656,22 +13657,22 @@
       <c r="I35" s="155"/>
       <c r="J35" s="158"/>
       <c r="K35" s="161" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="2:11" outlineLevel="1">
       <c r="B36" s="155" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C36" s="156" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D36" s="157">
         <v>44306</v>
       </c>
       <c r="E36" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F36" s="155"/>
       <c r="G36" s="159"/>
@@ -13681,22 +13682,22 @@
       <c r="I36" s="155"/>
       <c r="J36" s="158"/>
       <c r="K36" s="161" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="30" outlineLevel="1">
       <c r="B37" s="155" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C37" s="156" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D37" s="157">
         <v>44316</v>
       </c>
       <c r="E37" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F37" s="155"/>
       <c r="G37" s="159"/>
@@ -13706,22 +13707,22 @@
       <c r="I37" s="155"/>
       <c r="J37" s="158"/>
       <c r="K37" s="161" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="2:11" outlineLevel="1">
       <c r="B38" s="155" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C38" s="156" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D38" s="157">
         <v>44329</v>
       </c>
       <c r="E38" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F38" s="155"/>
       <c r="G38" s="159"/>
@@ -13731,22 +13732,22 @@
       <c r="I38" s="155"/>
       <c r="J38" s="158"/>
       <c r="K38" s="161" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="2:11" outlineLevel="1">
       <c r="B39" s="155" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C39" s="156" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D39" s="157">
         <v>44331</v>
       </c>
       <c r="E39" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F39" s="155"/>
       <c r="G39" s="159">
@@ -13777,14 +13778,14 @@
     <row r="41" spans="2:11" outlineLevel="1">
       <c r="B41" s="155"/>
       <c r="C41" s="156" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D41" s="157">
         <v>44378</v>
       </c>
       <c r="E41" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F41" s="155"/>
       <c r="G41" s="159">
@@ -13829,17 +13830,17 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="145" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C44" s="146" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D44" s="147">
         <v>44378</v>
       </c>
       <c r="E44" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44" s="145"/>
       <c r="G44" s="148"/>
@@ -13853,17 +13854,17 @@
     </row>
     <row r="45" spans="2:11" ht="45" outlineLevel="1">
       <c r="B45" s="186" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C45" s="187" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D45" s="188">
         <v>44287</v>
       </c>
       <c r="E45" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F45" s="186"/>
       <c r="G45" s="189"/>
@@ -13873,22 +13874,22 @@
       <c r="I45" s="186"/>
       <c r="J45" s="187"/>
       <c r="K45" s="191" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="45" outlineLevel="1">
       <c r="B46" s="186" t="s">
+        <v>445</v>
+      </c>
+      <c r="C46" s="187" t="s">
         <v>447</v>
-      </c>
-      <c r="C46" s="187" t="s">
-        <v>449</v>
       </c>
       <c r="D46" s="188">
         <v>44287</v>
       </c>
       <c r="E46" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F46" s="186"/>
       <c r="G46" s="189"/>
@@ -13898,22 +13899,22 @@
       <c r="I46" s="186"/>
       <c r="J46" s="187"/>
       <c r="K46" s="191" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="45" outlineLevel="1">
       <c r="B47" s="186" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C47" s="187" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D47" s="188">
         <v>44287</v>
       </c>
       <c r="E47" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F47" s="193"/>
       <c r="G47" s="189"/>
@@ -13923,25 +13924,25 @@
       <c r="I47" s="186"/>
       <c r="J47" s="187"/>
       <c r="K47" s="191" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="45" outlineLevel="1">
       <c r="B48" s="186" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C48" s="187" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D48" s="188">
         <v>44287</v>
       </c>
       <c r="E48" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F48" s="193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G48" s="189"/>
       <c r="H48" s="190">
@@ -13950,22 +13951,22 @@
       <c r="I48" s="186"/>
       <c r="J48" s="187"/>
       <c r="K48" s="191" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="60" outlineLevel="1">
       <c r="B49" s="186" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C49" s="187" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D49" s="188">
         <v>44287</v>
       </c>
       <c r="E49" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F49" s="193"/>
       <c r="G49" s="189"/>
@@ -13975,22 +13976,22 @@
       <c r="I49" s="186"/>
       <c r="J49" s="187"/>
       <c r="K49" s="191" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="60" outlineLevel="1">
       <c r="B50" s="186" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C50" s="187" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D50" s="188">
         <v>44287</v>
       </c>
       <c r="E50" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F50" s="193"/>
       <c r="G50" s="189"/>
@@ -14000,25 +14001,25 @@
       <c r="I50" s="186"/>
       <c r="J50" s="187"/>
       <c r="K50" s="191" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="60" outlineLevel="1">
       <c r="B51" s="186" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C51" s="187" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D51" s="188">
         <v>44287</v>
       </c>
       <c r="E51" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F51" s="193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G51" s="189"/>
       <c r="H51" s="190">
@@ -14027,22 +14028,22 @@
       <c r="I51" s="186"/>
       <c r="J51" s="187"/>
       <c r="K51" s="191" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="45" outlineLevel="1">
       <c r="B52" s="186" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C52" s="187" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D52" s="188">
         <v>44287</v>
       </c>
       <c r="E52" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F52" s="186"/>
       <c r="G52" s="189"/>
@@ -14052,22 +14053,22 @@
       <c r="I52" s="186"/>
       <c r="J52" s="187"/>
       <c r="K52" s="191" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="30" outlineLevel="1">
       <c r="B53" s="186" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C53" s="187" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D53" s="188">
         <v>44287</v>
       </c>
       <c r="E53" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F53" s="193"/>
       <c r="G53" s="189"/>
@@ -14077,22 +14078,22 @@
       <c r="I53" s="186"/>
       <c r="J53" s="187"/>
       <c r="K53" s="191" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="2:11" outlineLevel="1">
       <c r="B54" s="186" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C54" s="187" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D54" s="188">
         <v>44287</v>
       </c>
       <c r="E54" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F54" s="193"/>
       <c r="G54" s="189"/>
@@ -14102,25 +14103,25 @@
       <c r="I54" s="186"/>
       <c r="J54" s="187"/>
       <c r="K54" s="191" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="2:11" outlineLevel="1">
       <c r="B55" s="186" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C55" s="187" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D55" s="188">
         <v>44287</v>
       </c>
       <c r="E55" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F55" s="193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G55" s="189"/>
       <c r="H55" s="190">
@@ -14129,25 +14130,25 @@
       <c r="I55" s="186"/>
       <c r="J55" s="187"/>
       <c r="K55" s="191" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="2:11" outlineLevel="1">
       <c r="B56" s="186" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C56" s="187" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D56" s="188">
         <v>44287</v>
       </c>
       <c r="E56" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F56" s="193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G56" s="189"/>
       <c r="H56" s="190">
@@ -14156,7 +14157,7 @@
       <c r="I56" s="186"/>
       <c r="J56" s="187"/>
       <c r="K56" s="191" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="2:11" outlineLevel="1">
@@ -14637,17 +14638,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C86">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>AND($E3&lt;5,$H3&lt;&gt;1,NOT(ISBLANK($H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E85">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>AND(NOT(ISBLANK($H3)),$E3&lt;10,$H3&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:K86">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$H3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14734,7 +14735,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>49</v>
@@ -14751,16 +14752,16 @@
         <v>56</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="101" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -14771,16 +14772,16 @@
         <v>56</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="100" t="s">
         <v>179</v>
-      </c>
-      <c r="H4" s="100" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -14791,16 +14792,16 @@
         <v>56</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F5" s="41" t="s">
         <v>73</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -14811,16 +14812,16 @@
         <v>56</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>74</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -14831,16 +14832,16 @@
         <v>56</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>76</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -14851,16 +14852,16 @@
         <v>56</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -14871,16 +14872,16 @@
         <v>56</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -14891,7 +14892,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -14899,10 +14900,10 @@
         <v>70</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -14910,10 +14911,10 @@
         <v>71</v>
       </c>
       <c r="C12" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>231</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -14924,7 +14925,7 @@
         <v>67</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -14935,19 +14936,19 @@
         <v>67</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>49</v>
@@ -14956,7 +14957,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>49</v>
@@ -14973,16 +14974,16 @@
         <v>67</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G18" s="43" t="s">
         <v>55</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -14993,7 +14994,7 @@
         <v>67</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="36"/>
@@ -15001,13 +15002,13 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="45"/>
       <c r="G20" s="44"/>
@@ -15015,13 +15016,13 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="36"/>
@@ -15029,13 +15030,13 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="44"/>
@@ -15043,13 +15044,13 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="37"/>
@@ -15057,7 +15058,7 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>49</v>
@@ -15071,10 +15072,10 @@
         <v>65</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -15082,10 +15083,10 @@
         <v>73</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -15093,10 +15094,10 @@
         <v>74</v>
       </c>
       <c r="C28" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="44" t="s">
         <v>155</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -15104,103 +15105,103 @@
         <v>76</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>155</v>
-      </c>
       <c r="D37" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="39" t="s">
         <v>49</v>
@@ -15214,10 +15215,10 @@
         <v>66</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -15225,125 +15226,125 @@
         <v>75</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>49</v>
@@ -15360,7 +15361,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -15371,7 +15372,7 @@
         <v>55</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -15382,7 +15383,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -15393,29 +15394,29 @@
         <v>53</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="D58" s="44" t="s">
         <v>175</v>
-      </c>
-      <c r="D58" s="44" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="41" t="s">
         <v>177</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -15442,154 +15443,154 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:1" s="153" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:1" s="152" customFormat="1"/>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -15603,345 +15604,345 @@
     <row r="72" spans="1:11" s="153" customFormat="1"/>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:1" s="154" customFormat="1"/>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:1" s="153" customFormat="1"/>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:1" s="153" customFormat="1"/>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -16337,16 +16338,16 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="H10:H29">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"As Design"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Close"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BZ172Lab/BZ172Lab Notes.xlsx
+++ b/BZ172Lab/BZ172Lab Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BZ\Projects\PLC61131Repos\BZ172Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C839F8-21B3-4CDB-B0C9-935C04F022CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCECF0B7-1CF9-4617-93DC-DB31D7C44EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4089,21 +4089,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="15" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="15" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4112,36 +4142,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="15" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="15" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="F22" s="196">
         <f ca="1">TODAY()</f>
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="G22" s="196"/>
       <c r="H22" s="196"/>
@@ -8602,23 +8602,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:7">
-      <c r="D2" s="208">
+      <c r="D2" s="218">
         <f ca="1">TODAY()</f>
-        <v>44259</v>
-      </c>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
+        <v>44260</v>
+      </c>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
     </row>
     <row r="3" spans="4:7">
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
     </row>
     <row r="4" spans="4:7">
-      <c r="D4" s="207" t="s">
+      <c r="D4" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="207"/>
+      <c r="E4" s="217"/>
       <c r="F4" s="27">
         <f>COUNTIF(FRS.Level, D4)</f>
         <v>139</v>
@@ -8626,10 +8626,10 @@
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="4:7">
-      <c r="D5" s="207" t="s">
+      <c r="D5" s="217" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="207"/>
+      <c r="E5" s="217"/>
       <c r="F5" s="27">
         <f>COUNTIF(FRS.Level, D5)</f>
         <v>7</v>
@@ -8637,10 +8637,10 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="4:7">
-      <c r="D6" s="207" t="s">
+      <c r="D6" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="207"/>
+      <c r="E6" s="217"/>
       <c r="F6" s="27">
         <f>COUNTIF(FRS.Level, D6)</f>
         <v>6</v>
@@ -8648,10 +8648,10 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="4:7">
-      <c r="D7" s="207" t="s">
+      <c r="D7" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="207"/>
+      <c r="E7" s="217"/>
       <c r="F7" s="27">
         <f>COUNTIF(FRS.Level, D7)</f>
         <v>0</v>
@@ -8668,134 +8668,134 @@
       <c r="G8" s="26"/>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="207" t="s">
+      <c r="D10" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="207"/>
+      <c r="E10" s="217"/>
       <c r="F10" s="27">
         <f t="shared" ref="F10:F16" si="0">COUNTIF(FRS.Status,D10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="4:7">
-      <c r="D11" s="207" t="s">
+      <c r="D11" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="207"/>
+      <c r="E11" s="217"/>
       <c r="F11" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="4:7">
-      <c r="D12" s="207" t="s">
+      <c r="D12" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="207"/>
+      <c r="E12" s="217"/>
       <c r="F12" s="27">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="207" t="s">
+      <c r="D13" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="207"/>
+      <c r="E13" s="217"/>
       <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="207" t="s">
+      <c r="D14" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="207"/>
+      <c r="E14" s="217"/>
       <c r="F14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="207" t="s">
+      <c r="D15" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="207"/>
+      <c r="E15" s="217"/>
       <c r="F15" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:7">
-      <c r="D16" s="207" t="s">
+      <c r="D16" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="207"/>
+      <c r="E16" s="217"/>
       <c r="F16" s="27">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="4:19" ht="20.25" thickBot="1">
-      <c r="D18" s="219" t="s">
+      <c r="D18" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="218" t="s">
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="208" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
-      <c r="Q18" s="218"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="208"/>
+      <c r="N18" s="208"/>
+      <c r="O18" s="208"/>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="208"/>
     </row>
     <row r="19" spans="4:19" ht="15.75" thickTop="1">
-      <c r="D19" s="215" t="s">
+      <c r="D19" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215" t="s">
+      <c r="E19" s="202"/>
+      <c r="F19" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="215"/>
-      <c r="H19" s="215" t="s">
+      <c r="G19" s="202"/>
+      <c r="H19" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215" t="s">
+      <c r="I19" s="202"/>
+      <c r="J19" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="215"/>
-      <c r="L19" s="215" t="s">
+      <c r="K19" s="202"/>
+      <c r="L19" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="215"/>
-      <c r="N19" s="215" t="s">
+      <c r="M19" s="202"/>
+      <c r="N19" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="215"/>
-      <c r="P19" s="215" t="s">
+      <c r="O19" s="202"/>
+      <c r="P19" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="215"/>
+      <c r="Q19" s="202"/>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="202">
+      <c r="D20" s="203">
         <v>44221</v>
       </c>
-      <c r="E20" s="203"/>
-      <c r="F20" s="204" t="s">
+      <c r="E20" s="204"/>
+      <c r="F20" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="204"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="205">
         <v>8</v>
       </c>
@@ -8812,21 +8812,21 @@
         <v>0</v>
       </c>
       <c r="O20" s="205"/>
-      <c r="P20" s="216">
+      <c r="P20" s="206">
         <v>0</v>
       </c>
-      <c r="Q20" s="217"/>
+      <c r="Q20" s="207"/>
       <c r="S20" s="28"/>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="202">
+      <c r="D21" s="203">
         <v>44237</v>
       </c>
-      <c r="E21" s="203"/>
-      <c r="F21" s="204" t="s">
+      <c r="E21" s="204"/>
+      <c r="F21" s="212" t="s">
         <v>487</v>
       </c>
-      <c r="G21" s="204"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="205">
         <v>9</v>
       </c>
@@ -8846,17 +8846,17 @@
       <c r="P21" s="205">
         <v>56</v>
       </c>
-      <c r="Q21" s="206"/>
+      <c r="Q21" s="215"/>
     </row>
     <row r="22" spans="4:19">
-      <c r="D22" s="202">
+      <c r="D22" s="203">
         <v>44256</v>
       </c>
-      <c r="E22" s="203"/>
-      <c r="F22" s="204" t="s">
+      <c r="E22" s="204"/>
+      <c r="F22" s="212" t="s">
         <v>551</v>
       </c>
-      <c r="G22" s="204"/>
+      <c r="G22" s="212"/>
       <c r="H22" s="205">
         <v>4</v>
       </c>
@@ -8876,15 +8876,15 @@
       <c r="P22" s="205">
         <v>90</v>
       </c>
-      <c r="Q22" s="206"/>
+      <c r="Q22" s="215"/>
     </row>
     <row r="23" spans="4:19">
-      <c r="D23" s="202">
+      <c r="D23" s="203">
         <v>44287</v>
       </c>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
       <c r="H23" s="205"/>
       <c r="I23" s="205"/>
       <c r="J23" s="205"/>
@@ -8894,13 +8894,13 @@
       <c r="N23" s="205"/>
       <c r="O23" s="205"/>
       <c r="P23" s="205"/>
-      <c r="Q23" s="206"/>
+      <c r="Q23" s="215"/>
     </row>
     <row r="24" spans="4:19">
-      <c r="D24" s="202"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
       <c r="H24" s="205"/>
       <c r="I24" s="205"/>
       <c r="J24" s="205"/>
@@ -8910,13 +8910,13 @@
       <c r="N24" s="205"/>
       <c r="O24" s="205"/>
       <c r="P24" s="205"/>
-      <c r="Q24" s="206"/>
+      <c r="Q24" s="215"/>
     </row>
     <row r="25" spans="4:19">
-      <c r="D25" s="202"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
       <c r="H25" s="205"/>
       <c r="I25" s="205"/>
       <c r="J25" s="205"/>
@@ -8926,13 +8926,13 @@
       <c r="N25" s="205"/>
       <c r="O25" s="205"/>
       <c r="P25" s="205"/>
-      <c r="Q25" s="206"/>
+      <c r="Q25" s="215"/>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="202"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
       <c r="H26" s="205"/>
       <c r="I26" s="205"/>
       <c r="J26" s="205"/>
@@ -8942,13 +8942,13 @@
       <c r="N26" s="205"/>
       <c r="O26" s="205"/>
       <c r="P26" s="205"/>
-      <c r="Q26" s="206"/>
+      <c r="Q26" s="215"/>
     </row>
     <row r="27" spans="4:19">
-      <c r="D27" s="202"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
       <c r="H27" s="205"/>
       <c r="I27" s="205"/>
       <c r="J27" s="205"/>
@@ -8958,13 +8958,13 @@
       <c r="N27" s="205"/>
       <c r="O27" s="205"/>
       <c r="P27" s="205"/>
-      <c r="Q27" s="206"/>
+      <c r="Q27" s="215"/>
     </row>
     <row r="28" spans="4:19">
-      <c r="D28" s="202"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="212"/>
       <c r="H28" s="205"/>
       <c r="I28" s="205"/>
       <c r="J28" s="205"/>
@@ -8974,13 +8974,13 @@
       <c r="N28" s="205"/>
       <c r="O28" s="205"/>
       <c r="P28" s="205"/>
-      <c r="Q28" s="206"/>
+      <c r="Q28" s="215"/>
     </row>
     <row r="29" spans="4:19">
-      <c r="D29" s="202"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="212"/>
       <c r="H29" s="205"/>
       <c r="I29" s="205"/>
       <c r="J29" s="205"/>
@@ -8990,13 +8990,13 @@
       <c r="N29" s="205"/>
       <c r="O29" s="205"/>
       <c r="P29" s="205"/>
-      <c r="Q29" s="206"/>
+      <c r="Q29" s="215"/>
     </row>
     <row r="30" spans="4:19">
-      <c r="D30" s="202"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
       <c r="H30" s="205"/>
       <c r="I30" s="205"/>
       <c r="J30" s="205"/>
@@ -9006,13 +9006,13 @@
       <c r="N30" s="205"/>
       <c r="O30" s="205"/>
       <c r="P30" s="205"/>
-      <c r="Q30" s="206"/>
+      <c r="Q30" s="215"/>
     </row>
     <row r="31" spans="4:19">
-      <c r="D31" s="202"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="204"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
       <c r="H31" s="205"/>
       <c r="I31" s="205"/>
       <c r="J31" s="205"/>
@@ -9022,13 +9022,13 @@
       <c r="N31" s="205"/>
       <c r="O31" s="205"/>
       <c r="P31" s="205"/>
-      <c r="Q31" s="206"/>
+      <c r="Q31" s="215"/>
     </row>
     <row r="32" spans="4:19">
-      <c r="D32" s="202"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="212"/>
       <c r="H32" s="205"/>
       <c r="I32" s="205"/>
       <c r="J32" s="205"/>
@@ -9038,13 +9038,13 @@
       <c r="N32" s="205"/>
       <c r="O32" s="205"/>
       <c r="P32" s="205"/>
-      <c r="Q32" s="206"/>
+      <c r="Q32" s="215"/>
     </row>
     <row r="33" spans="4:17">
-      <c r="D33" s="202"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
       <c r="H33" s="205"/>
       <c r="I33" s="205"/>
       <c r="J33" s="205"/>
@@ -9054,13 +9054,13 @@
       <c r="N33" s="205"/>
       <c r="O33" s="205"/>
       <c r="P33" s="205"/>
-      <c r="Q33" s="206"/>
+      <c r="Q33" s="215"/>
     </row>
     <row r="34" spans="4:17">
-      <c r="D34" s="202"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="204"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
       <c r="H34" s="205"/>
       <c r="I34" s="205"/>
       <c r="J34" s="205"/>
@@ -9070,13 +9070,13 @@
       <c r="N34" s="205"/>
       <c r="O34" s="205"/>
       <c r="P34" s="205"/>
-      <c r="Q34" s="206"/>
+      <c r="Q34" s="215"/>
     </row>
     <row r="35" spans="4:17">
-      <c r="D35" s="202"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
       <c r="H35" s="205"/>
       <c r="I35" s="205"/>
       <c r="J35" s="205"/>
@@ -9086,13 +9086,13 @@
       <c r="N35" s="205"/>
       <c r="O35" s="205"/>
       <c r="P35" s="205"/>
-      <c r="Q35" s="206"/>
+      <c r="Q35" s="215"/>
     </row>
     <row r="36" spans="4:17">
-      <c r="D36" s="202"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
       <c r="H36" s="205"/>
       <c r="I36" s="205"/>
       <c r="J36" s="205"/>
@@ -9102,13 +9102,13 @@
       <c r="N36" s="205"/>
       <c r="O36" s="205"/>
       <c r="P36" s="205"/>
-      <c r="Q36" s="206"/>
+      <c r="Q36" s="215"/>
     </row>
     <row r="37" spans="4:17">
-      <c r="D37" s="202"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
       <c r="H37" s="205"/>
       <c r="I37" s="205"/>
       <c r="J37" s="205"/>
@@ -9118,13 +9118,13 @@
       <c r="N37" s="205"/>
       <c r="O37" s="205"/>
       <c r="P37" s="205"/>
-      <c r="Q37" s="206"/>
+      <c r="Q37" s="215"/>
     </row>
     <row r="38" spans="4:17">
-      <c r="D38" s="202"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
       <c r="H38" s="205"/>
       <c r="I38" s="205"/>
       <c r="J38" s="205"/>
@@ -9134,13 +9134,13 @@
       <c r="N38" s="205"/>
       <c r="O38" s="205"/>
       <c r="P38" s="205"/>
-      <c r="Q38" s="206"/>
+      <c r="Q38" s="215"/>
     </row>
     <row r="39" spans="4:17">
-      <c r="D39" s="202"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="212"/>
+      <c r="G39" s="212"/>
       <c r="H39" s="205"/>
       <c r="I39" s="205"/>
       <c r="J39" s="205"/>
@@ -9150,23 +9150,23 @@
       <c r="N39" s="205"/>
       <c r="O39" s="205"/>
       <c r="P39" s="205"/>
-      <c r="Q39" s="206"/>
+      <c r="Q39" s="215"/>
     </row>
     <row r="40" spans="4:17">
-      <c r="D40" s="213"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="212"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="210"/>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="210"/>
-      <c r="M40" s="210"/>
-      <c r="N40" s="210"/>
-      <c r="O40" s="210"/>
-      <c r="P40" s="210"/>
-      <c r="Q40" s="211"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="214"/>
+      <c r="L40" s="214"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="214"/>
+      <c r="P40" s="214"/>
+      <c r="Q40" s="216"/>
     </row>
     <row r="41" spans="4:17">
       <c r="D41" s="24"/>
@@ -9174,21 +9174,135 @@
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H36:I36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
@@ -9213,135 +9327,21 @@
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -9369,7 +9369,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -9418,7 +9418,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>578</v>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="F60" s="92"/>
     </row>
-    <row r="61" spans="2:6" ht="285" outlineLevel="1">
+    <row r="61" spans="2:6" ht="300" outlineLevel="1">
       <c r="B61" s="30" t="str">
         <f t="shared" si="3"/>
         <v>VF.010</v>
@@ -10691,7 +10691,7 @@
         <v>35</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>574</v>
@@ -12867,7 +12867,7 @@
       </c>
       <c r="E3" s="136">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="138"/>
       <c r="G3" s="141"/>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="E5" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="168" t="s">
         <v>219</v>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="E6" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="168" t="s">
         <v>220</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="E7" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="168" t="s">
         <v>261</v>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="E8" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="168" t="s">
         <v>261</v>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="E9" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="175" t="s">
         <v>220</v>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="E11" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="175" t="s">
         <v>219</v>
@@ -13150,7 +13150,7 @@
       </c>
       <c r="E15" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="145"/>
       <c r="G15" s="148"/>
@@ -13174,7 +13174,7 @@
       </c>
       <c r="E16" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="162" t="s">
         <v>219</v>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="E17" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="162" t="s">
         <v>219</v>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="E18" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="195"/>
       <c r="G18" s="165"/>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="E19" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="162" t="s">
         <v>261</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="E22" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="145"/>
       <c r="G22" s="148"/>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="E26" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="177" t="s">
         <v>219</v>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="E27" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="177" t="s">
         <v>219</v>
@@ -13470,7 +13470,7 @@
       </c>
       <c r="E28" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="177" t="s">
         <v>219</v>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="E30" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="155"/>
       <c r="G30" s="159"/>
@@ -13547,7 +13547,7 @@
       </c>
       <c r="E31" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="155"/>
       <c r="G31" s="159"/>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="E33" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" s="177"/>
       <c r="G33" s="159"/>
@@ -13647,7 +13647,7 @@
       </c>
       <c r="E35" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" s="155"/>
       <c r="G35" s="159"/>
@@ -13672,7 +13672,7 @@
       </c>
       <c r="E36" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="155"/>
       <c r="G36" s="159"/>
@@ -13697,7 +13697,7 @@
       </c>
       <c r="E37" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" s="155"/>
       <c r="G37" s="159"/>
@@ -13722,7 +13722,7 @@
       </c>
       <c r="E38" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="155"/>
       <c r="G38" s="159"/>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="E39" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="155"/>
       <c r="G39" s="159">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="E41" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="155"/>
       <c r="G41" s="159">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="E44" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="145"/>
       <c r="G44" s="148"/>
@@ -13864,7 +13864,7 @@
       </c>
       <c r="E45" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="186"/>
       <c r="G45" s="189"/>
@@ -13889,7 +13889,7 @@
       </c>
       <c r="E46" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46" s="186"/>
       <c r="G46" s="189"/>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="E47" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47" s="193"/>
       <c r="G47" s="189"/>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="E48" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" s="193" t="s">
         <v>219</v>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="E49" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F49" s="193"/>
       <c r="G49" s="189"/>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="E50" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F50" s="193"/>
       <c r="G50" s="189"/>
@@ -14016,7 +14016,7 @@
       </c>
       <c r="E51" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51" s="193" t="s">
         <v>219</v>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="E52" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F52" s="186"/>
       <c r="G52" s="189"/>
@@ -14068,7 +14068,7 @@
       </c>
       <c r="E53" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="193"/>
       <c r="G53" s="189"/>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="E54" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54" s="193"/>
       <c r="G54" s="189"/>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="E55" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F55" s="193" t="s">
         <v>219</v>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="E56" s="137">
         <f ca="1">IF(OR(ISBLANK(Table1[[#This Row],[Due]]),TODAY()&gt;Table1[[#This Row],[Due]]),0,NETWORKDAYS(TODAY(),Table1[[#This Row],[Due]]))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F56" s="193" t="s">
         <v>219</v>
